--- a/Comparsion of costs.xlsx
+++ b/Comparsion of costs.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:Y645"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O617" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection activeCell="Y617" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>923317</v>
       </c>
       <c r="Y2">
-        <v>923088</v>
+        <v>921646</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>947267</v>
       </c>
       <c r="Y3">
-        <v>947219</v>
+        <v>945534</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>965292</v>
       </c>
       <c r="Y4">
-        <v>965529</v>
+        <v>965873</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>936761</v>
       </c>
       <c r="Y5">
-        <v>936638</v>
+        <v>934995</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>964013</v>
       </c>
       <c r="Y6">
-        <v>963693</v>
+        <v>963765</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>965635</v>
       </c>
       <c r="Y7">
-        <v>965543</v>
+        <v>965211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>1003001</v>
       </c>
       <c r="Y8">
-        <v>1001961</v>
+        <v>1000366</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>983684</v>
       </c>
       <c r="Y9">
-        <v>983831</v>
+        <v>981108</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>992449</v>
       </c>
       <c r="Y10">
-        <v>991245</v>
+        <v>990622</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>950928</v>
       </c>
       <c r="Y11">
-        <v>951676</v>
+        <v>950480</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>922211</v>
       </c>
       <c r="Y12">
-        <v>920712</v>
+        <v>923847</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>883007</v>
       </c>
       <c r="Y13">
-        <v>884949</v>
+        <v>880652</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>890120</v>
       </c>
       <c r="Y14">
-        <v>891442</v>
+        <v>886917</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>880617</v>
       </c>
       <c r="Y15">
-        <v>882183</v>
+        <v>872937</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>910590</v>
       </c>
       <c r="Y16">
-        <v>902852</v>
+        <v>903449</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>893242</v>
       </c>
       <c r="Y17">
-        <v>887695</v>
+        <v>883479</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>867799</v>
       </c>
       <c r="Y18">
-        <v>867197</v>
+        <v>868142</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>962921</v>
       </c>
       <c r="Y19">
-        <v>964075</v>
+        <v>955215</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -1994,7 +1994,7 @@
         <v>892727</v>
       </c>
       <c r="Y20">
-        <v>890382</v>
+        <v>887777</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>876698</v>
       </c>
       <c r="Y21">
-        <v>878137</v>
+        <v>865580</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>638848</v>
       </c>
       <c r="Y22">
-        <v>669066</v>
+        <v>617290</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>632697</v>
       </c>
       <c r="Y23">
-        <v>642054</v>
+        <v>613960</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>694359</v>
       </c>
       <c r="Y24">
-        <v>640295</v>
+        <v>598846</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
         <v>615549</v>
       </c>
       <c r="Y25">
-        <v>609075</v>
+        <v>589942</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>695665</v>
       </c>
       <c r="Y26">
-        <v>682599</v>
+        <v>654286</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>621357</v>
       </c>
       <c r="Y27">
-        <v>640724</v>
+        <v>605478</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>662766</v>
       </c>
       <c r="Y28">
-        <v>670967</v>
+        <v>621485</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>693621</v>
       </c>
       <c r="Y29">
-        <v>684503</v>
+        <v>674203</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>612757</v>
       </c>
       <c r="Y30">
-        <v>602965</v>
+        <v>585279</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>708285</v>
       </c>
       <c r="Y31">
-        <v>680034</v>
+        <v>656811</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
         <v>220211</v>
       </c>
       <c r="Y32">
-        <v>230908</v>
+        <v>258591</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>254025</v>
       </c>
       <c r="Y33">
-        <v>259562</v>
+        <v>308027</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
         <v>427336</v>
       </c>
       <c r="Y34">
-        <v>327943</v>
+        <v>278937</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>319296</v>
       </c>
       <c r="Y35">
-        <v>296145</v>
+        <v>199412</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>371943</v>
       </c>
       <c r="Y36">
-        <v>328181</v>
+        <v>254503</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
         <v>379540</v>
       </c>
       <c r="Y37">
-        <v>360023</v>
+        <v>260439</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>355684</v>
       </c>
       <c r="Y38">
-        <v>349076</v>
+        <v>311879</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>244023</v>
       </c>
       <c r="Y39">
-        <v>223398</v>
+        <v>211605</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>287267</v>
       </c>
       <c r="Y40">
-        <v>322720</v>
+        <v>278314</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>253838</v>
       </c>
       <c r="Y41">
-        <v>254015</v>
+        <v>198897</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>985090</v>
       </c>
       <c r="Y47">
-        <v>985090</v>
+        <v>985045</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>1022109</v>
       </c>
       <c r="Y50">
-        <v>1022109</v>
+        <v>1021898</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
@@ -4381,7 +4381,7 @@
         <v>1010050</v>
       </c>
       <c r="Y51">
-        <v>1010050</v>
+        <v>1009918</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>914981</v>
       </c>
       <c r="Y53">
-        <v>914981</v>
+        <v>914283</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
         <v>879151</v>
       </c>
       <c r="Y54">
-        <v>879151</v>
+        <v>877630</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
@@ -4689,7 +4689,7 @@
         <v>954994</v>
       </c>
       <c r="Y55">
-        <v>954994</v>
+        <v>954664</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>954755</v>
       </c>
       <c r="Y57">
-        <v>954755</v>
+        <v>952743</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>635251</v>
       </c>
       <c r="Y62">
-        <v>635275</v>
+        <v>638323</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
         <v>572025</v>
       </c>
       <c r="Y63">
-        <v>572025</v>
+        <v>562925</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>593628</v>
       </c>
       <c r="Y65">
-        <v>593628</v>
+        <v>591644</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>576025</v>
       </c>
       <c r="Y67">
-        <v>576025</v>
+        <v>574945</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>615059</v>
       </c>
       <c r="Y69">
-        <v>615059</v>
+        <v>613304</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>574136</v>
       </c>
       <c r="Y70">
-        <v>574136</v>
+        <v>571021</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>172175</v>
       </c>
       <c r="Y73">
-        <v>172175</v>
+        <v>172383</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>218283</v>
       </c>
       <c r="Y74">
-        <v>218283</v>
+        <v>189199</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>162448</v>
       </c>
       <c r="Y75">
-        <v>162448</v>
+        <v>158281</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>187018</v>
       </c>
       <c r="Y76">
-        <v>187018</v>
+        <v>179624</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>273889</v>
       </c>
       <c r="Y78">
-        <v>273889</v>
+        <v>261955</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>217293</v>
       </c>
       <c r="Y81">
-        <v>217293</v>
+        <v>224163</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
@@ -12928,7 +12928,7 @@
         <v>1827688</v>
       </c>
       <c r="Y162">
-        <v>1828328</v>
+        <v>1825331</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>1911125</v>
       </c>
       <c r="Y163">
-        <v>1910001</v>
+        <v>1908885</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>1841898</v>
       </c>
       <c r="Y164">
-        <v>1841725</v>
+        <v>1838769</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
@@ -13159,7 +13159,7 @@
         <v>1898005</v>
       </c>
       <c r="Y165">
-        <v>1897406</v>
+        <v>1895341</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
         <v>1892955</v>
       </c>
       <c r="Y166">
-        <v>1892900</v>
+        <v>1891133</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>2050632</v>
       </c>
       <c r="Y167">
-        <v>2049398</v>
+        <v>2048244</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>1961463</v>
       </c>
       <c r="Y168">
-        <v>1961013</v>
+        <v>1959533</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>1848243</v>
       </c>
       <c r="Y169">
-        <v>1847286</v>
+        <v>1845115</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>1891146</v>
       </c>
       <c r="Y170">
-        <v>1890143</v>
+        <v>1887490</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
@@ -13621,7 +13621,7 @@
         <v>1943851</v>
       </c>
       <c r="Y171">
-        <v>1944257</v>
+        <v>1944108</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>1845063</v>
       </c>
       <c r="Y172">
-        <v>1846077</v>
+        <v>1853944</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
@@ -13775,7 +13775,7 @@
         <v>1815450</v>
       </c>
       <c r="Y173">
-        <v>1814942</v>
+        <v>1813063</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>1797005</v>
       </c>
       <c r="Y174">
-        <v>1798541</v>
+        <v>1790929</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
@@ -13929,7 +13929,7 @@
         <v>1817747</v>
       </c>
       <c r="Y175">
-        <v>1815884</v>
+        <v>1806792</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>1754331</v>
       </c>
       <c r="Y176">
-        <v>1752240</v>
+        <v>1746632</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
@@ -14083,7 +14083,7 @@
         <v>1848951</v>
       </c>
       <c r="Y177">
-        <v>1847530</v>
+        <v>1839762</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
@@ -14160,7 +14160,7 @@
         <v>1825397</v>
       </c>
       <c r="Y178">
-        <v>1824625</v>
+        <v>1821414</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
@@ -14237,7 +14237,7 @@
         <v>1719223</v>
       </c>
       <c r="Y179">
-        <v>1716132</v>
+        <v>1714129</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
         <v>1803168</v>
       </c>
       <c r="Y180">
-        <v>1808784</v>
+        <v>1801906</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
@@ -14391,7 +14391,7 @@
         <v>1761875</v>
       </c>
       <c r="Y181">
-        <v>1763545</v>
+        <v>1754172</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>1260116</v>
       </c>
       <c r="Y182">
-        <v>1246854</v>
+        <v>1214193</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>1268495</v>
       </c>
       <c r="Y183">
-        <v>1255619</v>
+        <v>1202515</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1277383</v>
       </c>
       <c r="Y184">
-        <v>1294539</v>
+        <v>1208432</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
@@ -14699,7 +14699,7 @@
         <v>1303716</v>
       </c>
       <c r="Y185">
-        <v>1261192</v>
+        <v>1271796</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>1215336</v>
       </c>
       <c r="Y186">
-        <v>1202703</v>
+        <v>1138742</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
         <v>1192093</v>
       </c>
       <c r="Y187">
-        <v>1199802</v>
+        <v>1118650</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>1168681</v>
       </c>
       <c r="Y188">
-        <v>1168364</v>
+        <v>1157456</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
@@ -15007,7 +15007,7 @@
         <v>1207033</v>
       </c>
       <c r="Y189">
-        <v>1218467</v>
+        <v>1170925</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>1258774</v>
       </c>
       <c r="Y190">
-        <v>1257418</v>
+        <v>1214435</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
@@ -15161,7 +15161,7 @@
         <v>1274664</v>
       </c>
       <c r="Y191">
-        <v>1273844</v>
+        <v>1210972</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>535314</v>
       </c>
       <c r="Y192">
-        <v>524628</v>
+        <v>551017</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
@@ -15315,7 +15315,7 @@
         <v>435542</v>
       </c>
       <c r="Y193">
-        <v>463340</v>
+        <v>403762</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>488468</v>
       </c>
       <c r="Y194">
-        <v>499307</v>
+        <v>485365</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>470235</v>
       </c>
       <c r="Y195">
-        <v>445930</v>
+        <v>358467</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>672435</v>
       </c>
       <c r="Y196">
-        <v>630873</v>
+        <v>646762</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>533315</v>
       </c>
       <c r="Y197">
-        <v>531292</v>
+        <v>498489</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>583034</v>
       </c>
       <c r="Y198">
-        <v>559246</v>
+        <v>537291</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>727343</v>
       </c>
       <c r="Y199">
-        <v>586358</v>
+        <v>504118</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>711796</v>
       </c>
       <c r="Y200">
-        <v>629835</v>
+        <v>534114</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
@@ -15931,7 +15931,7 @@
         <v>405142</v>
       </c>
       <c r="Y201">
-        <v>392780</v>
+        <v>371156</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
@@ -16008,7 +16008,7 @@
         <v>1885135</v>
       </c>
       <c r="Y202">
-        <v>1885135</v>
+        <v>1885127</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>2012036</v>
       </c>
       <c r="Y205">
-        <v>2012036</v>
+        <v>2011828</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
@@ -16393,7 +16393,7 @@
         <v>1977425</v>
       </c>
       <c r="Y207">
-        <v>1977425</v>
+        <v>1977377</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>1970652</v>
       </c>
       <c r="Y208">
-        <v>1970652</v>
+        <v>1970516</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
@@ -16701,7 +16701,7 @@
         <v>1948884</v>
       </c>
       <c r="Y211">
-        <v>1948884</v>
+        <v>1948336</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1861888</v>
       </c>
       <c r="Y216">
-        <v>1861888</v>
+        <v>1861682</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
@@ -17163,7 +17163,7 @@
         <v>1862202</v>
       </c>
       <c r="Y217">
-        <v>1862202</v>
+        <v>1861134</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
@@ -17317,7 +17317,7 @@
         <v>1887939</v>
       </c>
       <c r="Y219">
-        <v>1887939</v>
+        <v>1887331</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
@@ -17625,7 +17625,7 @@
         <v>1255477</v>
       </c>
       <c r="Y223">
-        <v>1255477</v>
+        <v>1242829</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1247575</v>
       </c>
       <c r="Y224">
-        <v>1247575</v>
+        <v>1225655</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
@@ -18087,7 +18087,7 @@
         <v>1132174</v>
       </c>
       <c r="Y229">
-        <v>1132174</v>
+        <v>1129862</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>408746</v>
       </c>
       <c r="Y232">
-        <v>408746</v>
+        <v>388852</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
@@ -18703,7 +18703,7 @@
         <v>431700</v>
       </c>
       <c r="Y237">
-        <v>431700</v>
+        <v>402128</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>417583</v>
       </c>
       <c r="Y240">
-        <v>417583</v>
+        <v>407723</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
         <v>2668349</v>
       </c>
       <c r="Y322">
-        <v>2668254</v>
+        <v>2666155</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
@@ -25325,7 +25325,7 @@
         <v>2875807</v>
       </c>
       <c r="Y323">
-        <v>2876556</v>
+        <v>2870669</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
@@ -25402,7 +25402,7 @@
         <v>2791772</v>
       </c>
       <c r="Y324">
-        <v>2791211</v>
+        <v>2788764</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
@@ -25479,7 +25479,7 @@
         <v>2808780</v>
       </c>
       <c r="Y325">
-        <v>2808780</v>
+        <v>2807723</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
@@ -25556,7 +25556,7 @@
         <v>2838873</v>
       </c>
       <c r="Y326">
-        <v>2838276</v>
+        <v>2832707</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
@@ -25633,7 +25633,7 @@
         <v>2967061</v>
       </c>
       <c r="Y327">
-        <v>2966887</v>
+        <v>2960735</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
@@ -25710,7 +25710,7 @@
         <v>2987674</v>
       </c>
       <c r="Y328">
-        <v>2987120</v>
+        <v>2988118</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
@@ -25787,7 +25787,7 @@
         <v>2906894</v>
       </c>
       <c r="Y329">
-        <v>2906915</v>
+        <v>2903008</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
@@ -25864,7 +25864,7 @@
         <v>2890239</v>
       </c>
       <c r="Y330">
-        <v>2889480</v>
+        <v>2888780</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
@@ -25941,7 +25941,7 @@
         <v>2889884</v>
       </c>
       <c r="Y331">
-        <v>2890106</v>
+        <v>2888275</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
@@ -26018,7 +26018,7 @@
         <v>2770760</v>
       </c>
       <c r="Y332">
-        <v>2767401</v>
+        <v>2760965</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
@@ -26095,7 +26095,7 @@
         <v>2753373</v>
       </c>
       <c r="Y333">
-        <v>2754592</v>
+        <v>2742846</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
@@ -26172,7 +26172,7 @@
         <v>2728594</v>
       </c>
       <c r="Y334">
-        <v>2728918</v>
+        <v>2711183</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
@@ -26249,7 +26249,7 @@
         <v>2519998</v>
       </c>
       <c r="Y335">
-        <v>2522936</v>
+        <v>2511885</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
@@ -26326,7 +26326,7 @@
         <v>2707405</v>
       </c>
       <c r="Y336">
-        <v>2698954</v>
+        <v>2691201</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
@@ -26403,7 +26403,7 @@
         <v>2591398</v>
       </c>
       <c r="Y337">
-        <v>2596231</v>
+        <v>2584874</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
@@ -26480,7 +26480,7 @@
         <v>2565079</v>
       </c>
       <c r="Y338">
-        <v>2565043</v>
+        <v>2545639</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
@@ -26557,7 +26557,7 @@
         <v>2492181</v>
       </c>
       <c r="Y339">
-        <v>2497832</v>
+        <v>2472140</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
@@ -26634,7 +26634,7 @@
         <v>2656826</v>
       </c>
       <c r="Y340">
-        <v>2651179</v>
+        <v>2637565</v>
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
@@ -26711,7 +26711,7 @@
         <v>2647183</v>
       </c>
       <c r="Y341">
-        <v>2649190</v>
+        <v>2642719</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
@@ -26788,7 +26788,7 @@
         <v>1824471</v>
       </c>
       <c r="Y342">
-        <v>1837668</v>
+        <v>1776812</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
@@ -26865,7 +26865,7 @@
         <v>1853471</v>
       </c>
       <c r="Y343">
-        <v>1819676</v>
+        <v>1751424</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
@@ -26942,7 +26942,7 @@
         <v>1820050</v>
       </c>
       <c r="Y344">
-        <v>1826854</v>
+        <v>1798184</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
@@ -27019,7 +27019,7 @@
         <v>1891486</v>
       </c>
       <c r="Y345">
-        <v>1856219</v>
+        <v>1777210</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
@@ -27096,7 +27096,7 @@
         <v>1753032</v>
       </c>
       <c r="Y346">
-        <v>1749848</v>
+        <v>1716940</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
@@ -27173,7 +27173,7 @@
         <v>1692603</v>
       </c>
       <c r="Y347">
-        <v>1710819</v>
+        <v>1591727</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
@@ -27250,7 +27250,7 @@
         <v>1844885</v>
       </c>
       <c r="Y348">
-        <v>1810312</v>
+        <v>1747599</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
@@ -27327,7 +27327,7 @@
         <v>1824329</v>
       </c>
       <c r="Y349">
-        <v>1819042</v>
+        <v>1771955</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
@@ -27404,7 +27404,7 @@
         <v>1889355</v>
       </c>
       <c r="Y350">
-        <v>1889985</v>
+        <v>1846424</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
@@ -27481,7 +27481,7 @@
         <v>1819519</v>
       </c>
       <c r="Y351">
-        <v>1818380</v>
+        <v>1690833</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
@@ -27558,7 +27558,7 @@
         <v>790055</v>
       </c>
       <c r="Y352">
-        <v>718484</v>
+        <v>672508</v>
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
@@ -27635,7 +27635,7 @@
         <v>610502</v>
       </c>
       <c r="Y353">
-        <v>605420</v>
+        <v>631465</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
@@ -27712,7 +27712,7 @@
         <v>818337</v>
       </c>
       <c r="Y354">
-        <v>807191</v>
+        <v>806873</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
@@ -27789,7 +27789,7 @@
         <v>748986</v>
       </c>
       <c r="Y355">
-        <v>764404</v>
+        <v>583384</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
@@ -27866,7 +27866,7 @@
         <v>724973</v>
       </c>
       <c r="Y356">
-        <v>704772</v>
+        <v>588917</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
@@ -27943,7 +27943,7 @@
         <v>603140</v>
       </c>
       <c r="Y357">
-        <v>601712</v>
+        <v>631416</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
@@ -28020,7 +28020,7 @@
         <v>697776</v>
       </c>
       <c r="Y358">
-        <v>713547</v>
+        <v>740711</v>
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.3">
@@ -28097,7 +28097,7 @@
         <v>891424</v>
       </c>
       <c r="Y359">
-        <v>937123</v>
+        <v>775539</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.3">
@@ -28174,7 +28174,7 @@
         <v>839416</v>
       </c>
       <c r="Y360">
-        <v>816715</v>
+        <v>607357</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.3">
@@ -28251,7 +28251,7 @@
         <v>775534</v>
       </c>
       <c r="Y361">
-        <v>786408</v>
+        <v>628206</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.3">
@@ -28636,7 +28636,7 @@
         <v>2859833</v>
       </c>
       <c r="Y366">
-        <v>2859833</v>
+        <v>2859675</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.3">
@@ -29329,7 +29329,7 @@
         <v>2764643</v>
       </c>
       <c r="Y375">
-        <v>2764643</v>
+        <v>2762079</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.3">
@@ -29483,7 +29483,7 @@
         <v>2678450</v>
       </c>
       <c r="Y377">
-        <v>2678450</v>
+        <v>2677858</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.3">
@@ -29945,7 +29945,7 @@
         <v>1832191</v>
       </c>
       <c r="Y383">
-        <v>1832191</v>
+        <v>1817955</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.3">
@@ -30022,7 +30022,7 @@
         <v>1803150</v>
       </c>
       <c r="Y384">
-        <v>1803150</v>
+        <v>1803070</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.3">
@@ -37568,7 +37568,7 @@
         <v>5028103</v>
       </c>
       <c r="Y482">
-        <v>5027725</v>
+        <v>5027913</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.3">
@@ -37645,7 +37645,7 @@
         <v>4741381</v>
       </c>
       <c r="Y483">
-        <v>4741289</v>
+        <v>4739592</v>
       </c>
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.3">
@@ -37722,7 +37722,7 @@
         <v>4889347</v>
       </c>
       <c r="Y484">
-        <v>4889330</v>
+        <v>4888825</v>
       </c>
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.3">
@@ -37799,7 +37799,7 @@
         <v>4876869</v>
       </c>
       <c r="Y485">
-        <v>4877081</v>
+        <v>4871437</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.3">
@@ -37876,7 +37876,7 @@
         <v>4876622</v>
       </c>
       <c r="Y486">
-        <v>4876105</v>
+        <v>4872630</v>
       </c>
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.3">
@@ -37953,7 +37953,7 @@
         <v>4917501</v>
       </c>
       <c r="Y487">
-        <v>4916686</v>
+        <v>4914373</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.3">
@@ -38030,7 +38030,7 @@
         <v>4868776</v>
       </c>
       <c r="Y488">
-        <v>4868302</v>
+        <v>4864417</v>
       </c>
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.3">
@@ -38107,7 +38107,7 @@
         <v>4719545</v>
       </c>
       <c r="Y489">
-        <v>4719235</v>
+        <v>4715506</v>
       </c>
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.3">
@@ -38184,7 +38184,7 @@
         <v>4930344</v>
       </c>
       <c r="Y490">
-        <v>4932156</v>
+        <v>4926168</v>
       </c>
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.3">
@@ -38261,7 +38261,7 @@
         <v>4913404</v>
       </c>
       <c r="Y491">
-        <v>4913591</v>
+        <v>4913433</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.3">
@@ -38338,7 +38338,7 @@
         <v>4490572</v>
       </c>
       <c r="Y492">
-        <v>4488762</v>
+        <v>4470420</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.3">
@@ -38415,7 +38415,7 @@
         <v>4619016</v>
       </c>
       <c r="Y493">
-        <v>4609924</v>
+        <v>4604604</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.3">
@@ -38492,7 +38492,7 @@
         <v>4615664</v>
       </c>
       <c r="Y494">
-        <v>4614071</v>
+        <v>4595805</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.3">
@@ -38569,7 +38569,7 @@
         <v>4622864</v>
       </c>
       <c r="Y495">
-        <v>4626075</v>
+        <v>4600539</v>
       </c>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.3">
@@ -38646,7 +38646,7 @@
         <v>4532350</v>
       </c>
       <c r="Y496">
-        <v>4545981</v>
+        <v>4509607</v>
       </c>
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.3">
@@ -38723,7 +38723,7 @@
         <v>4229551</v>
       </c>
       <c r="Y497">
-        <v>4236471</v>
+        <v>4196245</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.3">
@@ -38800,7 +38800,7 @@
         <v>4639764</v>
       </c>
       <c r="Y498">
-        <v>4638872</v>
+        <v>4632293</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.3">
@@ -38877,7 +38877,7 @@
         <v>4597387</v>
       </c>
       <c r="Y499">
-        <v>4596096</v>
+        <v>4566470</v>
       </c>
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.3">
@@ -38954,7 +38954,7 @@
         <v>4596760</v>
       </c>
       <c r="Y500">
-        <v>4595659</v>
+        <v>4576524</v>
       </c>
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.3">
@@ -39031,7 +39031,7 @@
         <v>4445322</v>
       </c>
       <c r="Y501">
-        <v>4444822</v>
+        <v>4443352</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.3">
@@ -39108,7 +39108,7 @@
         <v>2926519</v>
       </c>
       <c r="Y502">
-        <v>2926519</v>
+        <v>2909134</v>
       </c>
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.3">
@@ -39185,7 +39185,7 @@
         <v>3081529</v>
       </c>
       <c r="Y503">
-        <v>3013001</v>
+        <v>2964124</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.3">
@@ -39262,7 +39262,7 @@
         <v>2959001</v>
       </c>
       <c r="Y504">
-        <v>2992358</v>
+        <v>2842511</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.3">
@@ -39339,7 +39339,7 @@
         <v>3026994</v>
       </c>
       <c r="Y505">
-        <v>3037585</v>
+        <v>2892515</v>
       </c>
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.3">
@@ -39416,7 +39416,7 @@
         <v>2924355</v>
       </c>
       <c r="Y506">
-        <v>2923775</v>
+        <v>2948445</v>
       </c>
     </row>
     <row r="507" spans="1:25" x14ac:dyDescent="0.3">
@@ -39493,7 +39493,7 @@
         <v>3034541</v>
       </c>
       <c r="Y507">
-        <v>3034560</v>
+        <v>3031624</v>
       </c>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.3">
@@ -39570,7 +39570,7 @@
         <v>3065465</v>
       </c>
       <c r="Y508">
-        <v>3068351</v>
+        <v>2973392</v>
       </c>
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.3">
@@ -39647,7 +39647,7 @@
         <v>2928767</v>
       </c>
       <c r="Y509">
-        <v>2938409</v>
+        <v>2809628</v>
       </c>
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.3">
@@ -39724,7 +39724,7 @@
         <v>2914612</v>
       </c>
       <c r="Y510">
-        <v>2898954</v>
+        <v>2732169</v>
       </c>
     </row>
     <row r="511" spans="1:25" x14ac:dyDescent="0.3">
@@ -39801,7 +39801,7 @@
         <v>3031789</v>
       </c>
       <c r="Y511">
-        <v>3021412</v>
+        <v>2951511</v>
       </c>
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.3">
@@ -39878,7 +39878,7 @@
         <v>1076129</v>
       </c>
       <c r="Y512">
-        <v>1069141</v>
+        <v>868699</v>
       </c>
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.3">
@@ -39955,7 +39955,7 @@
         <v>1172627</v>
       </c>
       <c r="Y513">
-        <v>1206878</v>
+        <v>1167595</v>
       </c>
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.3">
@@ -40032,7 +40032,7 @@
         <v>1239383</v>
       </c>
       <c r="Y514">
-        <v>1245138</v>
+        <v>966839</v>
       </c>
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.3">
@@ -40109,7 +40109,7 @@
         <v>1007251</v>
       </c>
       <c r="Y515">
-        <v>950720</v>
+        <v>769747</v>
       </c>
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.3">
@@ -40186,7 +40186,7 @@
         <v>1409355</v>
       </c>
       <c r="Y516">
-        <v>1306752</v>
+        <v>1259617</v>
       </c>
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.3">
@@ -40263,7 +40263,7 @@
         <v>1334319</v>
       </c>
       <c r="Y517">
-        <v>1313403</v>
+        <v>1105465</v>
       </c>
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.3">
@@ -40340,7 +40340,7 @@
         <v>1099649</v>
       </c>
       <c r="Y518">
-        <v>1084684</v>
+        <v>1072991</v>
       </c>
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.3">
@@ -40417,7 +40417,7 @@
         <v>1175129</v>
       </c>
       <c r="Y519">
-        <v>1191034</v>
+        <v>1070642</v>
       </c>
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.3">
@@ -40494,7 +40494,7 @@
         <v>1262499</v>
       </c>
       <c r="Y520">
-        <v>1085530</v>
+        <v>1026954</v>
       </c>
     </row>
     <row r="521" spans="1:25" x14ac:dyDescent="0.3">
@@ -40571,7 +40571,7 @@
         <v>1085410</v>
       </c>
       <c r="Y521">
-        <v>1091037</v>
+        <v>1156831</v>
       </c>
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.3">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="Y642">
         <f>AVERAGE(Y2:Y641)</f>
-        <v>1839100.53125</v>
+        <v>1830407.8515625</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.3">

--- a/Comparsion of costs.xlsx
+++ b/Comparsion of costs.xlsx
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O617" workbookViewId="0">
-      <selection activeCell="Y617" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>923317</v>
       </c>
       <c r="Y2">
-        <v>921646</v>
+        <v>922046</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>947267</v>
       </c>
       <c r="Y3">
-        <v>945534</v>
+        <v>945664</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>965292</v>
       </c>
       <c r="Y4">
-        <v>965873</v>
+        <v>965454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>936761</v>
       </c>
       <c r="Y5">
-        <v>934995</v>
+        <v>934948</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>964013</v>
       </c>
       <c r="Y6">
-        <v>963765</v>
+        <v>963172</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>965635</v>
       </c>
       <c r="Y7">
-        <v>965211</v>
+        <v>965391</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>1003001</v>
       </c>
       <c r="Y8">
-        <v>1000366</v>
+        <v>1000109</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>983684</v>
       </c>
       <c r="Y9">
-        <v>981108</v>
+        <v>981427</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>992449</v>
       </c>
       <c r="Y10">
-        <v>990622</v>
+        <v>990742</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>950928</v>
       </c>
       <c r="Y11">
-        <v>950480</v>
+        <v>950045</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>922211</v>
       </c>
       <c r="Y12">
-        <v>923847</v>
+        <v>924670</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>883007</v>
       </c>
       <c r="Y13">
-        <v>880652</v>
+        <v>891629</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>890120</v>
       </c>
       <c r="Y14">
-        <v>886917</v>
+        <v>880778</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>880617</v>
       </c>
       <c r="Y15">
-        <v>872937</v>
+        <v>874240</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>910590</v>
       </c>
       <c r="Y16">
-        <v>903449</v>
+        <v>902314</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>893242</v>
       </c>
       <c r="Y17">
-        <v>883479</v>
+        <v>884428</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>867799</v>
       </c>
       <c r="Y18">
-        <v>868142</v>
+        <v>867695</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>962921</v>
       </c>
       <c r="Y19">
-        <v>955215</v>
+        <v>954271</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -1994,7 +1994,7 @@
         <v>892727</v>
       </c>
       <c r="Y20">
-        <v>887777</v>
+        <v>882382</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>876698</v>
       </c>
       <c r="Y21">
-        <v>865580</v>
+        <v>864866</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>638848</v>
       </c>
       <c r="Y22">
-        <v>617290</v>
+        <v>625865</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>632697</v>
       </c>
       <c r="Y23">
-        <v>613960</v>
+        <v>628481</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>694359</v>
       </c>
       <c r="Y24">
-        <v>598846</v>
+        <v>595639</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
         <v>615549</v>
       </c>
       <c r="Y25">
-        <v>589942</v>
+        <v>593355</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>695665</v>
       </c>
       <c r="Y26">
-        <v>654286</v>
+        <v>677399</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>621357</v>
       </c>
       <c r="Y27">
-        <v>605478</v>
+        <v>604327</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>662766</v>
       </c>
       <c r="Y28">
-        <v>621485</v>
+        <v>619322</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>693621</v>
       </c>
       <c r="Y29">
-        <v>674203</v>
+        <v>664140</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>612757</v>
       </c>
       <c r="Y30">
-        <v>585279</v>
+        <v>578280</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>708285</v>
       </c>
       <c r="Y31">
-        <v>656811</v>
+        <v>648802</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
         <v>220211</v>
       </c>
       <c r="Y32">
-        <v>258591</v>
+        <v>229531</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>254025</v>
       </c>
       <c r="Y33">
-        <v>308027</v>
+        <v>229425</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
         <v>427336</v>
       </c>
       <c r="Y34">
-        <v>278937</v>
+        <v>379260</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>319296</v>
       </c>
       <c r="Y35">
-        <v>199412</v>
+        <v>222115</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>371943</v>
       </c>
       <c r="Y36">
-        <v>254503</v>
+        <v>249089</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
         <v>379540</v>
       </c>
       <c r="Y37">
-        <v>260439</v>
+        <v>271574</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>355684</v>
       </c>
       <c r="Y38">
-        <v>311879</v>
+        <v>313011</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>244023</v>
       </c>
       <c r="Y39">
-        <v>211605</v>
+        <v>213040</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>287267</v>
       </c>
       <c r="Y40">
-        <v>278314</v>
+        <v>256555</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>253838</v>
       </c>
       <c r="Y41">
-        <v>198897</v>
+        <v>217285</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>1050800</v>
       </c>
       <c r="Y42">
-        <v>1050800</v>
+        <v>1055028</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
         <v>993586</v>
       </c>
       <c r="Y43">
-        <v>993586</v>
+        <v>995978</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>969681</v>
       </c>
       <c r="Y44">
-        <v>969681</v>
+        <v>975125</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>989131</v>
       </c>
       <c r="Y45">
-        <v>989131</v>
+        <v>990549</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
@@ -3996,7 +3996,7 @@
         <v>954079</v>
       </c>
       <c r="Y46">
-        <v>954079</v>
+        <v>956570</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>985090</v>
       </c>
       <c r="Y47">
-        <v>985045</v>
+        <v>989926</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>993522</v>
       </c>
       <c r="Y48">
-        <v>993522</v>
+        <v>996546</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>915314</v>
       </c>
       <c r="Y49">
-        <v>915314</v>
+        <v>919435</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>1022109</v>
       </c>
       <c r="Y50">
-        <v>1021898</v>
+        <v>1024505</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
@@ -4381,7 +4381,7 @@
         <v>1010050</v>
       </c>
       <c r="Y51">
-        <v>1009918</v>
+        <v>1011664</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
         <v>924525</v>
       </c>
       <c r="Y52">
-        <v>924705</v>
+        <v>933098</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>914981</v>
       </c>
       <c r="Y53">
-        <v>914283</v>
+        <v>933332</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
         <v>879151</v>
       </c>
       <c r="Y54">
-        <v>877630</v>
+        <v>891520</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
@@ -4689,7 +4689,7 @@
         <v>954994</v>
       </c>
       <c r="Y55">
-        <v>954664</v>
+        <v>968731</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>921593</v>
       </c>
       <c r="Y56">
-        <v>921593</v>
+        <v>939569</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>954755</v>
       </c>
       <c r="Y57">
-        <v>952743</v>
+        <v>970479</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>948110</v>
       </c>
       <c r="Y58">
-        <v>948110</v>
+        <v>960015</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>890122</v>
       </c>
       <c r="Y59">
-        <v>890122</v>
+        <v>902644</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
@@ -5074,7 +5074,7 @@
         <v>892234</v>
       </c>
       <c r="Y60">
-        <v>892234</v>
+        <v>912897</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
         <v>900131</v>
       </c>
       <c r="Y61">
-        <v>900131</v>
+        <v>921553</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>635251</v>
       </c>
       <c r="Y62">
-        <v>638323</v>
+        <v>709466</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
         <v>572025</v>
       </c>
       <c r="Y63">
-        <v>562925</v>
+        <v>680616</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>520017</v>
       </c>
       <c r="Y64">
-        <v>520017</v>
+        <v>587798</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>593628</v>
       </c>
       <c r="Y65">
-        <v>591644</v>
+        <v>686941</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>580726</v>
       </c>
       <c r="Y66">
-        <v>580726</v>
+        <v>711968</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>576025</v>
       </c>
       <c r="Y67">
-        <v>574945</v>
+        <v>664493</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>639445</v>
       </c>
       <c r="Y68">
-        <v>639445</v>
+        <v>731756</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>615059</v>
       </c>
       <c r="Y69">
-        <v>613304</v>
+        <v>703026</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>574136</v>
       </c>
       <c r="Y70">
-        <v>571021</v>
+        <v>632406</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>592999</v>
       </c>
       <c r="Y71">
-        <v>592999</v>
+        <v>656508</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>152553</v>
       </c>
       <c r="Y72">
-        <v>152553</v>
+        <v>181937</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>172175</v>
       </c>
       <c r="Y73">
-        <v>172383</v>
+        <v>253878</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>218283</v>
       </c>
       <c r="Y74">
-        <v>189199</v>
+        <v>246297</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>162448</v>
       </c>
       <c r="Y75">
-        <v>158281</v>
+        <v>184796</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>187018</v>
       </c>
       <c r="Y76">
-        <v>179624</v>
+        <v>188174</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>228758</v>
       </c>
       <c r="Y77">
-        <v>228758</v>
+        <v>295851</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>273889</v>
       </c>
       <c r="Y78">
-        <v>261955</v>
+        <v>316166</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>198649</v>
       </c>
       <c r="Y79">
-        <v>198649</v>
+        <v>239563</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>189773</v>
       </c>
       <c r="Y80">
-        <v>189773</v>
+        <v>204234</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>217293</v>
       </c>
       <c r="Y81">
-        <v>224163</v>
+        <v>234738</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>940654</v>
       </c>
       <c r="Y82">
-        <v>940654</v>
+        <v>951210</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>966831</v>
       </c>
       <c r="Y83">
-        <v>966831</v>
+        <v>973094</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>987029</v>
       </c>
       <c r="Y84">
-        <v>987029</v>
+        <v>997862</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
@@ -6999,7 +6999,7 @@
         <v>971977</v>
       </c>
       <c r="Y85">
-        <v>971977</v>
+        <v>980031</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>954826</v>
       </c>
       <c r="Y86">
-        <v>954826</v>
+        <v>965057</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>936643</v>
       </c>
       <c r="Y87">
-        <v>936643</v>
+        <v>946715</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>960382</v>
       </c>
       <c r="Y88">
-        <v>960382</v>
+        <v>969048</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
@@ -7307,7 +7307,7 @@
         <v>971007</v>
       </c>
       <c r="Y89">
-        <v>971007</v>
+        <v>978998</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>978480</v>
       </c>
       <c r="Y90">
-        <v>978480</v>
+        <v>989067</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>912716</v>
       </c>
       <c r="Y91">
-        <v>912716</v>
+        <v>918374</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>899185</v>
       </c>
       <c r="Y92">
-        <v>899185</v>
+        <v>940321</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
         <v>895237</v>
       </c>
       <c r="Y93">
-        <v>895237</v>
+        <v>933653</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>956913</v>
       </c>
       <c r="Y94">
-        <v>956913</v>
+        <v>1005865</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
@@ -7769,7 +7769,7 @@
         <v>875591</v>
       </c>
       <c r="Y95">
-        <v>875591</v>
+        <v>917884</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>929734</v>
       </c>
       <c r="Y96">
-        <v>929734</v>
+        <v>965555</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>897340</v>
       </c>
       <c r="Y97">
-        <v>897340</v>
+        <v>926215</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>931759</v>
       </c>
       <c r="Y98">
-        <v>931759</v>
+        <v>958538</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>904567</v>
       </c>
       <c r="Y99">
-        <v>904567</v>
+        <v>950369</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>873267</v>
       </c>
       <c r="Y100">
-        <v>873267</v>
+        <v>919135</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>934489</v>
       </c>
       <c r="Y101">
-        <v>934489</v>
+        <v>980994</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>566430</v>
       </c>
       <c r="Y102">
-        <v>566430</v>
+        <v>764171</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>564582</v>
       </c>
       <c r="Y103">
-        <v>564582</v>
+        <v>734834</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>576152</v>
       </c>
       <c r="Y104">
-        <v>576152</v>
+        <v>745690</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
@@ -8539,7 +8539,7 @@
         <v>606985</v>
       </c>
       <c r="Y105">
-        <v>606985</v>
+        <v>782459</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>552379</v>
       </c>
       <c r="Y106">
-        <v>552379</v>
+        <v>712030</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>575778</v>
       </c>
       <c r="Y107">
-        <v>575778</v>
+        <v>679481</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>602035</v>
       </c>
       <c r="Y108">
-        <v>602035</v>
+        <v>764458</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
@@ -8847,7 +8847,7 @@
         <v>581628</v>
       </c>
       <c r="Y109">
-        <v>581628</v>
+        <v>788788</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>600337</v>
       </c>
       <c r="Y110">
-        <v>600337</v>
+        <v>813223</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
@@ -9001,7 +9001,7 @@
         <v>576734</v>
       </c>
       <c r="Y111">
-        <v>576734</v>
+        <v>747574</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
@@ -9078,7 +9078,7 @@
         <v>162991</v>
       </c>
       <c r="Y112">
-        <v>162991</v>
+        <v>179388</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
@@ -9155,7 +9155,7 @@
         <v>171803</v>
       </c>
       <c r="Y113">
-        <v>171803</v>
+        <v>187402</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
         <v>186607</v>
       </c>
       <c r="Y114">
-        <v>186607</v>
+        <v>199892</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>224188</v>
       </c>
       <c r="Y115">
-        <v>224188</v>
+        <v>234082</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>222662</v>
       </c>
       <c r="Y116">
-        <v>222662</v>
+        <v>249341</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
@@ -9463,7 +9463,7 @@
         <v>324648</v>
       </c>
       <c r="Y117">
-        <v>324648</v>
+        <v>371670</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>202601</v>
       </c>
       <c r="Y118">
-        <v>202601</v>
+        <v>217136</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
@@ -9617,7 +9617,7 @@
         <v>144439</v>
       </c>
       <c r="Y119">
-        <v>144439</v>
+        <v>167031</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>176792</v>
       </c>
       <c r="Y120">
-        <v>176792</v>
+        <v>207634</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
         <v>135677</v>
       </c>
       <c r="Y121">
-        <v>135677</v>
+        <v>143704</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>893220</v>
       </c>
       <c r="Y122">
-        <v>893220</v>
+        <v>900907</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
@@ -9925,7 +9925,7 @@
         <v>1044394</v>
       </c>
       <c r="Y123">
-        <v>1044394</v>
+        <v>1059437</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
@@ -10002,7 +10002,7 @@
         <v>987692</v>
       </c>
       <c r="Y124">
-        <v>987692</v>
+        <v>1002336</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
         <v>967151</v>
       </c>
       <c r="Y125">
-        <v>967151</v>
+        <v>981810</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
@@ -10156,7 +10156,7 @@
         <v>939306</v>
       </c>
       <c r="Y126">
-        <v>939306</v>
+        <v>956403</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
@@ -10233,7 +10233,7 @@
         <v>994845</v>
       </c>
       <c r="Y127">
-        <v>994845</v>
+        <v>1012001</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>990506</v>
       </c>
       <c r="Y128">
-        <v>990506</v>
+        <v>1002490</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>985957</v>
       </c>
       <c r="Y129">
-        <v>985957</v>
+        <v>999785</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
         <v>1022204</v>
       </c>
       <c r="Y130">
-        <v>1022204</v>
+        <v>1035508</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>971435</v>
       </c>
       <c r="Y131">
-        <v>971435</v>
+        <v>987097</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>932672</v>
       </c>
       <c r="Y132">
-        <v>932672</v>
+        <v>1016543</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>928864</v>
       </c>
       <c r="Y133">
-        <v>928864</v>
+        <v>1030506</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>931740</v>
       </c>
       <c r="Y134">
-        <v>931740</v>
+        <v>1002412</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
@@ -10849,7 +10849,7 @@
         <v>958154</v>
       </c>
       <c r="Y135">
-        <v>958154</v>
+        <v>1030377</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
         <v>948292</v>
       </c>
       <c r="Y136">
-        <v>948292</v>
+        <v>1019370</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
@@ -11003,7 +11003,7 @@
         <v>943018</v>
       </c>
       <c r="Y137">
-        <v>943018</v>
+        <v>1037400</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>894115</v>
       </c>
       <c r="Y138">
-        <v>894115</v>
+        <v>943136</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
@@ -11157,7 +11157,7 @@
         <v>936642</v>
       </c>
       <c r="Y139">
-        <v>936642</v>
+        <v>996792</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>871702</v>
       </c>
       <c r="Y140">
-        <v>871702</v>
+        <v>959702</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
         <v>958936</v>
       </c>
       <c r="Y141">
-        <v>958936</v>
+        <v>1036118</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>607952</v>
       </c>
       <c r="Y142">
-        <v>607952</v>
+        <v>940094</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
@@ -11465,7 +11465,7 @@
         <v>594216</v>
       </c>
       <c r="Y143">
-        <v>594216</v>
+        <v>772929</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>599063</v>
       </c>
       <c r="Y144">
-        <v>599063</v>
+        <v>805446</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
@@ -11619,7 +11619,7 @@
         <v>618479</v>
       </c>
       <c r="Y145">
-        <v>618479</v>
+        <v>867954</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
@@ -11696,7 +11696,7 @@
         <v>590188</v>
       </c>
       <c r="Y146">
-        <v>590188</v>
+        <v>819907</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.3">
@@ -11773,7 +11773,7 @@
         <v>597801</v>
       </c>
       <c r="Y147">
-        <v>597801</v>
+        <v>852095</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>556943</v>
       </c>
       <c r="Y148">
-        <v>556943</v>
+        <v>799094</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.3">
@@ -11927,7 +11927,7 @@
         <v>581956</v>
       </c>
       <c r="Y149">
-        <v>581956</v>
+        <v>767251</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
         <v>596590</v>
       </c>
       <c r="Y150">
-        <v>596590</v>
+        <v>866390</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
@@ -12081,7 +12081,7 @@
         <v>595701</v>
       </c>
       <c r="Y151">
-        <v>595701</v>
+        <v>803724</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>159263</v>
       </c>
       <c r="Y152">
-        <v>159263</v>
+        <v>180202</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
@@ -12235,7 +12235,7 @@
         <v>159350</v>
       </c>
       <c r="Y153">
-        <v>159350</v>
+        <v>168946</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
@@ -12312,7 +12312,7 @@
         <v>240090</v>
       </c>
       <c r="Y154">
-        <v>240090</v>
+        <v>300560</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
@@ -12389,7 +12389,7 @@
         <v>200922</v>
       </c>
       <c r="Y155">
-        <v>200922</v>
+        <v>202562</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
@@ -12466,7 +12466,7 @@
         <v>187148</v>
       </c>
       <c r="Y156">
-        <v>187148</v>
+        <v>240108</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
@@ -12543,7 +12543,7 @@
         <v>154655</v>
       </c>
       <c r="Y157">
-        <v>154655</v>
+        <v>159683</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
@@ -12620,7 +12620,7 @@
         <v>139825</v>
       </c>
       <c r="Y158">
-        <v>139825</v>
+        <v>155418</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>238479</v>
       </c>
       <c r="Y159">
-        <v>238479</v>
+        <v>248991</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>178726</v>
       </c>
       <c r="Y160">
-        <v>178726</v>
+        <v>198533</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
@@ -12851,7 +12851,7 @@
         <v>194382</v>
       </c>
       <c r="Y161">
-        <v>194382</v>
+        <v>213799</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
@@ -12928,7 +12928,7 @@
         <v>1827688</v>
       </c>
       <c r="Y162">
-        <v>1825331</v>
+        <v>1825165</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>1911125</v>
       </c>
       <c r="Y163">
-        <v>1908885</v>
+        <v>1909599</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>1841898</v>
       </c>
       <c r="Y164">
-        <v>1838769</v>
+        <v>1839043</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
@@ -13159,7 +13159,7 @@
         <v>1898005</v>
       </c>
       <c r="Y165">
-        <v>1895341</v>
+        <v>1894074</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
         <v>1892955</v>
       </c>
       <c r="Y166">
-        <v>1891133</v>
+        <v>1891649</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>2050632</v>
       </c>
       <c r="Y167">
-        <v>2048244</v>
+        <v>2048243</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>1961463</v>
       </c>
       <c r="Y168">
-        <v>1959533</v>
+        <v>1960366</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>1848243</v>
       </c>
       <c r="Y169">
-        <v>1845115</v>
+        <v>1844668</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>1891146</v>
       </c>
       <c r="Y170">
-        <v>1887490</v>
+        <v>1888464</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
@@ -13621,7 +13621,7 @@
         <v>1943851</v>
       </c>
       <c r="Y171">
-        <v>1944108</v>
+        <v>1943761</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>1845063</v>
       </c>
       <c r="Y172">
-        <v>1853944</v>
+        <v>1851089</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
@@ -13775,7 +13775,7 @@
         <v>1815450</v>
       </c>
       <c r="Y173">
-        <v>1813063</v>
+        <v>1815881</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>1797005</v>
       </c>
       <c r="Y174">
-        <v>1790929</v>
+        <v>1796979</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
@@ -13929,7 +13929,7 @@
         <v>1817747</v>
       </c>
       <c r="Y175">
-        <v>1806792</v>
+        <v>1815743</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>1754331</v>
       </c>
       <c r="Y176">
-        <v>1746632</v>
+        <v>1745865</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
@@ -14083,7 +14083,7 @@
         <v>1848951</v>
       </c>
       <c r="Y177">
-        <v>1839762</v>
+        <v>1844162</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
@@ -14160,7 +14160,7 @@
         <v>1825397</v>
       </c>
       <c r="Y178">
-        <v>1821414</v>
+        <v>1820523</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
@@ -14237,7 +14237,7 @@
         <v>1719223</v>
       </c>
       <c r="Y179">
-        <v>1714129</v>
+        <v>1707501</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
         <v>1803168</v>
       </c>
       <c r="Y180">
-        <v>1801906</v>
+        <v>1797593</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
@@ -14391,7 +14391,7 @@
         <v>1761875</v>
       </c>
       <c r="Y181">
-        <v>1754172</v>
+        <v>1748123</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>1260116</v>
       </c>
       <c r="Y182">
-        <v>1214193</v>
+        <v>1221678</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>1268495</v>
       </c>
       <c r="Y183">
-        <v>1202515</v>
+        <v>1216478</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1277383</v>
       </c>
       <c r="Y184">
-        <v>1208432</v>
+        <v>1230165</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
@@ -14699,7 +14699,7 @@
         <v>1303716</v>
       </c>
       <c r="Y185">
-        <v>1271796</v>
+        <v>1232865</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>1215336</v>
       </c>
       <c r="Y186">
-        <v>1138742</v>
+        <v>1119384</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
         <v>1192093</v>
       </c>
       <c r="Y187">
-        <v>1118650</v>
+        <v>1144827</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>1168681</v>
       </c>
       <c r="Y188">
-        <v>1157456</v>
+        <v>1153865</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
@@ -15007,7 +15007,7 @@
         <v>1207033</v>
       </c>
       <c r="Y189">
-        <v>1170925</v>
+        <v>1172705</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>1258774</v>
       </c>
       <c r="Y190">
-        <v>1214435</v>
+        <v>1193231</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
@@ -15161,7 +15161,7 @@
         <v>1274664</v>
       </c>
       <c r="Y191">
-        <v>1210972</v>
+        <v>1219430</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>535314</v>
       </c>
       <c r="Y192">
-        <v>551017</v>
+        <v>499588</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
@@ -15315,7 +15315,7 @@
         <v>435542</v>
       </c>
       <c r="Y193">
-        <v>403762</v>
+        <v>413880</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>488468</v>
       </c>
       <c r="Y194">
-        <v>485365</v>
+        <v>455923</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>470235</v>
       </c>
       <c r="Y195">
-        <v>358467</v>
+        <v>351682</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>672435</v>
       </c>
       <c r="Y196">
-        <v>646762</v>
+        <v>571535</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>533315</v>
       </c>
       <c r="Y197">
-        <v>498489</v>
+        <v>510054</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>583034</v>
       </c>
       <c r="Y198">
-        <v>537291</v>
+        <v>382156</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>727343</v>
       </c>
       <c r="Y199">
-        <v>504118</v>
+        <v>463123</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>711796</v>
       </c>
       <c r="Y200">
-        <v>534114</v>
+        <v>480508</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
@@ -15931,7 +15931,7 @@
         <v>405142</v>
       </c>
       <c r="Y201">
-        <v>371156</v>
+        <v>287793</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
@@ -16008,7 +16008,7 @@
         <v>1885135</v>
       </c>
       <c r="Y202">
-        <v>1885127</v>
+        <v>1890672</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
@@ -16085,7 +16085,7 @@
         <v>1936064</v>
       </c>
       <c r="Y203">
-        <v>1936064</v>
+        <v>1941067</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
@@ -16162,7 +16162,7 @@
         <v>1951012</v>
       </c>
       <c r="Y204">
-        <v>1951012</v>
+        <v>1953586</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>2012036</v>
       </c>
       <c r="Y205">
-        <v>2011828</v>
+        <v>2020012</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
@@ -16316,7 +16316,7 @@
         <v>1990262</v>
       </c>
       <c r="Y206">
-        <v>1990262</v>
+        <v>1998229</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
@@ -16393,7 +16393,7 @@
         <v>1977425</v>
       </c>
       <c r="Y207">
-        <v>1977377</v>
+        <v>1985168</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>1970652</v>
       </c>
       <c r="Y208">
-        <v>1970516</v>
+        <v>1978141</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
@@ -16547,7 +16547,7 @@
         <v>1944048</v>
       </c>
       <c r="Y209">
-        <v>1944048</v>
+        <v>1949372</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>1882214</v>
       </c>
       <c r="Y210">
-        <v>1882214</v>
+        <v>1889744</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
@@ -16701,7 +16701,7 @@
         <v>1948884</v>
       </c>
       <c r="Y211">
-        <v>1948336</v>
+        <v>1953818</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>1844619</v>
       </c>
       <c r="Y212">
-        <v>1844619</v>
+        <v>1877521</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
@@ -16855,7 +16855,7 @@
         <v>1844175</v>
       </c>
       <c r="Y213">
-        <v>1844175</v>
+        <v>1874676</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>1766103</v>
       </c>
       <c r="Y214">
-        <v>1766103</v>
+        <v>1798678</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
@@ -17009,7 +17009,7 @@
         <v>1873395</v>
       </c>
       <c r="Y215">
-        <v>1873395</v>
+        <v>1898328</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1861888</v>
       </c>
       <c r="Y216">
-        <v>1861682</v>
+        <v>1893482</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
@@ -17163,7 +17163,7 @@
         <v>1862202</v>
       </c>
       <c r="Y217">
-        <v>1861134</v>
+        <v>1889202</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
@@ -17240,7 +17240,7 @@
         <v>1834610</v>
       </c>
       <c r="Y218">
-        <v>1834610</v>
+        <v>1877231</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
@@ -17317,7 +17317,7 @@
         <v>1887939</v>
       </c>
       <c r="Y219">
-        <v>1887331</v>
+        <v>1909795</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>1775863</v>
       </c>
       <c r="Y220">
-        <v>1775863</v>
+        <v>1799756</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
@@ -17471,7 +17471,7 @@
         <v>1813951</v>
       </c>
       <c r="Y221">
-        <v>1813951</v>
+        <v>1841256</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>1160777</v>
       </c>
       <c r="Y222">
-        <v>1160777</v>
+        <v>1365994</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
@@ -17625,7 +17625,7 @@
         <v>1255477</v>
       </c>
       <c r="Y223">
-        <v>1242829</v>
+        <v>1406222</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1247575</v>
       </c>
       <c r="Y224">
-        <v>1225655</v>
+        <v>1405516</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
@@ -17779,7 +17779,7 @@
         <v>1133099</v>
       </c>
       <c r="Y225">
-        <v>1133099</v>
+        <v>1306550</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
@@ -17856,7 +17856,7 @@
         <v>1188235</v>
       </c>
       <c r="Y226">
-        <v>1188235</v>
+        <v>1352826</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
@@ -17933,7 +17933,7 @@
         <v>1290535</v>
       </c>
       <c r="Y227">
-        <v>1290535</v>
+        <v>1436064</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>1149448</v>
       </c>
       <c r="Y228">
-        <v>1149448</v>
+        <v>1349617</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
@@ -18087,7 +18087,7 @@
         <v>1132174</v>
       </c>
       <c r="Y229">
-        <v>1129862</v>
+        <v>1310328</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
@@ -18164,7 +18164,7 @@
         <v>1152412</v>
       </c>
       <c r="Y230">
-        <v>1152412</v>
+        <v>1310335</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
@@ -18241,7 +18241,7 @@
         <v>1160349</v>
       </c>
       <c r="Y231">
-        <v>1160349</v>
+        <v>1292743</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>408746</v>
       </c>
       <c r="Y232">
-        <v>388852</v>
+        <v>396535</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
@@ -18395,7 +18395,7 @@
         <v>393013</v>
       </c>
       <c r="Y233">
-        <v>393013</v>
+        <v>419707</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
@@ -18472,7 +18472,7 @@
         <v>339669</v>
       </c>
       <c r="Y234">
-        <v>339669</v>
+        <v>379643</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
@@ -18549,7 +18549,7 @@
         <v>255359</v>
       </c>
       <c r="Y235">
-        <v>255359</v>
+        <v>278192</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
@@ -18626,7 +18626,7 @@
         <v>355360</v>
       </c>
       <c r="Y236">
-        <v>355360</v>
+        <v>381251</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
@@ -18703,7 +18703,7 @@
         <v>431700</v>
       </c>
       <c r="Y237">
-        <v>402128</v>
+        <v>430029</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
@@ -18780,7 +18780,7 @@
         <v>405665</v>
       </c>
       <c r="Y238">
-        <v>405665</v>
+        <v>469379</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
@@ -18857,7 +18857,7 @@
         <v>349533</v>
       </c>
       <c r="Y239">
-        <v>349533</v>
+        <v>359733</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>417583</v>
       </c>
       <c r="Y240">
-        <v>407723</v>
+        <v>412035</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
@@ -19011,7 +19011,7 @@
         <v>358615</v>
       </c>
       <c r="Y241">
-        <v>358615</v>
+        <v>379513</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
@@ -19088,7 +19088,7 @@
         <v>1946415</v>
       </c>
       <c r="Y242">
-        <v>1946415</v>
+        <v>1965414</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
@@ -19165,7 +19165,7 @@
         <v>1930213</v>
       </c>
       <c r="Y243">
-        <v>1930213</v>
+        <v>1943787</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>1888967</v>
       </c>
       <c r="Y244">
-        <v>1888967</v>
+        <v>1908485</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
@@ -19319,7 +19319,7 @@
         <v>1931495</v>
       </c>
       <c r="Y245">
-        <v>1931495</v>
+        <v>1949780</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
@@ -19396,7 +19396,7 @@
         <v>1889237</v>
       </c>
       <c r="Y246">
-        <v>1889237</v>
+        <v>1904830</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
@@ -19473,7 +19473,7 @@
         <v>1948266</v>
       </c>
       <c r="Y247">
-        <v>1948266</v>
+        <v>1965614</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
@@ -19550,7 +19550,7 @@
         <v>1914919</v>
       </c>
       <c r="Y248">
-        <v>1914919</v>
+        <v>1931675</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
@@ -19627,7 +19627,7 @@
         <v>1987379</v>
       </c>
       <c r="Y249">
-        <v>1987379</v>
+        <v>2004398</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
@@ -19704,7 +19704,7 @@
         <v>1914115</v>
       </c>
       <c r="Y250">
-        <v>1914115</v>
+        <v>1931614</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
@@ -19781,7 +19781,7 @@
         <v>1935908</v>
       </c>
       <c r="Y251">
-        <v>1935908</v>
+        <v>1951730</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
@@ -19858,7 +19858,7 @@
         <v>1854733</v>
       </c>
       <c r="Y252">
-        <v>1854733</v>
+        <v>1938733</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
@@ -19935,7 +19935,7 @@
         <v>1786932</v>
       </c>
       <c r="Y253">
-        <v>1786932</v>
+        <v>1857112</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
@@ -20012,7 +20012,7 @@
         <v>1844617</v>
       </c>
       <c r="Y254">
-        <v>1844617</v>
+        <v>1914606</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
@@ -20089,7 +20089,7 @@
         <v>1868338</v>
       </c>
       <c r="Y255">
-        <v>1868338</v>
+        <v>1950549</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
@@ -20166,7 +20166,7 @@
         <v>1873364</v>
       </c>
       <c r="Y256">
-        <v>1873364</v>
+        <v>1942922</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
@@ -20243,7 +20243,7 @@
         <v>1840448</v>
       </c>
       <c r="Y257">
-        <v>1840448</v>
+        <v>1955715</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
@@ -20320,7 +20320,7 @@
         <v>1812864</v>
       </c>
       <c r="Y258">
-        <v>1812864</v>
+        <v>1917633</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
@@ -20397,7 +20397,7 @@
         <v>1893161</v>
       </c>
       <c r="Y259">
-        <v>1893161</v>
+        <v>1970243</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
@@ -20474,7 +20474,7 @@
         <v>1875796</v>
       </c>
       <c r="Y260">
-        <v>1875796</v>
+        <v>1933661</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
@@ -20551,7 +20551,7 @@
         <v>1728061</v>
       </c>
       <c r="Y261">
-        <v>1728061</v>
+        <v>1794472</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
@@ -20628,7 +20628,7 @@
         <v>1144058</v>
       </c>
       <c r="Y262">
-        <v>1144058</v>
+        <v>1583164</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
@@ -20705,7 +20705,7 @@
         <v>1191039</v>
       </c>
       <c r="Y263">
-        <v>1191039</v>
+        <v>1511002</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
@@ -20782,7 +20782,7 @@
         <v>1167831</v>
       </c>
       <c r="Y264">
-        <v>1167831</v>
+        <v>1600793</v>
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
@@ -20859,7 +20859,7 @@
         <v>1205621</v>
       </c>
       <c r="Y265">
-        <v>1205621</v>
+        <v>1493258</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
@@ -20936,7 +20936,7 @@
         <v>1189402</v>
       </c>
       <c r="Y266">
-        <v>1189402</v>
+        <v>1512055</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.3">
@@ -21013,7 +21013,7 @@
         <v>1147172</v>
       </c>
       <c r="Y267">
-        <v>1147172</v>
+        <v>1454485</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
@@ -21090,7 +21090,7 @@
         <v>1158464</v>
       </c>
       <c r="Y268">
-        <v>1158464</v>
+        <v>1503354</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
@@ -21167,7 +21167,7 @@
         <v>1176595</v>
       </c>
       <c r="Y269">
-        <v>1176595</v>
+        <v>1603130</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
@@ -21244,7 +21244,7 @@
         <v>1124231</v>
       </c>
       <c r="Y270">
-        <v>1124231</v>
+        <v>1500745</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
@@ -21321,7 +21321,7 @@
         <v>1141675</v>
       </c>
       <c r="Y271">
-        <v>1141675</v>
+        <v>1433698</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
@@ -21398,7 +21398,7 @@
         <v>400615</v>
       </c>
       <c r="Y272">
-        <v>400615</v>
+        <v>424313</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
@@ -21475,7 +21475,7 @@
         <v>288306</v>
       </c>
       <c r="Y273">
-        <v>288306</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
@@ -21552,7 +21552,7 @@
         <v>399776</v>
       </c>
       <c r="Y274">
-        <v>399776</v>
+        <v>417457</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.3">
@@ -21629,7 +21629,7 @@
         <v>326829</v>
       </c>
       <c r="Y275">
-        <v>326829</v>
+        <v>328485</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.3">
@@ -21706,7 +21706,7 @@
         <v>410355</v>
       </c>
       <c r="Y276">
-        <v>410355</v>
+        <v>467122</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
@@ -21783,7 +21783,7 @@
         <v>385021</v>
       </c>
       <c r="Y277">
-        <v>385021</v>
+        <v>402825</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
@@ -21860,7 +21860,7 @@
         <v>391435</v>
       </c>
       <c r="Y278">
-        <v>391435</v>
+        <v>420137</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
@@ -21937,7 +21937,7 @@
         <v>343515</v>
       </c>
       <c r="Y279">
-        <v>343515</v>
+        <v>345197</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
@@ -22014,7 +22014,7 @@
         <v>309168</v>
       </c>
       <c r="Y280">
-        <v>309168</v>
+        <v>321505</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
@@ -22091,7 +22091,7 @@
         <v>357158</v>
       </c>
       <c r="Y281">
-        <v>357158</v>
+        <v>378829</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.3">
@@ -22168,7 +22168,7 @@
         <v>1982801</v>
       </c>
       <c r="Y282">
-        <v>1982801</v>
+        <v>2013847</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
@@ -22245,7 +22245,7 @@
         <v>1967033</v>
       </c>
       <c r="Y283">
-        <v>1967033</v>
+        <v>2001229</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
@@ -22322,7 +22322,7 @@
         <v>1863397</v>
       </c>
       <c r="Y284">
-        <v>1863397</v>
+        <v>1897999</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
@@ -22399,7 +22399,7 @@
         <v>1927694</v>
       </c>
       <c r="Y285">
-        <v>1927694</v>
+        <v>1959339</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
@@ -22476,7 +22476,7 @@
         <v>1975298</v>
       </c>
       <c r="Y286">
-        <v>1975298</v>
+        <v>2004526</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
@@ -22553,7 +22553,7 @@
         <v>1916761</v>
       </c>
       <c r="Y287">
-        <v>1916761</v>
+        <v>1954104</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
@@ -22630,7 +22630,7 @@
         <v>2007930</v>
       </c>
       <c r="Y288">
-        <v>2007930</v>
+        <v>2047298</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
@@ -22707,7 +22707,7 @@
         <v>1941224</v>
       </c>
       <c r="Y289">
-        <v>1941224</v>
+        <v>1973567</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
@@ -22784,7 +22784,7 @@
         <v>1977838</v>
       </c>
       <c r="Y290">
-        <v>1977838</v>
+        <v>1998237</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
@@ -22861,7 +22861,7 @@
         <v>1974143</v>
       </c>
       <c r="Y291">
-        <v>1974143</v>
+        <v>2008588</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
@@ -22938,7 +22938,7 @@
         <v>1838167</v>
       </c>
       <c r="Y292">
-        <v>1838167</v>
+        <v>1966536</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
@@ -23015,7 +23015,7 @@
         <v>1866853</v>
       </c>
       <c r="Y293">
-        <v>1866853</v>
+        <v>1983841</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
@@ -23092,7 +23092,7 @@
         <v>1820140</v>
       </c>
       <c r="Y294">
-        <v>1820140</v>
+        <v>1941011</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
@@ -23169,7 +23169,7 @@
         <v>1855614</v>
       </c>
       <c r="Y295">
-        <v>1855614</v>
+        <v>1992255</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.3">
@@ -23246,7 +23246,7 @@
         <v>1759779</v>
       </c>
       <c r="Y296">
-        <v>1759779</v>
+        <v>1914651</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.3">
@@ -23323,7 +23323,7 @@
         <v>1916000</v>
       </c>
       <c r="Y297">
-        <v>1916000</v>
+        <v>2026362</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
@@ -23400,7 +23400,7 @@
         <v>1814356</v>
       </c>
       <c r="Y298">
-        <v>1814356</v>
+        <v>1938640</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
@@ -23477,7 +23477,7 @@
         <v>1803137</v>
       </c>
       <c r="Y299">
-        <v>1803137</v>
+        <v>1956030</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
@@ -23554,7 +23554,7 @@
         <v>1776130</v>
       </c>
       <c r="Y300">
-        <v>1776130</v>
+        <v>1893317</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
@@ -23631,7 +23631,7 @@
         <v>1899857</v>
       </c>
       <c r="Y301">
-        <v>1899857</v>
+        <v>2077337</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
@@ -23708,7 +23708,7 @@
         <v>1206194</v>
       </c>
       <c r="Y302">
-        <v>1206194</v>
+        <v>1631882</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
@@ -23785,7 +23785,7 @@
         <v>1231150</v>
       </c>
       <c r="Y303">
-        <v>1231150</v>
+        <v>1756817</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
@@ -23862,7 +23862,7 @@
         <v>1198820</v>
       </c>
       <c r="Y304">
-        <v>1198820</v>
+        <v>1757577</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
@@ -23939,7 +23939,7 @@
         <v>1116245</v>
       </c>
       <c r="Y305">
-        <v>1116245</v>
+        <v>1605962</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
@@ -24016,7 +24016,7 @@
         <v>1176451</v>
       </c>
       <c r="Y306">
-        <v>1176451</v>
+        <v>1694629</v>
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
@@ -24093,7 +24093,7 @@
         <v>1202255</v>
       </c>
       <c r="Y307">
-        <v>1202255</v>
+        <v>1798557</v>
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
@@ -24170,7 +24170,7 @@
         <v>1222330</v>
       </c>
       <c r="Y308">
-        <v>1222330</v>
+        <v>1833012</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
@@ -24247,7 +24247,7 @@
         <v>1171299</v>
       </c>
       <c r="Y309">
-        <v>1171299</v>
+        <v>1681739</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
@@ -24324,7 +24324,7 @@
         <v>1120453</v>
       </c>
       <c r="Y310">
-        <v>1120453</v>
+        <v>1654132</v>
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
@@ -24401,7 +24401,7 @@
         <v>1186065</v>
       </c>
       <c r="Y311">
-        <v>1186065</v>
+        <v>1597056</v>
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
@@ -24478,7 +24478,7 @@
         <v>374146</v>
       </c>
       <c r="Y312">
-        <v>374146</v>
+        <v>396246</v>
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
@@ -24555,7 +24555,7 @@
         <v>474110</v>
       </c>
       <c r="Y313">
-        <v>474110</v>
+        <v>546797</v>
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
@@ -24632,7 +24632,7 @@
         <v>344813</v>
       </c>
       <c r="Y314">
-        <v>344813</v>
+        <v>362019</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
@@ -24709,7 +24709,7 @@
         <v>328447</v>
       </c>
       <c r="Y315">
-        <v>328447</v>
+        <v>347954</v>
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
@@ -24786,7 +24786,7 @@
         <v>308172</v>
       </c>
       <c r="Y316">
-        <v>308172</v>
+        <v>315271</v>
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
@@ -24863,7 +24863,7 @@
         <v>355824</v>
       </c>
       <c r="Y317">
-        <v>355824</v>
+        <v>365596</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
@@ -24940,7 +24940,7 @@
         <v>382442</v>
       </c>
       <c r="Y318">
-        <v>382442</v>
+        <v>391887</v>
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
@@ -25017,7 +25017,7 @@
         <v>400356</v>
       </c>
       <c r="Y319">
-        <v>400356</v>
+        <v>428640</v>
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
@@ -25094,7 +25094,7 @@
         <v>299633</v>
       </c>
       <c r="Y320">
-        <v>299633</v>
+        <v>316894</v>
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
@@ -25171,7 +25171,7 @@
         <v>431614</v>
       </c>
       <c r="Y321">
-        <v>431614</v>
+        <v>487009</v>
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
         <v>2668349</v>
       </c>
       <c r="Y322">
-        <v>2666155</v>
+        <v>2664078</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
@@ -25325,7 +25325,7 @@
         <v>2875807</v>
       </c>
       <c r="Y323">
-        <v>2870669</v>
+        <v>2871997</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
@@ -25402,7 +25402,7 @@
         <v>2791772</v>
       </c>
       <c r="Y324">
-        <v>2788764</v>
+        <v>2787803</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
@@ -25479,7 +25479,7 @@
         <v>2808780</v>
       </c>
       <c r="Y325">
-        <v>2807723</v>
+        <v>2809368</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
@@ -25556,7 +25556,7 @@
         <v>2838873</v>
       </c>
       <c r="Y326">
-        <v>2832707</v>
+        <v>2834944</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
@@ -25633,7 +25633,7 @@
         <v>2967061</v>
       </c>
       <c r="Y327">
-        <v>2960735</v>
+        <v>2960948</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
@@ -25710,7 +25710,7 @@
         <v>2987674</v>
       </c>
       <c r="Y328">
-        <v>2988118</v>
+        <v>2985323</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
@@ -25787,7 +25787,7 @@
         <v>2906894</v>
       </c>
       <c r="Y329">
-        <v>2903008</v>
+        <v>2904009</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
@@ -25864,7 +25864,7 @@
         <v>2890239</v>
       </c>
       <c r="Y330">
-        <v>2888780</v>
+        <v>2888261</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
@@ -25941,7 +25941,7 @@
         <v>2889884</v>
       </c>
       <c r="Y331">
-        <v>2888275</v>
+        <v>2888640</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
@@ -26018,7 +26018,7 @@
         <v>2770760</v>
       </c>
       <c r="Y332">
-        <v>2760965</v>
+        <v>2752689</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
@@ -26095,7 +26095,7 @@
         <v>2753373</v>
       </c>
       <c r="Y333">
-        <v>2742846</v>
+        <v>2737780</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
@@ -26172,7 +26172,7 @@
         <v>2728594</v>
       </c>
       <c r="Y334">
-        <v>2711183</v>
+        <v>2708757</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
@@ -26249,7 +26249,7 @@
         <v>2519998</v>
       </c>
       <c r="Y335">
-        <v>2511885</v>
+        <v>2507498</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
@@ -26326,7 +26326,7 @@
         <v>2707405</v>
       </c>
       <c r="Y336">
-        <v>2691201</v>
+        <v>2688883</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
@@ -26403,7 +26403,7 @@
         <v>2591398</v>
       </c>
       <c r="Y337">
-        <v>2584874</v>
+        <v>2577001</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
@@ -26480,7 +26480,7 @@
         <v>2565079</v>
       </c>
       <c r="Y338">
-        <v>2545639</v>
+        <v>2545630</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
@@ -26557,7 +26557,7 @@
         <v>2492181</v>
       </c>
       <c r="Y339">
-        <v>2472140</v>
+        <v>2473884</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
@@ -26634,7 +26634,7 @@
         <v>2656826</v>
       </c>
       <c r="Y340">
-        <v>2637565</v>
+        <v>2634500</v>
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
@@ -26711,7 +26711,7 @@
         <v>2647183</v>
       </c>
       <c r="Y341">
-        <v>2642719</v>
+        <v>2641312</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
@@ -26788,7 +26788,7 @@
         <v>1824471</v>
       </c>
       <c r="Y342">
-        <v>1776812</v>
+        <v>1778631</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
@@ -26865,7 +26865,7 @@
         <v>1853471</v>
       </c>
       <c r="Y343">
-        <v>1751424</v>
+        <v>1748725</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
@@ -26942,7 +26942,7 @@
         <v>1820050</v>
       </c>
       <c r="Y344">
-        <v>1798184</v>
+        <v>1812443</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
@@ -27019,7 +27019,7 @@
         <v>1891486</v>
       </c>
       <c r="Y345">
-        <v>1777210</v>
+        <v>1729437</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
@@ -27096,7 +27096,7 @@
         <v>1753032</v>
       </c>
       <c r="Y346">
-        <v>1716940</v>
+        <v>1730681</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
@@ -27173,7 +27173,7 @@
         <v>1692603</v>
       </c>
       <c r="Y347">
-        <v>1591727</v>
+        <v>1619581</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
@@ -27250,7 +27250,7 @@
         <v>1844885</v>
       </c>
       <c r="Y348">
-        <v>1747599</v>
+        <v>1773818</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
@@ -27327,7 +27327,7 @@
         <v>1824329</v>
       </c>
       <c r="Y349">
-        <v>1771955</v>
+        <v>1757417</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
@@ -27404,7 +27404,7 @@
         <v>1889355</v>
       </c>
       <c r="Y350">
-        <v>1846424</v>
+        <v>1849331</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
@@ -27481,7 +27481,7 @@
         <v>1819519</v>
       </c>
       <c r="Y351">
-        <v>1690833</v>
+        <v>1710498</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
@@ -27558,7 +27558,7 @@
         <v>790055</v>
       </c>
       <c r="Y352">
-        <v>672508</v>
+        <v>614597</v>
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
@@ -27635,7 +27635,7 @@
         <v>610502</v>
       </c>
       <c r="Y353">
-        <v>631465</v>
+        <v>513449</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
@@ -27712,7 +27712,7 @@
         <v>818337</v>
       </c>
       <c r="Y354">
-        <v>806873</v>
+        <v>792148</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
@@ -27789,7 +27789,7 @@
         <v>748986</v>
       </c>
       <c r="Y355">
-        <v>583384</v>
+        <v>516677</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
@@ -27866,7 +27866,7 @@
         <v>724973</v>
       </c>
       <c r="Y356">
-        <v>588917</v>
+        <v>469846</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
@@ -27943,7 +27943,7 @@
         <v>603140</v>
       </c>
       <c r="Y357">
-        <v>631416</v>
+        <v>604612</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
@@ -28020,7 +28020,7 @@
         <v>697776</v>
       </c>
       <c r="Y358">
-        <v>740711</v>
+        <v>685799</v>
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.3">
@@ -28097,7 +28097,7 @@
         <v>891424</v>
       </c>
       <c r="Y359">
-        <v>775539</v>
+        <v>732397</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.3">
@@ -28174,7 +28174,7 @@
         <v>839416</v>
       </c>
       <c r="Y360">
-        <v>607357</v>
+        <v>489931</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.3">
@@ -28251,7 +28251,7 @@
         <v>775534</v>
       </c>
       <c r="Y361">
-        <v>628206</v>
+        <v>541132</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.3">
@@ -28328,7 +28328,7 @@
         <v>2884032</v>
       </c>
       <c r="Y362">
-        <v>2884032</v>
+        <v>2895524</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.3">
@@ -28405,7 +28405,7 @@
         <v>2972073</v>
       </c>
       <c r="Y363">
-        <v>2972073</v>
+        <v>2982930</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.3">
@@ -28482,7 +28482,7 @@
         <v>2868283</v>
       </c>
       <c r="Y364">
-        <v>2868283</v>
+        <v>2883168</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.3">
@@ -28559,7 +28559,7 @@
         <v>2925454</v>
       </c>
       <c r="Y365">
-        <v>2925454</v>
+        <v>2938225</v>
       </c>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.3">
@@ -28636,7 +28636,7 @@
         <v>2859833</v>
       </c>
       <c r="Y366">
-        <v>2859675</v>
+        <v>2871791</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.3">
@@ -28713,7 +28713,7 @@
         <v>2940585</v>
       </c>
       <c r="Y367">
-        <v>2940585</v>
+        <v>2950542</v>
       </c>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.3">
@@ -28790,7 +28790,7 @@
         <v>2905788</v>
       </c>
       <c r="Y368">
-        <v>2905788</v>
+        <v>2914411</v>
       </c>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.3">
@@ -28867,7 +28867,7 @@
         <v>2882032</v>
       </c>
       <c r="Y369">
-        <v>2882032</v>
+        <v>2894253</v>
       </c>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.3">
@@ -28944,7 +28944,7 @@
         <v>2913006</v>
       </c>
       <c r="Y370">
-        <v>2913006</v>
+        <v>2923704</v>
       </c>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.3">
@@ -29021,7 +29021,7 @@
         <v>2976458</v>
       </c>
       <c r="Y371">
-        <v>2976458</v>
+        <v>2988020</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.3">
@@ -29098,7 +29098,7 @@
         <v>2794328</v>
       </c>
       <c r="Y372">
-        <v>2794328</v>
+        <v>2829527</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.3">
@@ -29175,7 +29175,7 @@
         <v>2824007</v>
       </c>
       <c r="Y373">
-        <v>2824007</v>
+        <v>2876843</v>
       </c>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.3">
@@ -29252,7 +29252,7 @@
         <v>2747081</v>
       </c>
       <c r="Y374">
-        <v>2747081</v>
+        <v>2786331</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.3">
@@ -29329,7 +29329,7 @@
         <v>2764643</v>
       </c>
       <c r="Y375">
-        <v>2762079</v>
+        <v>2794108</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.3">
@@ -29406,7 +29406,7 @@
         <v>2761113</v>
       </c>
       <c r="Y376">
-        <v>2761113</v>
+        <v>2817108</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.3">
@@ -29483,7 +29483,7 @@
         <v>2678450</v>
       </c>
       <c r="Y377">
-        <v>2677858</v>
+        <v>2722832</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.3">
@@ -29560,7 +29560,7 @@
         <v>2751188</v>
       </c>
       <c r="Y378">
-        <v>2751188</v>
+        <v>2800609</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.3">
@@ -29637,7 +29637,7 @@
         <v>2676662</v>
       </c>
       <c r="Y379">
-        <v>2676662</v>
+        <v>2714619</v>
       </c>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.3">
@@ -29714,7 +29714,7 @@
         <v>2709344</v>
       </c>
       <c r="Y380">
-        <v>2709344</v>
+        <v>2751984</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.3">
@@ -29791,7 +29791,7 @@
         <v>2667545</v>
       </c>
       <c r="Y381">
-        <v>2667545</v>
+        <v>2723053</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.3">
@@ -29868,7 +29868,7 @@
         <v>1792361</v>
       </c>
       <c r="Y382">
-        <v>1792361</v>
+        <v>2067481</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.3">
@@ -29945,7 +29945,7 @@
         <v>1832191</v>
       </c>
       <c r="Y383">
-        <v>1817955</v>
+        <v>1984319</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.3">
@@ -30022,7 +30022,7 @@
         <v>1803150</v>
       </c>
       <c r="Y384">
-        <v>1803070</v>
+        <v>2059239</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.3">
@@ -30099,7 +30099,7 @@
         <v>1755720</v>
       </c>
       <c r="Y385">
-        <v>1755720</v>
+        <v>1945176</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.3">
@@ -30176,7 +30176,7 @@
         <v>1842080</v>
       </c>
       <c r="Y386">
-        <v>1842080</v>
+        <v>2038934</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.3">
@@ -30253,7 +30253,7 @@
         <v>1799955</v>
       </c>
       <c r="Y387">
-        <v>1799955</v>
+        <v>1972287</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.3">
@@ -30330,7 +30330,7 @@
         <v>1825931</v>
       </c>
       <c r="Y388">
-        <v>1825931</v>
+        <v>2042594</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.3">
@@ -30407,7 +30407,7 @@
         <v>1728210</v>
       </c>
       <c r="Y389">
-        <v>1728210</v>
+        <v>1912622</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.3">
@@ -30484,7 +30484,7 @@
         <v>1705146</v>
       </c>
       <c r="Y390">
-        <v>1705146</v>
+        <v>1916722</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.3">
@@ -30561,7 +30561,7 @@
         <v>1721337</v>
       </c>
       <c r="Y391">
-        <v>1721337</v>
+        <v>1920223</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>510428</v>
       </c>
       <c r="Y392">
-        <v>510428</v>
+        <v>551160</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.3">
@@ -30715,7 +30715,7 @@
         <v>469173</v>
       </c>
       <c r="Y393">
-        <v>469173</v>
+        <v>502240</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.3">
@@ -30792,7 +30792,7 @@
         <v>455784</v>
       </c>
       <c r="Y394">
-        <v>455784</v>
+        <v>459995</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.3">
@@ -30869,7 +30869,7 @@
         <v>529862</v>
       </c>
       <c r="Y395">
-        <v>529862</v>
+        <v>562196</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.3">
@@ -30946,7 +30946,7 @@
         <v>522000</v>
       </c>
       <c r="Y396">
-        <v>522000</v>
+        <v>544337</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.3">
@@ -31023,7 +31023,7 @@
         <v>558852</v>
       </c>
       <c r="Y397">
-        <v>558852</v>
+        <v>582353</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.3">
@@ -31100,7 +31100,7 @@
         <v>513312</v>
       </c>
       <c r="Y398">
-        <v>513312</v>
+        <v>531975</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.3">
@@ -31177,7 +31177,7 @@
         <v>532977</v>
       </c>
       <c r="Y399">
-        <v>532977</v>
+        <v>550570</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.3">
@@ -31254,7 +31254,7 @@
         <v>517498</v>
       </c>
       <c r="Y400">
-        <v>517498</v>
+        <v>532558</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.3">
@@ -31331,7 +31331,7 @@
         <v>473732</v>
       </c>
       <c r="Y401">
-        <v>473732</v>
+        <v>493085</v>
       </c>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.3">
@@ -31408,7 +31408,7 @@
         <v>2931457</v>
       </c>
       <c r="Y402">
-        <v>2931457</v>
+        <v>2961019</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.3">
@@ -31485,7 +31485,7 @@
         <v>2962243</v>
       </c>
       <c r="Y403">
-        <v>2962243</v>
+        <v>2991942</v>
       </c>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.3">
@@ -31562,7 +31562,7 @@
         <v>2897035</v>
       </c>
       <c r="Y404">
-        <v>2897035</v>
+        <v>2919168</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.3">
@@ -31639,7 +31639,7 @@
         <v>2906335</v>
       </c>
       <c r="Y405">
-        <v>2906335</v>
+        <v>2925975</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.3">
@@ -31716,7 +31716,7 @@
         <v>2817125</v>
       </c>
       <c r="Y406">
-        <v>2817125</v>
+        <v>2837239</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.3">
@@ -31793,7 +31793,7 @@
         <v>2928269</v>
       </c>
       <c r="Y407">
-        <v>2928269</v>
+        <v>2964943</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.3">
@@ -31870,7 +31870,7 @@
         <v>2910339</v>
       </c>
       <c r="Y408">
-        <v>2910339</v>
+        <v>2934390</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.3">
@@ -31947,7 +31947,7 @@
         <v>2902026</v>
       </c>
       <c r="Y409">
-        <v>2902026</v>
+        <v>2934723</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.3">
@@ -32024,7 +32024,7 @@
         <v>2922479</v>
       </c>
       <c r="Y410">
-        <v>2922479</v>
+        <v>2957180</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.3">
@@ -32101,7 +32101,7 @@
         <v>3005208</v>
       </c>
       <c r="Y411">
-        <v>3005208</v>
+        <v>3032997</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.3">
@@ -32178,7 +32178,7 @@
         <v>2693140</v>
       </c>
       <c r="Y412">
-        <v>2693140</v>
+        <v>2791523</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.3">
@@ -32255,7 +32255,7 @@
         <v>2734949</v>
       </c>
       <c r="Y413">
-        <v>2734949</v>
+        <v>2907343</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.3">
@@ -32332,7 +32332,7 @@
         <v>2742247</v>
       </c>
       <c r="Y414">
-        <v>2742247</v>
+        <v>2865147</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.3">
@@ -32409,7 +32409,7 @@
         <v>2715984</v>
       </c>
       <c r="Y415">
-        <v>2715984</v>
+        <v>2869799</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.3">
@@ -32486,7 +32486,7 @@
         <v>2645299</v>
       </c>
       <c r="Y416">
-        <v>2645299</v>
+        <v>2778957</v>
       </c>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.3">
@@ -32563,7 +32563,7 @@
         <v>2736880</v>
       </c>
       <c r="Y417">
-        <v>2736880</v>
+        <v>2884683</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.3">
@@ -32640,7 +32640,7 @@
         <v>2713334</v>
       </c>
       <c r="Y418">
-        <v>2713334</v>
+        <v>2849502</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.3">
@@ -32717,7 +32717,7 @@
         <v>2736996</v>
       </c>
       <c r="Y419">
-        <v>2736996</v>
+        <v>2849475</v>
       </c>
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.3">
@@ -32794,7 +32794,7 @@
         <v>2717029</v>
       </c>
       <c r="Y420">
-        <v>2717029</v>
+        <v>2831992</v>
       </c>
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.3">
@@ -32871,7 +32871,7 @@
         <v>2773988</v>
       </c>
       <c r="Y421">
-        <v>2773988</v>
+        <v>2936025</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.3">
@@ -32948,7 +32948,7 @@
         <v>1850835</v>
       </c>
       <c r="Y422">
-        <v>1850835</v>
+        <v>2410809</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.3">
@@ -33025,7 +33025,7 @@
         <v>1786005</v>
       </c>
       <c r="Y423">
-        <v>1786005</v>
+        <v>2359662</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.3">
@@ -33102,7 +33102,7 @@
         <v>1779153</v>
       </c>
       <c r="Y424">
-        <v>1779153</v>
+        <v>2291048</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.3">
@@ -33179,7 +33179,7 @@
         <v>1754168</v>
       </c>
       <c r="Y425">
-        <v>1754168</v>
+        <v>2358977</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.3">
@@ -33256,7 +33256,7 @@
         <v>1697136</v>
       </c>
       <c r="Y426">
-        <v>1697136</v>
+        <v>2180218</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.3">
@@ -33333,7 +33333,7 @@
         <v>1770774</v>
       </c>
       <c r="Y427">
-        <v>1770774</v>
+        <v>2347877</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.3">
@@ -33410,7 +33410,7 @@
         <v>1824446</v>
       </c>
       <c r="Y428">
-        <v>1824446</v>
+        <v>2293518</v>
       </c>
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.3">
@@ -33487,7 +33487,7 @@
         <v>1779139</v>
       </c>
       <c r="Y429">
-        <v>1779139</v>
+        <v>2350300</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.3">
@@ -33564,7 +33564,7 @@
         <v>1722239</v>
       </c>
       <c r="Y430">
-        <v>1722239</v>
+        <v>2320058</v>
       </c>
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.3">
@@ -33641,7 +33641,7 @@
         <v>1756563</v>
       </c>
       <c r="Y431">
-        <v>1756563</v>
+        <v>2202313</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.3">
@@ -33718,7 +33718,7 @@
         <v>526458</v>
       </c>
       <c r="Y432">
-        <v>526458</v>
+        <v>539057</v>
       </c>
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.3">
@@ -33795,7 +33795,7 @@
         <v>450442</v>
       </c>
       <c r="Y433">
-        <v>450442</v>
+        <v>463737</v>
       </c>
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.3">
@@ -33872,7 +33872,7 @@
         <v>386989</v>
       </c>
       <c r="Y434">
-        <v>386989</v>
+        <v>389954</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.3">
@@ -33949,7 +33949,7 @@
         <v>597510</v>
       </c>
       <c r="Y435">
-        <v>597510</v>
+        <v>608087</v>
       </c>
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.3">
@@ -34026,7 +34026,7 @@
         <v>549188</v>
       </c>
       <c r="Y436">
-        <v>549188</v>
+        <v>581842</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.3">
@@ -34103,7 +34103,7 @@
         <v>490887</v>
       </c>
       <c r="Y437">
-        <v>490887</v>
+        <v>518027</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.3">
@@ -34180,7 +34180,7 @@
         <v>456340</v>
       </c>
       <c r="Y438">
-        <v>456340</v>
+        <v>492313</v>
       </c>
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.3">
@@ -34257,7 +34257,7 @@
         <v>655027</v>
       </c>
       <c r="Y439">
-        <v>655027</v>
+        <v>676380</v>
       </c>
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.3">
@@ -34334,7 +34334,7 @@
         <v>510946</v>
       </c>
       <c r="Y440">
-        <v>510946</v>
+        <v>519935</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.3">
@@ -34411,7 +34411,7 @@
         <v>530774</v>
       </c>
       <c r="Y441">
-        <v>530774</v>
+        <v>555745</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.3">
@@ -34488,7 +34488,7 @@
         <v>2909450</v>
       </c>
       <c r="Y442">
-        <v>2909450</v>
+        <v>2959956</v>
       </c>
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.3">
@@ -34565,7 +34565,7 @@
         <v>2906594</v>
       </c>
       <c r="Y443">
-        <v>2906594</v>
+        <v>2957084</v>
       </c>
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.3">
@@ -34642,7 +34642,7 @@
         <v>2915705</v>
       </c>
       <c r="Y444">
-        <v>2915705</v>
+        <v>2969501</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.3">
@@ -34719,7 +34719,7 @@
         <v>2897947</v>
       </c>
       <c r="Y445">
-        <v>2897947</v>
+        <v>2943634</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.3">
@@ -34796,7 +34796,7 @@
         <v>2996494</v>
       </c>
       <c r="Y446">
-        <v>2996494</v>
+        <v>3052707</v>
       </c>
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.3">
@@ -34873,7 +34873,7 @@
         <v>2950789</v>
       </c>
       <c r="Y447">
-        <v>2950789</v>
+        <v>2998204</v>
       </c>
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.3">
@@ -34950,7 +34950,7 @@
         <v>2980631</v>
       </c>
       <c r="Y448">
-        <v>2980631</v>
+        <v>3030810</v>
       </c>
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.3">
@@ -35027,7 +35027,7 @@
         <v>2927837</v>
       </c>
       <c r="Y449">
-        <v>2927837</v>
+        <v>2970481</v>
       </c>
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.3">
@@ -35104,7 +35104,7 @@
         <v>2934141</v>
       </c>
       <c r="Y450">
-        <v>2934141</v>
+        <v>2973594</v>
       </c>
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.3">
@@ -35181,7 +35181,7 @@
         <v>2911505</v>
       </c>
       <c r="Y451">
-        <v>2911505</v>
+        <v>2957830</v>
       </c>
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.3">
@@ -35258,7 +35258,7 @@
         <v>2832512</v>
       </c>
       <c r="Y452">
-        <v>2832512</v>
+        <v>3043164</v>
       </c>
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.3">
@@ -35335,7 +35335,7 @@
         <v>2705959</v>
       </c>
       <c r="Y453">
-        <v>2705959</v>
+        <v>2948818</v>
       </c>
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.3">
@@ -35412,7 +35412,7 @@
         <v>2707878</v>
       </c>
       <c r="Y454">
-        <v>2707878</v>
+        <v>2965878</v>
       </c>
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.3">
@@ -35489,7 +35489,7 @@
         <v>2818448</v>
       </c>
       <c r="Y455">
-        <v>2818448</v>
+        <v>2986308</v>
       </c>
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.3">
@@ -35566,7 +35566,7 @@
         <v>2704920</v>
       </c>
       <c r="Y456">
-        <v>2704920</v>
+        <v>2923721</v>
       </c>
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.3">
@@ -35643,7 +35643,7 @@
         <v>2760240</v>
       </c>
       <c r="Y457">
-        <v>2760240</v>
+        <v>2967909</v>
       </c>
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.3">
@@ -35720,7 +35720,7 @@
         <v>2767504</v>
       </c>
       <c r="Y458">
-        <v>2767504</v>
+        <v>2923767</v>
       </c>
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.3">
@@ -35797,7 +35797,7 @@
         <v>2697206</v>
       </c>
       <c r="Y459">
-        <v>2697206</v>
+        <v>2878290</v>
       </c>
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.3">
@@ -35874,7 +35874,7 @@
         <v>2801211</v>
       </c>
       <c r="Y460">
-        <v>2801211</v>
+        <v>3061982</v>
       </c>
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.3">
@@ -35951,7 +35951,7 @@
         <v>2769600</v>
       </c>
       <c r="Y461">
-        <v>2769600</v>
+        <v>3014368</v>
       </c>
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.3">
@@ -36028,7 +36028,7 @@
         <v>1757621</v>
       </c>
       <c r="Y462">
-        <v>1757621</v>
+        <v>2595534</v>
       </c>
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.3">
@@ -36105,7 +36105,7 @@
         <v>1693233</v>
       </c>
       <c r="Y463">
-        <v>1693233</v>
+        <v>2267862</v>
       </c>
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.3">
@@ -36182,7 +36182,7 @@
         <v>1769924</v>
       </c>
       <c r="Y464">
-        <v>1769924</v>
+        <v>2700843</v>
       </c>
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.3">
@@ -36259,7 +36259,7 @@
         <v>1739448</v>
       </c>
       <c r="Y465">
-        <v>1739448</v>
+        <v>2707746</v>
       </c>
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.3">
@@ -36336,7 +36336,7 @@
         <v>1768839</v>
       </c>
       <c r="Y466">
-        <v>1768839</v>
+        <v>2734373</v>
       </c>
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.3">
@@ -36413,7 +36413,7 @@
         <v>1751668</v>
       </c>
       <c r="Y467">
-        <v>1751668</v>
+        <v>2553634</v>
       </c>
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.3">
@@ -36490,7 +36490,7 @@
         <v>1893530</v>
       </c>
       <c r="Y468">
-        <v>1893530</v>
+        <v>2694487</v>
       </c>
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.3">
@@ -36567,7 +36567,7 @@
         <v>1733027</v>
       </c>
       <c r="Y469">
-        <v>1733027</v>
+        <v>2589024</v>
       </c>
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.3">
@@ -36644,7 +36644,7 @@
         <v>1792920</v>
       </c>
       <c r="Y470">
-        <v>1792920</v>
+        <v>2565210</v>
       </c>
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.3">
@@ -36721,7 +36721,7 @@
         <v>1708362</v>
       </c>
       <c r="Y471">
-        <v>1708362</v>
+        <v>2552812</v>
       </c>
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.3">
@@ -36798,7 +36798,7 @@
         <v>481806</v>
       </c>
       <c r="Y472">
-        <v>481806</v>
+        <v>499698</v>
       </c>
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.3">
@@ -36875,7 +36875,7 @@
         <v>469882</v>
       </c>
       <c r="Y473">
-        <v>469882</v>
+        <v>483871</v>
       </c>
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.3">
@@ -36952,7 +36952,7 @@
         <v>610931</v>
       </c>
       <c r="Y474">
-        <v>610931</v>
+        <v>640060</v>
       </c>
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.3">
@@ -37029,7 +37029,7 @@
         <v>524405</v>
       </c>
       <c r="Y475">
-        <v>524405</v>
+        <v>534750</v>
       </c>
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.3">
@@ -37106,7 +37106,7 @@
         <v>593080</v>
       </c>
       <c r="Y476">
-        <v>593080</v>
+        <v>616673</v>
       </c>
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.3">
@@ -37183,7 +37183,7 @@
         <v>585517</v>
       </c>
       <c r="Y477">
-        <v>585517</v>
+        <v>616281</v>
       </c>
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.3">
@@ -37260,7 +37260,7 @@
         <v>516779</v>
       </c>
       <c r="Y478">
-        <v>516779</v>
+        <v>534104</v>
       </c>
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.3">
@@ -37337,7 +37337,7 @@
         <v>431656</v>
       </c>
       <c r="Y479">
-        <v>431656</v>
+        <v>451456</v>
       </c>
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.3">
@@ -37414,7 +37414,7 @@
         <v>648277</v>
       </c>
       <c r="Y480">
-        <v>648277</v>
+        <v>707030</v>
       </c>
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.3">
@@ -37491,7 +37491,7 @@
         <v>572673</v>
       </c>
       <c r="Y481">
-        <v>572673</v>
+        <v>596160</v>
       </c>
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.3">
@@ -37568,7 +37568,7 @@
         <v>5028103</v>
       </c>
       <c r="Y482">
-        <v>5027913</v>
+        <v>5027777</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.3">
@@ -37645,7 +37645,7 @@
         <v>4741381</v>
       </c>
       <c r="Y483">
-        <v>4739592</v>
+        <v>4743870</v>
       </c>
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.3">
@@ -37722,7 +37722,7 @@
         <v>4889347</v>
       </c>
       <c r="Y484">
-        <v>4888825</v>
+        <v>4890485</v>
       </c>
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.3">
@@ -37799,7 +37799,7 @@
         <v>4876869</v>
       </c>
       <c r="Y485">
-        <v>4871437</v>
+        <v>4876494</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.3">
@@ -37876,7 +37876,7 @@
         <v>4876622</v>
       </c>
       <c r="Y486">
-        <v>4872630</v>
+        <v>4875113</v>
       </c>
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.3">
@@ -37953,7 +37953,7 @@
         <v>4917501</v>
       </c>
       <c r="Y487">
-        <v>4914373</v>
+        <v>4919415</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.3">
@@ -38030,7 +38030,7 @@
         <v>4868776</v>
       </c>
       <c r="Y488">
-        <v>4864417</v>
+        <v>4866262</v>
       </c>
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.3">
@@ -38107,7 +38107,7 @@
         <v>4719545</v>
       </c>
       <c r="Y489">
-        <v>4715506</v>
+        <v>4715537</v>
       </c>
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.3">
@@ -38184,7 +38184,7 @@
         <v>4930344</v>
       </c>
       <c r="Y490">
-        <v>4926168</v>
+        <v>4930171</v>
       </c>
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.3">
@@ -38261,7 +38261,7 @@
         <v>4913404</v>
       </c>
       <c r="Y491">
-        <v>4913433</v>
+        <v>4912211</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.3">
@@ -38338,7 +38338,7 @@
         <v>4490572</v>
       </c>
       <c r="Y492">
-        <v>4470420</v>
+        <v>4459850</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.3">
@@ -38415,7 +38415,7 @@
         <v>4619016</v>
       </c>
       <c r="Y493">
-        <v>4604604</v>
+        <v>4602447</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.3">
@@ -38492,7 +38492,7 @@
         <v>4615664</v>
       </c>
       <c r="Y494">
-        <v>4595805</v>
+        <v>4598571</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.3">
@@ -38569,7 +38569,7 @@
         <v>4622864</v>
       </c>
       <c r="Y495">
-        <v>4600539</v>
+        <v>4604330</v>
       </c>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.3">
@@ -38646,7 +38646,7 @@
         <v>4532350</v>
       </c>
       <c r="Y496">
-        <v>4509607</v>
+        <v>4503601</v>
       </c>
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.3">
@@ -38723,7 +38723,7 @@
         <v>4229551</v>
       </c>
       <c r="Y497">
-        <v>4196245</v>
+        <v>4201254</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.3">
@@ -38800,7 +38800,7 @@
         <v>4639764</v>
       </c>
       <c r="Y498">
-        <v>4632293</v>
+        <v>4634714</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.3">
@@ -38877,7 +38877,7 @@
         <v>4597387</v>
       </c>
       <c r="Y499">
-        <v>4566470</v>
+        <v>4567052</v>
       </c>
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.3">
@@ -38954,7 +38954,7 @@
         <v>4596760</v>
       </c>
       <c r="Y500">
-        <v>4576524</v>
+        <v>4582538</v>
       </c>
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.3">
@@ -39031,7 +39031,7 @@
         <v>4445322</v>
       </c>
       <c r="Y501">
-        <v>4443352</v>
+        <v>4448562</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.3">
@@ -39108,7 +39108,7 @@
         <v>2926519</v>
       </c>
       <c r="Y502">
-        <v>2909134</v>
+        <v>2954458</v>
       </c>
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.3">
@@ -39185,7 +39185,7 @@
         <v>3081529</v>
       </c>
       <c r="Y503">
-        <v>2964124</v>
+        <v>2934333</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.3">
@@ -39262,7 +39262,7 @@
         <v>2959001</v>
       </c>
       <c r="Y504">
-        <v>2842511</v>
+        <v>2845594</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.3">
@@ -39339,7 +39339,7 @@
         <v>3026994</v>
       </c>
       <c r="Y505">
-        <v>2892515</v>
+        <v>2866895</v>
       </c>
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.3">
@@ -39416,7 +39416,7 @@
         <v>2924355</v>
       </c>
       <c r="Y506">
-        <v>2948445</v>
+        <v>2929399</v>
       </c>
     </row>
     <row r="507" spans="1:25" x14ac:dyDescent="0.3">
@@ -39493,7 +39493,7 @@
         <v>3034541</v>
       </c>
       <c r="Y507">
-        <v>3031624</v>
+        <v>2985317</v>
       </c>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.3">
@@ -39570,7 +39570,7 @@
         <v>3065465</v>
       </c>
       <c r="Y508">
-        <v>2973392</v>
+        <v>2982356</v>
       </c>
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.3">
@@ -39647,7 +39647,7 @@
         <v>2928767</v>
       </c>
       <c r="Y509">
-        <v>2809628</v>
+        <v>2792674</v>
       </c>
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.3">
@@ -39724,7 +39724,7 @@
         <v>2914612</v>
       </c>
       <c r="Y510">
-        <v>2732169</v>
+        <v>2671610</v>
       </c>
     </row>
     <row r="511" spans="1:25" x14ac:dyDescent="0.3">
@@ -39801,7 +39801,7 @@
         <v>3031789</v>
       </c>
       <c r="Y511">
-        <v>2951511</v>
+        <v>2935084</v>
       </c>
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.3">
@@ -39878,7 +39878,7 @@
         <v>1076129</v>
       </c>
       <c r="Y512">
-        <v>868699</v>
+        <v>820413</v>
       </c>
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.3">
@@ -39955,7 +39955,7 @@
         <v>1172627</v>
       </c>
       <c r="Y513">
-        <v>1167595</v>
+        <v>1005534</v>
       </c>
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.3">
@@ -40032,7 +40032,7 @@
         <v>1239383</v>
       </c>
       <c r="Y514">
-        <v>966839</v>
+        <v>900036</v>
       </c>
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.3">
@@ -40109,7 +40109,7 @@
         <v>1007251</v>
       </c>
       <c r="Y515">
-        <v>769747</v>
+        <v>675172</v>
       </c>
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.3">
@@ -40186,7 +40186,7 @@
         <v>1409355</v>
       </c>
       <c r="Y516">
-        <v>1259617</v>
+        <v>1012111</v>
       </c>
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.3">
@@ -40263,7 +40263,7 @@
         <v>1334319</v>
       </c>
       <c r="Y517">
-        <v>1105465</v>
+        <v>1125815</v>
       </c>
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.3">
@@ -40340,7 +40340,7 @@
         <v>1099649</v>
       </c>
       <c r="Y518">
-        <v>1072991</v>
+        <v>850266</v>
       </c>
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.3">
@@ -40417,7 +40417,7 @@
         <v>1175129</v>
       </c>
       <c r="Y519">
-        <v>1070642</v>
+        <v>887751</v>
       </c>
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.3">
@@ -40494,7 +40494,7 @@
         <v>1262499</v>
       </c>
       <c r="Y520">
-        <v>1026954</v>
+        <v>1011783</v>
       </c>
     </row>
     <row r="521" spans="1:25" x14ac:dyDescent="0.3">
@@ -40571,7 +40571,7 @@
         <v>1085410</v>
       </c>
       <c r="Y521">
-        <v>1156831</v>
+        <v>1138007</v>
       </c>
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.3">
@@ -40648,7 +40648,7 @@
         <v>4893207</v>
       </c>
       <c r="Y522">
-        <v>4893207</v>
+        <v>4911566</v>
       </c>
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.3">
@@ -40725,7 +40725,7 @@
         <v>4928340</v>
       </c>
       <c r="Y523">
-        <v>4928340</v>
+        <v>4948068</v>
       </c>
     </row>
     <row r="524" spans="1:25" x14ac:dyDescent="0.3">
@@ -40802,7 +40802,7 @@
         <v>4910874</v>
       </c>
       <c r="Y524">
-        <v>4910874</v>
+        <v>4925005</v>
       </c>
     </row>
     <row r="525" spans="1:25" x14ac:dyDescent="0.3">
@@ -40879,7 +40879,7 @@
         <v>4887690</v>
       </c>
       <c r="Y525">
-        <v>4887690</v>
+        <v>4901130</v>
       </c>
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.3">
@@ -40956,7 +40956,7 @@
         <v>4890419</v>
       </c>
       <c r="Y526">
-        <v>4890419</v>
+        <v>4903339</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.3">
@@ -41033,7 +41033,7 @@
         <v>4843702</v>
       </c>
       <c r="Y527">
-        <v>4843702</v>
+        <v>4854383</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.3">
@@ -41110,7 +41110,7 @@
         <v>4928729</v>
       </c>
       <c r="Y528">
-        <v>4928729</v>
+        <v>4944857</v>
       </c>
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.3">
@@ -41187,7 +41187,7 @@
         <v>4746812</v>
       </c>
       <c r="Y529">
-        <v>4746812</v>
+        <v>4759125</v>
       </c>
     </row>
     <row r="530" spans="1:25" x14ac:dyDescent="0.3">
@@ -41264,7 +41264,7 @@
         <v>4993894</v>
       </c>
       <c r="Y530">
-        <v>4993894</v>
+        <v>5006474</v>
       </c>
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.3">
@@ -41341,7 +41341,7 @@
         <v>4911510</v>
       </c>
       <c r="Y531">
-        <v>4911510</v>
+        <v>4921727</v>
       </c>
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.3">
@@ -41418,7 +41418,7 @@
         <v>4530829</v>
       </c>
       <c r="Y532">
-        <v>4530829</v>
+        <v>4621652</v>
       </c>
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.3">
@@ -41495,7 +41495,7 @@
         <v>4505703</v>
       </c>
       <c r="Y533">
-        <v>4505703</v>
+        <v>4593687</v>
       </c>
     </row>
     <row r="534" spans="1:25" x14ac:dyDescent="0.3">
@@ -41572,7 +41572,7 @@
         <v>4593476</v>
       </c>
       <c r="Y534">
-        <v>4593476</v>
+        <v>4670557</v>
       </c>
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.3">
@@ -41649,7 +41649,7 @@
         <v>4488298</v>
       </c>
       <c r="Y535">
-        <v>4488298</v>
+        <v>4564132</v>
       </c>
     </row>
     <row r="536" spans="1:25" x14ac:dyDescent="0.3">
@@ -41726,7 +41726,7 @@
         <v>4605509</v>
       </c>
       <c r="Y536">
-        <v>4605509</v>
+        <v>4710697</v>
       </c>
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.3">
@@ -41803,7 +41803,7 @@
         <v>4524892</v>
       </c>
       <c r="Y537">
-        <v>4524892</v>
+        <v>4582734</v>
       </c>
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.3">
@@ -41880,7 +41880,7 @@
         <v>4642395</v>
       </c>
       <c r="Y538">
-        <v>4642395</v>
+        <v>4723203</v>
       </c>
     </row>
     <row r="539" spans="1:25" x14ac:dyDescent="0.3">
@@ -41957,7 +41957,7 @@
         <v>4477600</v>
       </c>
       <c r="Y539">
-        <v>4477600</v>
+        <v>4541777</v>
       </c>
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.3">
@@ -42034,7 +42034,7 @@
         <v>4514793</v>
       </c>
       <c r="Y540">
-        <v>4514793</v>
+        <v>4554685</v>
       </c>
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.3">
@@ -42111,7 +42111,7 @@
         <v>4472195</v>
       </c>
       <c r="Y541">
-        <v>4472195</v>
+        <v>4558181</v>
       </c>
     </row>
     <row r="542" spans="1:25" x14ac:dyDescent="0.3">
@@ -42188,7 +42188,7 @@
         <v>2984759</v>
       </c>
       <c r="Y542">
-        <v>2984759</v>
+        <v>3426967</v>
       </c>
     </row>
     <row r="543" spans="1:25" x14ac:dyDescent="0.3">
@@ -42265,7 +42265,7 @@
         <v>2869972</v>
       </c>
       <c r="Y543">
-        <v>2869972</v>
+        <v>3175909</v>
       </c>
     </row>
     <row r="544" spans="1:25" x14ac:dyDescent="0.3">
@@ -42342,7 +42342,7 @@
         <v>2987076</v>
       </c>
       <c r="Y544">
-        <v>2987076</v>
+        <v>3340607</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.3">
@@ -42419,7 +42419,7 @@
         <v>2906295</v>
       </c>
       <c r="Y545">
-        <v>2906295</v>
+        <v>3445502</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.3">
@@ -42496,7 +42496,7 @@
         <v>2828067</v>
       </c>
       <c r="Y546">
-        <v>2828067</v>
+        <v>3242511</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.3">
@@ -42573,7 +42573,7 @@
         <v>2923685</v>
       </c>
       <c r="Y547">
-        <v>2923685</v>
+        <v>3291572</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.3">
@@ -42650,7 +42650,7 @@
         <v>2945828</v>
       </c>
       <c r="Y548">
-        <v>2945828</v>
+        <v>3242157</v>
       </c>
     </row>
     <row r="549" spans="1:25" x14ac:dyDescent="0.3">
@@ -42727,7 +42727,7 @@
         <v>2930737</v>
       </c>
       <c r="Y549">
-        <v>2930737</v>
+        <v>3309965</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.3">
@@ -42804,7 +42804,7 @@
         <v>2858482</v>
       </c>
       <c r="Y550">
-        <v>2858482</v>
+        <v>3210171</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.3">
@@ -42881,7 +42881,7 @@
         <v>2863306</v>
       </c>
       <c r="Y551">
-        <v>2863306</v>
+        <v>3278879</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.3">
@@ -42958,7 +42958,7 @@
         <v>802801</v>
       </c>
       <c r="Y552">
-        <v>802801</v>
+        <v>827077</v>
       </c>
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.3">
@@ -43035,7 +43035,7 @@
         <v>972733</v>
       </c>
       <c r="Y553">
-        <v>972733</v>
+        <v>1010308</v>
       </c>
     </row>
     <row r="554" spans="1:25" x14ac:dyDescent="0.3">
@@ -43112,7 +43112,7 @@
         <v>777124</v>
       </c>
       <c r="Y554">
-        <v>777124</v>
+        <v>790831</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.3">
@@ -43189,7 +43189,7 @@
         <v>953373</v>
       </c>
       <c r="Y555">
-        <v>953373</v>
+        <v>974510</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.3">
@@ -43266,7 +43266,7 @@
         <v>990550</v>
       </c>
       <c r="Y556">
-        <v>990550</v>
+        <v>1016635</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.3">
@@ -43343,7 +43343,7 @@
         <v>1008315</v>
       </c>
       <c r="Y557">
-        <v>1008315</v>
+        <v>1019748</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.3">
@@ -43420,7 +43420,7 @@
         <v>931767</v>
       </c>
       <c r="Y558">
-        <v>931767</v>
+        <v>961864</v>
       </c>
     </row>
     <row r="559" spans="1:25" x14ac:dyDescent="0.3">
@@ -43497,7 +43497,7 @@
         <v>996556</v>
       </c>
       <c r="Y559">
-        <v>996556</v>
+        <v>1023143</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.3">
@@ -43574,7 +43574,7 @@
         <v>891018</v>
       </c>
       <c r="Y560">
-        <v>891018</v>
+        <v>903606</v>
       </c>
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.3">
@@ -43651,7 +43651,7 @@
         <v>817577</v>
       </c>
       <c r="Y561">
-        <v>817577</v>
+        <v>829741</v>
       </c>
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.3">
@@ -43728,7 +43728,7 @@
         <v>4951986</v>
       </c>
       <c r="Y562">
-        <v>4951986</v>
+        <v>5010576</v>
       </c>
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.3">
@@ -43805,7 +43805,7 @@
         <v>4937754</v>
       </c>
       <c r="Y563">
-        <v>4937754</v>
+        <v>4979386</v>
       </c>
     </row>
     <row r="564" spans="1:25" x14ac:dyDescent="0.3">
@@ -43882,7 +43882,7 @@
         <v>4919047</v>
       </c>
       <c r="Y564">
-        <v>4919047</v>
+        <v>4965042</v>
       </c>
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.3">
@@ -43959,7 +43959,7 @@
         <v>4824973</v>
       </c>
       <c r="Y565">
-        <v>4824973</v>
+        <v>4869544</v>
       </c>
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.3">
@@ -44036,7 +44036,7 @@
         <v>4797286</v>
       </c>
       <c r="Y566">
-        <v>4797286</v>
+        <v>4837877</v>
       </c>
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.3">
@@ -44113,7 +44113,7 @@
         <v>4949339</v>
       </c>
       <c r="Y567">
-        <v>4949339</v>
+        <v>4999241</v>
       </c>
     </row>
     <row r="568" spans="1:25" x14ac:dyDescent="0.3">
@@ -44190,7 +44190,7 @@
         <v>4958932</v>
       </c>
       <c r="Y568">
-        <v>4958932</v>
+        <v>5006515</v>
       </c>
     </row>
     <row r="569" spans="1:25" x14ac:dyDescent="0.3">
@@ -44267,7 +44267,7 @@
         <v>4939664</v>
       </c>
       <c r="Y569">
-        <v>4939664</v>
+        <v>4989118</v>
       </c>
     </row>
     <row r="570" spans="1:25" x14ac:dyDescent="0.3">
@@ -44344,7 +44344,7 @@
         <v>4918329</v>
       </c>
       <c r="Y570">
-        <v>4918329</v>
+        <v>4953973</v>
       </c>
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.3">
@@ -44421,7 +44421,7 @@
         <v>4917717</v>
       </c>
       <c r="Y571">
-        <v>4917717</v>
+        <v>4976332</v>
       </c>
     </row>
     <row r="572" spans="1:25" x14ac:dyDescent="0.3">
@@ -44498,7 +44498,7 @@
         <v>4550152</v>
       </c>
       <c r="Y572">
-        <v>4550152</v>
+        <v>4791675</v>
       </c>
     </row>
     <row r="573" spans="1:25" x14ac:dyDescent="0.3">
@@ -44575,7 +44575,7 @@
         <v>4596871</v>
       </c>
       <c r="Y573">
-        <v>4596871</v>
+        <v>4811052</v>
       </c>
     </row>
     <row r="574" spans="1:25" x14ac:dyDescent="0.3">
@@ -44652,7 +44652,7 @@
         <v>4571401</v>
       </c>
       <c r="Y574">
-        <v>4571401</v>
+        <v>4761447</v>
       </c>
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.3">
@@ -44729,7 +44729,7 @@
         <v>4530186</v>
       </c>
       <c r="Y575">
-        <v>4530186</v>
+        <v>4735921</v>
       </c>
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.3">
@@ -44806,7 +44806,7 @@
         <v>4510322</v>
       </c>
       <c r="Y576">
-        <v>4510322</v>
+        <v>4761730</v>
       </c>
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.3">
@@ -44883,7 +44883,7 @@
         <v>4465425</v>
       </c>
       <c r="Y577">
-        <v>4465425</v>
+        <v>4663111</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.3">
@@ -44960,7 +44960,7 @@
         <v>4629616</v>
       </c>
       <c r="Y578">
-        <v>4629616</v>
+        <v>4903294</v>
       </c>
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.3">
@@ -45037,7 +45037,7 @@
         <v>4722333</v>
       </c>
       <c r="Y579">
-        <v>4722333</v>
+        <v>4926415</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.3">
@@ -45114,7 +45114,7 @@
         <v>4681577</v>
       </c>
       <c r="Y580">
-        <v>4681577</v>
+        <v>4870296</v>
       </c>
     </row>
     <row r="581" spans="1:25" x14ac:dyDescent="0.3">
@@ -45191,7 +45191,7 @@
         <v>4579264</v>
       </c>
       <c r="Y581">
-        <v>4579264</v>
+        <v>4752046</v>
       </c>
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.3">
@@ -45268,7 +45268,7 @@
         <v>2878890</v>
       </c>
       <c r="Y582">
-        <v>2878890</v>
+        <v>3758103</v>
       </c>
     </row>
     <row r="583" spans="1:25" x14ac:dyDescent="0.3">
@@ -45345,7 +45345,7 @@
         <v>2912910</v>
       </c>
       <c r="Y583">
-        <v>2912910</v>
+        <v>4086472</v>
       </c>
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.3">
@@ -45422,7 +45422,7 @@
         <v>2880459</v>
       </c>
       <c r="Y584">
-        <v>2880459</v>
+        <v>3947454</v>
       </c>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.3">
@@ -45499,7 +45499,7 @@
         <v>2878172</v>
       </c>
       <c r="Y585">
-        <v>2878172</v>
+        <v>3955216</v>
       </c>
     </row>
     <row r="586" spans="1:25" x14ac:dyDescent="0.3">
@@ -45576,7 +45576,7 @@
         <v>2908003</v>
       </c>
       <c r="Y586">
-        <v>2908003</v>
+        <v>3685258</v>
       </c>
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.3">
@@ -45653,7 +45653,7 @@
         <v>2900966</v>
       </c>
       <c r="Y587">
-        <v>2900966</v>
+        <v>3931010</v>
       </c>
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.3">
@@ -45730,7 +45730,7 @@
         <v>2922572</v>
       </c>
       <c r="Y588">
-        <v>2922572</v>
+        <v>3756325</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.3">
@@ -45807,7 +45807,7 @@
         <v>2988762</v>
       </c>
       <c r="Y589">
-        <v>2988762</v>
+        <v>3824839</v>
       </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.3">
@@ -45884,7 +45884,7 @@
         <v>2938100</v>
       </c>
       <c r="Y590">
-        <v>2938100</v>
+        <v>4039970</v>
       </c>
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.3">
@@ -45961,7 +45961,7 @@
         <v>3026368</v>
       </c>
       <c r="Y591">
-        <v>3026368</v>
+        <v>3966027</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.3">
@@ -46038,7 +46038,7 @@
         <v>1058786</v>
       </c>
       <c r="Y592">
-        <v>1058786</v>
+        <v>1078749</v>
       </c>
     </row>
     <row r="593" spans="1:25" x14ac:dyDescent="0.3">
@@ -46115,7 +46115,7 @@
         <v>775077</v>
       </c>
       <c r="Y593">
-        <v>775077</v>
+        <v>804573</v>
       </c>
     </row>
     <row r="594" spans="1:25" x14ac:dyDescent="0.3">
@@ -46192,7 +46192,7 @@
         <v>976497</v>
       </c>
       <c r="Y594">
-        <v>976497</v>
+        <v>1015726</v>
       </c>
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.3">
@@ -46269,7 +46269,7 @@
         <v>931280</v>
       </c>
       <c r="Y595">
-        <v>931280</v>
+        <v>967609</v>
       </c>
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.3">
@@ -46346,7 +46346,7 @@
         <v>1020937</v>
       </c>
       <c r="Y596">
-        <v>1020937</v>
+        <v>1050432</v>
       </c>
     </row>
     <row r="597" spans="1:25" x14ac:dyDescent="0.3">
@@ -46423,7 +46423,7 @@
         <v>870526</v>
       </c>
       <c r="Y597">
-        <v>870526</v>
+        <v>888630</v>
       </c>
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.3">
@@ -46500,7 +46500,7 @@
         <v>892155</v>
       </c>
       <c r="Y598">
-        <v>892155</v>
+        <v>902449</v>
       </c>
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.3">
@@ -46577,7 +46577,7 @@
         <v>903196</v>
       </c>
       <c r="Y599">
-        <v>903196</v>
+        <v>907654</v>
       </c>
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.3">
@@ -46654,7 +46654,7 @@
         <v>856110</v>
       </c>
       <c r="Y600">
-        <v>856110</v>
+        <v>884144</v>
       </c>
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.3">
@@ -46731,7 +46731,7 @@
         <v>920583</v>
       </c>
       <c r="Y601">
-        <v>920583</v>
+        <v>943993</v>
       </c>
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.3">
@@ -46808,7 +46808,7 @@
         <v>4822360</v>
       </c>
       <c r="Y602">
-        <v>4822360</v>
+        <v>4874449</v>
       </c>
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.3">
@@ -46885,7 +46885,7 @@
         <v>4865908</v>
       </c>
       <c r="Y603">
-        <v>4865908</v>
+        <v>4951687</v>
       </c>
     </row>
     <row r="604" spans="1:25" x14ac:dyDescent="0.3">
@@ -46962,7 +46962,7 @@
         <v>4907576</v>
       </c>
       <c r="Y604">
-        <v>4907576</v>
+        <v>4983359</v>
       </c>
     </row>
     <row r="605" spans="1:25" x14ac:dyDescent="0.3">
@@ -47039,7 +47039,7 @@
         <v>4804867</v>
       </c>
       <c r="Y605">
-        <v>4804867</v>
+        <v>4889614</v>
       </c>
     </row>
     <row r="606" spans="1:25" x14ac:dyDescent="0.3">
@@ -47116,7 +47116,7 @@
         <v>5003941</v>
       </c>
       <c r="Y606">
-        <v>5003941</v>
+        <v>5061694</v>
       </c>
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.3">
@@ -47193,7 +47193,7 @@
         <v>4891741</v>
       </c>
       <c r="Y607">
-        <v>4891741</v>
+        <v>4972247</v>
       </c>
     </row>
     <row r="608" spans="1:25" x14ac:dyDescent="0.3">
@@ -47270,7 +47270,7 @@
         <v>4840833</v>
       </c>
       <c r="Y608">
-        <v>4840833</v>
+        <v>4903372</v>
       </c>
     </row>
     <row r="609" spans="1:25" x14ac:dyDescent="0.3">
@@ -47347,7 +47347,7 @@
         <v>4806321</v>
       </c>
       <c r="Y609">
-        <v>4806321</v>
+        <v>4888652</v>
       </c>
     </row>
     <row r="610" spans="1:25" x14ac:dyDescent="0.3">
@@ -47424,7 +47424,7 @@
         <v>4879860</v>
       </c>
       <c r="Y610">
-        <v>4879860</v>
+        <v>4942580</v>
       </c>
     </row>
     <row r="611" spans="1:25" x14ac:dyDescent="0.3">
@@ -47501,7 +47501,7 @@
         <v>5010534</v>
       </c>
       <c r="Y611">
-        <v>5010534</v>
+        <v>5094535</v>
       </c>
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.3">
@@ -47578,7 +47578,7 @@
         <v>4603804</v>
       </c>
       <c r="Y612">
-        <v>4603804</v>
+        <v>4999746</v>
       </c>
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.3">
@@ -47655,7 +47655,7 @@
         <v>4473169</v>
       </c>
       <c r="Y613">
-        <v>4473169</v>
+        <v>4842730</v>
       </c>
     </row>
     <row r="614" spans="1:25" x14ac:dyDescent="0.3">
@@ -47732,7 +47732,7 @@
         <v>4730823</v>
       </c>
       <c r="Y614">
-        <v>4730823</v>
+        <v>5162528</v>
       </c>
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.3">
@@ -47809,7 +47809,7 @@
         <v>4640543</v>
       </c>
       <c r="Y615">
-        <v>4640543</v>
+        <v>4933664</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.3">
@@ -47886,7 +47886,7 @@
         <v>4517089</v>
       </c>
       <c r="Y616">
-        <v>4517089</v>
+        <v>4950252</v>
       </c>
     </row>
     <row r="617" spans="1:25" x14ac:dyDescent="0.3">
@@ -47963,7 +47963,7 @@
         <v>4644830</v>
       </c>
       <c r="Y617">
-        <v>4644830</v>
+        <v>5044541</v>
       </c>
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.3">
@@ -48040,7 +48040,7 @@
         <v>4624775</v>
       </c>
       <c r="Y618">
-        <v>4624775</v>
+        <v>5011909</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.3">
@@ -48117,7 +48117,7 @@
         <v>4580938</v>
       </c>
       <c r="Y619">
-        <v>4580938</v>
+        <v>5016025</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.3">
@@ -48194,7 +48194,7 @@
         <v>4548211</v>
       </c>
       <c r="Y620">
-        <v>4548211</v>
+        <v>4871423</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.3">
@@ -48271,7 +48271,7 @@
         <v>4448647</v>
       </c>
       <c r="Y621">
-        <v>4448647</v>
+        <v>4851390</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.3">
@@ -48348,7 +48348,7 @@
         <v>2944970</v>
       </c>
       <c r="Y622">
-        <v>2944970</v>
+        <v>4425335</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.3">
@@ -48425,7 +48425,7 @@
         <v>2902397</v>
       </c>
       <c r="Y623">
-        <v>2902397</v>
+        <v>4122907</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.3">
@@ -48502,7 +48502,7 @@
         <v>2989655</v>
       </c>
       <c r="Y624">
-        <v>2989655</v>
+        <v>4435521</v>
       </c>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.3">
@@ -48579,7 +48579,7 @@
         <v>2910507</v>
       </c>
       <c r="Y625">
-        <v>2910507</v>
+        <v>4109063</v>
       </c>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.3">
@@ -48656,7 +48656,7 @@
         <v>3023219</v>
       </c>
       <c r="Y626">
-        <v>3023219</v>
+        <v>4541805</v>
       </c>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.3">
@@ -48733,7 +48733,7 @@
         <v>2994260</v>
       </c>
       <c r="Y627">
-        <v>2994260</v>
+        <v>4266019</v>
       </c>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.3">
@@ -48810,7 +48810,7 @@
         <v>2973741</v>
       </c>
       <c r="Y628">
-        <v>2973741</v>
+        <v>4113239</v>
       </c>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.3">
@@ -48887,7 +48887,7 @@
         <v>2831961</v>
       </c>
       <c r="Y629">
-        <v>2831961</v>
+        <v>4277011</v>
       </c>
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.3">
@@ -48964,7 +48964,7 @@
         <v>3099443</v>
       </c>
       <c r="Y630">
-        <v>3099443</v>
+        <v>4363432</v>
       </c>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.3">
@@ -49041,7 +49041,7 @@
         <v>2909749</v>
       </c>
       <c r="Y631">
-        <v>2909749</v>
+        <v>4233651</v>
       </c>
     </row>
     <row r="632" spans="1:25" x14ac:dyDescent="0.3">
@@ -49118,7 +49118,7 @@
         <v>890014</v>
       </c>
       <c r="Y632">
-        <v>890014</v>
+        <v>912874</v>
       </c>
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.3">
@@ -49195,7 +49195,7 @@
         <v>909241</v>
       </c>
       <c r="Y633">
-        <v>909241</v>
+        <v>954725</v>
       </c>
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.3">
@@ -49272,7 +49272,7 @@
         <v>907610</v>
       </c>
       <c r="Y634">
-        <v>907610</v>
+        <v>917301</v>
       </c>
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.3">
@@ -49349,7 +49349,7 @@
         <v>899107</v>
       </c>
       <c r="Y635">
-        <v>899107</v>
+        <v>917247</v>
       </c>
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.3">
@@ -49426,7 +49426,7 @@
         <v>882061</v>
       </c>
       <c r="Y636">
-        <v>882061</v>
+        <v>900749</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.3">
@@ -49503,7 +49503,7 @@
         <v>1064967</v>
       </c>
       <c r="Y637">
-        <v>1064967</v>
+        <v>1089536</v>
       </c>
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.3">
@@ -49580,7 +49580,7 @@
         <v>872060</v>
       </c>
       <c r="Y638">
-        <v>872060</v>
+        <v>897884</v>
       </c>
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.3">
@@ -49657,7 +49657,7 @@
         <v>973649</v>
       </c>
       <c r="Y639">
-        <v>973649</v>
+        <v>987688</v>
       </c>
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.3">
@@ -49734,7 +49734,7 @@
         <v>904942</v>
       </c>
       <c r="Y640">
-        <v>904942</v>
+        <v>945438</v>
       </c>
     </row>
     <row r="641" spans="1:25" x14ac:dyDescent="0.3">
@@ -49811,7 +49811,7 @@
         <v>918883</v>
       </c>
       <c r="Y641">
-        <v>918883</v>
+        <v>939261</v>
       </c>
     </row>
     <row r="642" spans="1:25" x14ac:dyDescent="0.3">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="Y642">
         <f>AVERAGE(Y2:Y641)</f>
-        <v>1830407.8515625</v>
+        <v>1949485.2109375</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.3">

--- a/Comparsion of costs.xlsx
+++ b/Comparsion of costs.xlsx
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
@@ -608,7 +608,7 @@
         <v>923317</v>
       </c>
       <c r="Y2">
-        <v>922046</v>
+        <v>922548</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>947267</v>
       </c>
       <c r="Y3">
-        <v>945664</v>
+        <v>947044</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>965292</v>
       </c>
       <c r="Y4">
-        <v>965454</v>
+        <v>965358</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>936761</v>
       </c>
       <c r="Y5">
-        <v>934948</v>
+        <v>937697</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>964013</v>
       </c>
       <c r="Y6">
-        <v>963172</v>
+        <v>964599</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>965635</v>
       </c>
       <c r="Y7">
-        <v>965391</v>
+        <v>965652</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>1003001</v>
       </c>
       <c r="Y8">
-        <v>1000109</v>
+        <v>1001692</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>983684</v>
       </c>
       <c r="Y9">
-        <v>981427</v>
+        <v>982132</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>992449</v>
       </c>
       <c r="Y10">
-        <v>990742</v>
+        <v>990909</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>950928</v>
       </c>
       <c r="Y11">
-        <v>950045</v>
+        <v>950753</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>922211</v>
       </c>
       <c r="Y12">
-        <v>924670</v>
+        <v>926480</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>883007</v>
       </c>
       <c r="Y13">
-        <v>891629</v>
+        <v>897647</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>890120</v>
       </c>
       <c r="Y14">
-        <v>880778</v>
+        <v>891010</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>880617</v>
       </c>
       <c r="Y15">
-        <v>874240</v>
+        <v>875861</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>910590</v>
       </c>
       <c r="Y16">
-        <v>902314</v>
+        <v>911508</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>893242</v>
       </c>
       <c r="Y17">
-        <v>884428</v>
+        <v>888715</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>867799</v>
       </c>
       <c r="Y18">
-        <v>867695</v>
+        <v>873252</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>962921</v>
       </c>
       <c r="Y19">
-        <v>954271</v>
+        <v>964252</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -1994,7 +1994,7 @@
         <v>892727</v>
       </c>
       <c r="Y20">
-        <v>882382</v>
+        <v>888941</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>876698</v>
       </c>
       <c r="Y21">
-        <v>864866</v>
+        <v>876506</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>638848</v>
       </c>
       <c r="Y22">
-        <v>625865</v>
+        <v>626667</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>632697</v>
       </c>
       <c r="Y23">
-        <v>628481</v>
+        <v>674194</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>694359</v>
       </c>
       <c r="Y24">
-        <v>595639</v>
+        <v>642330</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
         <v>615549</v>
       </c>
       <c r="Y25">
-        <v>593355</v>
+        <v>633772</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>695665</v>
       </c>
       <c r="Y26">
-        <v>677399</v>
+        <v>691827</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>621357</v>
       </c>
       <c r="Y27">
-        <v>604327</v>
+        <v>666411</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>662766</v>
       </c>
       <c r="Y28">
-        <v>619322</v>
+        <v>673412</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>693621</v>
       </c>
       <c r="Y29">
-        <v>664140</v>
+        <v>679556</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>612757</v>
       </c>
       <c r="Y30">
-        <v>578280</v>
+        <v>625325</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>708285</v>
       </c>
       <c r="Y31">
-        <v>648802</v>
+        <v>705998</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
         <v>220211</v>
       </c>
       <c r="Y32">
-        <v>229531</v>
+        <v>257749</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>254025</v>
       </c>
       <c r="Y33">
-        <v>229425</v>
+        <v>345169</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
         <v>427336</v>
       </c>
       <c r="Y34">
-        <v>379260</v>
+        <v>370436</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>319296</v>
       </c>
       <c r="Y35">
-        <v>222115</v>
+        <v>298480</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>371943</v>
       </c>
       <c r="Y36">
-        <v>249089</v>
+        <v>341020</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
         <v>379540</v>
       </c>
       <c r="Y37">
-        <v>271574</v>
+        <v>332465</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>355684</v>
       </c>
       <c r="Y38">
-        <v>313011</v>
+        <v>407360</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>244023</v>
       </c>
       <c r="Y39">
-        <v>213040</v>
+        <v>242778</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>287267</v>
       </c>
       <c r="Y40">
-        <v>256555</v>
+        <v>407664</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>253838</v>
       </c>
       <c r="Y41">
-        <v>217285</v>
+        <v>340460</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>1050800</v>
       </c>
       <c r="Y42">
-        <v>1055028</v>
+        <v>1054897</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
         <v>993586</v>
       </c>
       <c r="Y43">
-        <v>995978</v>
+        <v>995851</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>969681</v>
       </c>
       <c r="Y44">
-        <v>975125</v>
+        <v>974381</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>989131</v>
       </c>
       <c r="Y45">
-        <v>990549</v>
+        <v>991743</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
@@ -3996,7 +3996,7 @@
         <v>954079</v>
       </c>
       <c r="Y46">
-        <v>956570</v>
+        <v>959883</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>985090</v>
       </c>
       <c r="Y47">
-        <v>989926</v>
+        <v>988614</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>993522</v>
       </c>
       <c r="Y48">
-        <v>996546</v>
+        <v>997903</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>915314</v>
       </c>
       <c r="Y49">
-        <v>919435</v>
+        <v>918084</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>1022109</v>
       </c>
       <c r="Y50">
-        <v>1024505</v>
+        <v>1024579</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
@@ -4381,7 +4381,7 @@
         <v>1010050</v>
       </c>
       <c r="Y51">
-        <v>1011664</v>
+        <v>1013457</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
         <v>924525</v>
       </c>
       <c r="Y52">
-        <v>933098</v>
+        <v>939333</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>914981</v>
       </c>
       <c r="Y53">
-        <v>933332</v>
+        <v>938623</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
         <v>879151</v>
       </c>
       <c r="Y54">
-        <v>891520</v>
+        <v>893169</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
@@ -4689,7 +4689,7 @@
         <v>954994</v>
       </c>
       <c r="Y55">
-        <v>968731</v>
+        <v>974597</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>921593</v>
       </c>
       <c r="Y56">
-        <v>939569</v>
+        <v>945080</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>954755</v>
       </c>
       <c r="Y57">
-        <v>970479</v>
+        <v>978090</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>948110</v>
       </c>
       <c r="Y58">
-        <v>960015</v>
+        <v>970745</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>890122</v>
       </c>
       <c r="Y59">
-        <v>902644</v>
+        <v>906118</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
@@ -5074,7 +5074,7 @@
         <v>892234</v>
       </c>
       <c r="Y60">
-        <v>912897</v>
+        <v>912275</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
         <v>900131</v>
       </c>
       <c r="Y61">
-        <v>921553</v>
+        <v>912731</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>635251</v>
       </c>
       <c r="Y62">
-        <v>709466</v>
+        <v>749099</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
         <v>572025</v>
       </c>
       <c r="Y63">
-        <v>680616</v>
+        <v>699482</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>520017</v>
       </c>
       <c r="Y64">
-        <v>587798</v>
+        <v>643505</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>593628</v>
       </c>
       <c r="Y65">
-        <v>686941</v>
+        <v>717748</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>580726</v>
       </c>
       <c r="Y66">
-        <v>711968</v>
+        <v>773909</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>576025</v>
       </c>
       <c r="Y67">
-        <v>664493</v>
+        <v>704902</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>639445</v>
       </c>
       <c r="Y68">
-        <v>731756</v>
+        <v>758375</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>615059</v>
       </c>
       <c r="Y69">
-        <v>703026</v>
+        <v>718514</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>574136</v>
       </c>
       <c r="Y70">
-        <v>632406</v>
+        <v>734001</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>592999</v>
       </c>
       <c r="Y71">
-        <v>656508</v>
+        <v>744619</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>152553</v>
       </c>
       <c r="Y72">
-        <v>181937</v>
+        <v>425151</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>172175</v>
       </c>
       <c r="Y73">
-        <v>253878</v>
+        <v>385858</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>218283</v>
       </c>
       <c r="Y74">
-        <v>246297</v>
+        <v>460695</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>162448</v>
       </c>
       <c r="Y75">
-        <v>184796</v>
+        <v>374523</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>187018</v>
       </c>
       <c r="Y76">
-        <v>188174</v>
+        <v>435516</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>228758</v>
       </c>
       <c r="Y77">
-        <v>295851</v>
+        <v>551137</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>273889</v>
       </c>
       <c r="Y78">
-        <v>316166</v>
+        <v>578039</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>198649</v>
       </c>
       <c r="Y79">
-        <v>239563</v>
+        <v>375423</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>189773</v>
       </c>
       <c r="Y80">
-        <v>204234</v>
+        <v>363172</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>217293</v>
       </c>
       <c r="Y81">
-        <v>234738</v>
+        <v>362094</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>940654</v>
       </c>
       <c r="Y82">
-        <v>951210</v>
+        <v>947385</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>966831</v>
       </c>
       <c r="Y83">
-        <v>973094</v>
+        <v>971352</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>987029</v>
       </c>
       <c r="Y84">
-        <v>997862</v>
+        <v>995818</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
@@ -6999,7 +6999,7 @@
         <v>971977</v>
       </c>
       <c r="Y85">
-        <v>980031</v>
+        <v>978063</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>954826</v>
       </c>
       <c r="Y86">
-        <v>965057</v>
+        <v>963456</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>936643</v>
       </c>
       <c r="Y87">
-        <v>946715</v>
+        <v>944000</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>960382</v>
       </c>
       <c r="Y88">
-        <v>969048</v>
+        <v>969779</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
@@ -7307,7 +7307,7 @@
         <v>971007</v>
       </c>
       <c r="Y89">
-        <v>978998</v>
+        <v>976968</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>978480</v>
       </c>
       <c r="Y90">
-        <v>989067</v>
+        <v>983870</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>912716</v>
       </c>
       <c r="Y91">
-        <v>918374</v>
+        <v>918392</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>899185</v>
       </c>
       <c r="Y92">
-        <v>940321</v>
+        <v>926265</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
         <v>895237</v>
       </c>
       <c r="Y93">
-        <v>933653</v>
+        <v>932512</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>956913</v>
       </c>
       <c r="Y94">
-        <v>1005865</v>
+        <v>980465</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
@@ -7769,7 +7769,7 @@
         <v>875591</v>
       </c>
       <c r="Y95">
-        <v>917884</v>
+        <v>915805</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>929734</v>
       </c>
       <c r="Y96">
-        <v>965555</v>
+        <v>964385</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>897340</v>
       </c>
       <c r="Y97">
-        <v>926215</v>
+        <v>932863</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>931759</v>
       </c>
       <c r="Y98">
-        <v>958538</v>
+        <v>969085</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>904567</v>
       </c>
       <c r="Y99">
-        <v>950369</v>
+        <v>941025</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>873267</v>
       </c>
       <c r="Y100">
-        <v>919135</v>
+        <v>895690</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>934489</v>
       </c>
       <c r="Y101">
-        <v>980994</v>
+        <v>962888</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>566430</v>
       </c>
       <c r="Y102">
-        <v>764171</v>
+        <v>749383</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>564582</v>
       </c>
       <c r="Y103">
-        <v>734834</v>
+        <v>800833</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>576152</v>
       </c>
       <c r="Y104">
-        <v>745690</v>
+        <v>781421</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
@@ -8539,7 +8539,7 @@
         <v>606985</v>
       </c>
       <c r="Y105">
-        <v>782459</v>
+        <v>807606</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>552379</v>
       </c>
       <c r="Y106">
-        <v>712030</v>
+        <v>740140</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>575778</v>
       </c>
       <c r="Y107">
-        <v>679481</v>
+        <v>864718</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>602035</v>
       </c>
       <c r="Y108">
-        <v>764458</v>
+        <v>759600</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
@@ -8847,7 +8847,7 @@
         <v>581628</v>
       </c>
       <c r="Y109">
-        <v>788788</v>
+        <v>813117</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>600337</v>
       </c>
       <c r="Y110">
-        <v>813223</v>
+        <v>791955</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
@@ -9001,7 +9001,7 @@
         <v>576734</v>
       </c>
       <c r="Y111">
-        <v>747574</v>
+        <v>770977</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
@@ -9078,7 +9078,7 @@
         <v>162991</v>
       </c>
       <c r="Y112">
-        <v>179388</v>
+        <v>513217</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
@@ -9155,7 +9155,7 @@
         <v>171803</v>
       </c>
       <c r="Y113">
-        <v>187402</v>
+        <v>449473</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
         <v>186607</v>
       </c>
       <c r="Y114">
-        <v>199892</v>
+        <v>412818</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>224188</v>
       </c>
       <c r="Y115">
-        <v>234082</v>
+        <v>565394</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>222662</v>
       </c>
       <c r="Y116">
-        <v>249341</v>
+        <v>549608</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
@@ -9463,7 +9463,7 @@
         <v>324648</v>
       </c>
       <c r="Y117">
-        <v>371670</v>
+        <v>634691</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>202601</v>
       </c>
       <c r="Y118">
-        <v>217136</v>
+        <v>390277</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
@@ -9617,7 +9617,7 @@
         <v>144439</v>
       </c>
       <c r="Y119">
-        <v>167031</v>
+        <v>443736</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>176792</v>
       </c>
       <c r="Y120">
-        <v>207634</v>
+        <v>380214</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
         <v>135677</v>
       </c>
       <c r="Y121">
-        <v>143704</v>
+        <v>324914</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>893220</v>
       </c>
       <c r="Y122">
-        <v>900907</v>
+        <v>900741</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
@@ -9925,7 +9925,7 @@
         <v>1044394</v>
       </c>
       <c r="Y123">
-        <v>1059437</v>
+        <v>1053044</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
@@ -10002,7 +10002,7 @@
         <v>987692</v>
       </c>
       <c r="Y124">
-        <v>1002336</v>
+        <v>997350</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
         <v>967151</v>
       </c>
       <c r="Y125">
-        <v>981810</v>
+        <v>976141</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
@@ -10156,7 +10156,7 @@
         <v>939306</v>
       </c>
       <c r="Y126">
-        <v>956403</v>
+        <v>946533</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
@@ -10233,7 +10233,7 @@
         <v>994845</v>
       </c>
       <c r="Y127">
-        <v>1012001</v>
+        <v>1005664</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>990506</v>
       </c>
       <c r="Y128">
-        <v>1002490</v>
+        <v>999606</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>985957</v>
       </c>
       <c r="Y129">
-        <v>999785</v>
+        <v>997413</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
         <v>1022204</v>
       </c>
       <c r="Y130">
-        <v>1035508</v>
+        <v>1034925</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>971435</v>
       </c>
       <c r="Y131">
-        <v>987097</v>
+        <v>985419</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>932672</v>
       </c>
       <c r="Y132">
-        <v>1016543</v>
+        <v>975116</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>928864</v>
       </c>
       <c r="Y133">
-        <v>1030506</v>
+        <v>993120</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>931740</v>
       </c>
       <c r="Y134">
-        <v>1002412</v>
+        <v>1001705</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
@@ -10849,7 +10849,7 @@
         <v>958154</v>
       </c>
       <c r="Y135">
-        <v>1030377</v>
+        <v>1022855</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
         <v>948292</v>
       </c>
       <c r="Y136">
-        <v>1019370</v>
+        <v>1006398</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
@@ -11003,7 +11003,7 @@
         <v>943018</v>
       </c>
       <c r="Y137">
-        <v>1037400</v>
+        <v>1011786</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>894115</v>
       </c>
       <c r="Y138">
-        <v>943136</v>
+        <v>943321</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
@@ -11157,7 +11157,7 @@
         <v>936642</v>
       </c>
       <c r="Y139">
-        <v>996792</v>
+        <v>997708</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>871702</v>
       </c>
       <c r="Y140">
-        <v>959702</v>
+        <v>920720</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
         <v>958936</v>
       </c>
       <c r="Y141">
-        <v>1036118</v>
+        <v>1019720</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>607952</v>
       </c>
       <c r="Y142">
-        <v>940094</v>
+        <v>754374</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
@@ -11465,7 +11465,7 @@
         <v>594216</v>
       </c>
       <c r="Y143">
-        <v>772929</v>
+        <v>854911</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>599063</v>
       </c>
       <c r="Y144">
-        <v>805446</v>
+        <v>843184</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
@@ -11619,7 +11619,7 @@
         <v>618479</v>
       </c>
       <c r="Y145">
-        <v>867954</v>
+        <v>896803</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
@@ -11696,7 +11696,7 @@
         <v>590188</v>
       </c>
       <c r="Y146">
-        <v>819907</v>
+        <v>926945</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.3">
@@ -11773,7 +11773,7 @@
         <v>597801</v>
       </c>
       <c r="Y147">
-        <v>852095</v>
+        <v>747536</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>556943</v>
       </c>
       <c r="Y148">
-        <v>799094</v>
+        <v>788733</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.3">
@@ -11927,7 +11927,7 @@
         <v>581956</v>
       </c>
       <c r="Y149">
-        <v>767251</v>
+        <v>824819</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
         <v>596590</v>
       </c>
       <c r="Y150">
-        <v>866390</v>
+        <v>878312</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
@@ -12081,7 +12081,7 @@
         <v>595701</v>
       </c>
       <c r="Y151">
-        <v>803724</v>
+        <v>870643</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>159263</v>
       </c>
       <c r="Y152">
-        <v>180202</v>
+        <v>659135</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
@@ -12235,7 +12235,7 @@
         <v>159350</v>
       </c>
       <c r="Y153">
-        <v>168946</v>
+        <v>432886</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
@@ -12312,7 +12312,7 @@
         <v>240090</v>
       </c>
       <c r="Y154">
-        <v>300560</v>
+        <v>458150</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
@@ -12389,7 +12389,7 @@
         <v>200922</v>
       </c>
       <c r="Y155">
-        <v>202562</v>
+        <v>500054</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
@@ -12466,7 +12466,7 @@
         <v>187148</v>
       </c>
       <c r="Y156">
-        <v>240108</v>
+        <v>647098</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
@@ -12543,7 +12543,7 @@
         <v>154655</v>
       </c>
       <c r="Y157">
-        <v>159683</v>
+        <v>445374</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
@@ -12620,7 +12620,7 @@
         <v>139825</v>
       </c>
       <c r="Y158">
-        <v>155418</v>
+        <v>435147</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>238479</v>
       </c>
       <c r="Y159">
-        <v>248991</v>
+        <v>534463</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>178726</v>
       </c>
       <c r="Y160">
-        <v>198533</v>
+        <v>341936</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
@@ -12851,7 +12851,7 @@
         <v>194382</v>
       </c>
       <c r="Y161">
-        <v>213799</v>
+        <v>416782</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
@@ -12928,7 +12928,7 @@
         <v>1827688</v>
       </c>
       <c r="Y162">
-        <v>1825165</v>
+        <v>1826424</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>1911125</v>
       </c>
       <c r="Y163">
-        <v>1909599</v>
+        <v>1909833</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>1841898</v>
       </c>
       <c r="Y164">
-        <v>1839043</v>
+        <v>1841511</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
@@ -13159,7 +13159,7 @@
         <v>1898005</v>
       </c>
       <c r="Y165">
-        <v>1894074</v>
+        <v>1897848</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
         <v>1892955</v>
       </c>
       <c r="Y166">
-        <v>1891649</v>
+        <v>1894245</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>2050632</v>
       </c>
       <c r="Y167">
-        <v>2048243</v>
+        <v>2048704</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>1961463</v>
       </c>
       <c r="Y168">
-        <v>1960366</v>
+        <v>1960563</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>1848243</v>
       </c>
       <c r="Y169">
-        <v>1844668</v>
+        <v>1847237</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>1891146</v>
       </c>
       <c r="Y170">
-        <v>1888464</v>
+        <v>1889689</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
@@ -13621,7 +13621,7 @@
         <v>1943851</v>
       </c>
       <c r="Y171">
-        <v>1943761</v>
+        <v>1947406</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>1845063</v>
       </c>
       <c r="Y172">
-        <v>1851089</v>
+        <v>1852760</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
@@ -13775,7 +13775,7 @@
         <v>1815450</v>
       </c>
       <c r="Y173">
-        <v>1815881</v>
+        <v>1821642</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>1797005</v>
       </c>
       <c r="Y174">
-        <v>1796979</v>
+        <v>1804165</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
@@ -13929,7 +13929,7 @@
         <v>1817747</v>
       </c>
       <c r="Y175">
-        <v>1815743</v>
+        <v>1821148</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>1754331</v>
       </c>
       <c r="Y176">
-        <v>1745865</v>
+        <v>1750434</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
@@ -14083,7 +14083,7 @@
         <v>1848951</v>
       </c>
       <c r="Y177">
-        <v>1844162</v>
+        <v>1853709</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
@@ -14160,7 +14160,7 @@
         <v>1825397</v>
       </c>
       <c r="Y178">
-        <v>1820523</v>
+        <v>1834554</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
@@ -14237,7 +14237,7 @@
         <v>1719223</v>
       </c>
       <c r="Y179">
-        <v>1707501</v>
+        <v>1716796</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
         <v>1803168</v>
       </c>
       <c r="Y180">
-        <v>1797593</v>
+        <v>1816050</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
@@ -14391,7 +14391,7 @@
         <v>1761875</v>
       </c>
       <c r="Y181">
-        <v>1748123</v>
+        <v>1767178</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>1260116</v>
       </c>
       <c r="Y182">
-        <v>1221678</v>
+        <v>1265724</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>1268495</v>
       </c>
       <c r="Y183">
-        <v>1216478</v>
+        <v>1231892</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1277383</v>
       </c>
       <c r="Y184">
-        <v>1230165</v>
+        <v>1270242</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
@@ -14699,7 +14699,7 @@
         <v>1303716</v>
       </c>
       <c r="Y185">
-        <v>1232865</v>
+        <v>1283240</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>1215336</v>
       </c>
       <c r="Y186">
-        <v>1119384</v>
+        <v>1205669</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
         <v>1192093</v>
       </c>
       <c r="Y187">
-        <v>1144827</v>
+        <v>1181549</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>1168681</v>
       </c>
       <c r="Y188">
-        <v>1153865</v>
+        <v>1195155</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
@@ -15007,7 +15007,7 @@
         <v>1207033</v>
       </c>
       <c r="Y189">
-        <v>1172705</v>
+        <v>1210788</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>1258774</v>
       </c>
       <c r="Y190">
-        <v>1193231</v>
+        <v>1268213</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
@@ -15161,7 +15161,7 @@
         <v>1274664</v>
       </c>
       <c r="Y191">
-        <v>1219430</v>
+        <v>1276196</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>535314</v>
       </c>
       <c r="Y192">
-        <v>499588</v>
+        <v>604732</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
@@ -15315,7 +15315,7 @@
         <v>435542</v>
       </c>
       <c r="Y193">
-        <v>413880</v>
+        <v>490613</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>488468</v>
       </c>
       <c r="Y194">
-        <v>455923</v>
+        <v>509987</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>470235</v>
       </c>
       <c r="Y195">
-        <v>351682</v>
+        <v>486035</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>672435</v>
       </c>
       <c r="Y196">
-        <v>571535</v>
+        <v>726850</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>533315</v>
       </c>
       <c r="Y197">
-        <v>510054</v>
+        <v>539179</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>583034</v>
       </c>
       <c r="Y198">
-        <v>382156</v>
+        <v>627511</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>727343</v>
       </c>
       <c r="Y199">
-        <v>463123</v>
+        <v>513935</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>711796</v>
       </c>
       <c r="Y200">
-        <v>480508</v>
+        <v>582473</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
@@ -15931,7 +15931,7 @@
         <v>405142</v>
       </c>
       <c r="Y201">
-        <v>287793</v>
+        <v>513783</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
@@ -16008,7 +16008,7 @@
         <v>1885135</v>
       </c>
       <c r="Y202">
-        <v>1890672</v>
+        <v>1888913</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
@@ -16085,7 +16085,7 @@
         <v>1936064</v>
       </c>
       <c r="Y203">
-        <v>1941067</v>
+        <v>1941212</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
@@ -16162,7 +16162,7 @@
         <v>1951012</v>
       </c>
       <c r="Y204">
-        <v>1953586</v>
+        <v>1956756</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>2012036</v>
       </c>
       <c r="Y205">
-        <v>2020012</v>
+        <v>2019828</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
@@ -16316,7 +16316,7 @@
         <v>1990262</v>
       </c>
       <c r="Y206">
-        <v>1998229</v>
+        <v>1995496</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
@@ -16393,7 +16393,7 @@
         <v>1977425</v>
       </c>
       <c r="Y207">
-        <v>1985168</v>
+        <v>1983708</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>1970652</v>
       </c>
       <c r="Y208">
-        <v>1978141</v>
+        <v>1978538</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
@@ -16547,7 +16547,7 @@
         <v>1944048</v>
       </c>
       <c r="Y209">
-        <v>1949372</v>
+        <v>1951114</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>1882214</v>
       </c>
       <c r="Y210">
-        <v>1889744</v>
+        <v>1889787</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
@@ -16701,7 +16701,7 @@
         <v>1948884</v>
       </c>
       <c r="Y211">
-        <v>1953818</v>
+        <v>1957162</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>1844619</v>
       </c>
       <c r="Y212">
-        <v>1877521</v>
+        <v>1872807</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
@@ -16855,7 +16855,7 @@
         <v>1844175</v>
       </c>
       <c r="Y213">
-        <v>1874676</v>
+        <v>1884257</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>1766103</v>
       </c>
       <c r="Y214">
-        <v>1798678</v>
+        <v>1799489</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
@@ -17009,7 +17009,7 @@
         <v>1873395</v>
       </c>
       <c r="Y215">
-        <v>1898328</v>
+        <v>1912204</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1861888</v>
       </c>
       <c r="Y216">
-        <v>1893482</v>
+        <v>1908595</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
@@ -17163,7 +17163,7 @@
         <v>1862202</v>
       </c>
       <c r="Y217">
-        <v>1889202</v>
+        <v>1896145</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
@@ -17240,7 +17240,7 @@
         <v>1834610</v>
       </c>
       <c r="Y218">
-        <v>1877231</v>
+        <v>1875970</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
@@ -17317,7 +17317,7 @@
         <v>1887939</v>
       </c>
       <c r="Y219">
-        <v>1909795</v>
+        <v>1921855</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>1775863</v>
       </c>
       <c r="Y220">
-        <v>1799756</v>
+        <v>1816592</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
@@ -17471,7 +17471,7 @@
         <v>1813951</v>
       </c>
       <c r="Y221">
-        <v>1841256</v>
+        <v>1864667</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>1160777</v>
       </c>
       <c r="Y222">
-        <v>1365994</v>
+        <v>1404274</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
@@ -17625,7 +17625,7 @@
         <v>1255477</v>
       </c>
       <c r="Y223">
-        <v>1406222</v>
+        <v>1531365</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1247575</v>
       </c>
       <c r="Y224">
-        <v>1405516</v>
+        <v>1502306</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
@@ -17779,7 +17779,7 @@
         <v>1133099</v>
       </c>
       <c r="Y225">
-        <v>1306550</v>
+        <v>1385104</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
@@ -17856,7 +17856,7 @@
         <v>1188235</v>
       </c>
       <c r="Y226">
-        <v>1352826</v>
+        <v>1365517</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
@@ -17933,7 +17933,7 @@
         <v>1290535</v>
       </c>
       <c r="Y227">
-        <v>1436064</v>
+        <v>1534496</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>1149448</v>
       </c>
       <c r="Y228">
-        <v>1349617</v>
+        <v>1359886</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
@@ -18087,7 +18087,7 @@
         <v>1132174</v>
       </c>
       <c r="Y229">
-        <v>1310328</v>
+        <v>1273814</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
@@ -18164,7 +18164,7 @@
         <v>1152412</v>
       </c>
       <c r="Y230">
-        <v>1310335</v>
+        <v>1396949</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
@@ -18241,7 +18241,7 @@
         <v>1160349</v>
       </c>
       <c r="Y231">
-        <v>1292743</v>
+        <v>1321666</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>408746</v>
       </c>
       <c r="Y232">
-        <v>396535</v>
+        <v>669731</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
@@ -18395,7 +18395,7 @@
         <v>393013</v>
       </c>
       <c r="Y233">
-        <v>419707</v>
+        <v>641713</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
@@ -18472,7 +18472,7 @@
         <v>339669</v>
       </c>
       <c r="Y234">
-        <v>379643</v>
+        <v>659047</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
@@ -18549,7 +18549,7 @@
         <v>255359</v>
       </c>
       <c r="Y235">
-        <v>278192</v>
+        <v>553009</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
@@ -18626,7 +18626,7 @@
         <v>355360</v>
       </c>
       <c r="Y236">
-        <v>381251</v>
+        <v>615217</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
@@ -18703,7 +18703,7 @@
         <v>431700</v>
       </c>
       <c r="Y237">
-        <v>430029</v>
+        <v>645841</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
@@ -18780,7 +18780,7 @@
         <v>405665</v>
       </c>
       <c r="Y238">
-        <v>469379</v>
+        <v>765681</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
@@ -18857,7 +18857,7 @@
         <v>349533</v>
       </c>
       <c r="Y239">
-        <v>359733</v>
+        <v>745632</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>417583</v>
       </c>
       <c r="Y240">
-        <v>412035</v>
+        <v>749028</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
@@ -19011,7 +19011,7 @@
         <v>358615</v>
       </c>
       <c r="Y241">
-        <v>379513</v>
+        <v>636189</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
@@ -19088,7 +19088,7 @@
         <v>1946415</v>
       </c>
       <c r="Y242">
-        <v>1965414</v>
+        <v>1961362</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
@@ -19165,7 +19165,7 @@
         <v>1930213</v>
       </c>
       <c r="Y243">
-        <v>1943787</v>
+        <v>1945883</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>1888967</v>
       </c>
       <c r="Y244">
-        <v>1908485</v>
+        <v>1904267</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
@@ -19319,7 +19319,7 @@
         <v>1931495</v>
       </c>
       <c r="Y245">
-        <v>1949780</v>
+        <v>1940779</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
@@ -19396,7 +19396,7 @@
         <v>1889237</v>
       </c>
       <c r="Y246">
-        <v>1904830</v>
+        <v>1904442</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
@@ -19473,7 +19473,7 @@
         <v>1948266</v>
       </c>
       <c r="Y247">
-        <v>1965614</v>
+        <v>1960697</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
@@ -19550,7 +19550,7 @@
         <v>1914919</v>
       </c>
       <c r="Y248">
-        <v>1931675</v>
+        <v>1928827</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
@@ -19627,7 +19627,7 @@
         <v>1987379</v>
       </c>
       <c r="Y249">
-        <v>2004398</v>
+        <v>2003384</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
@@ -19704,7 +19704,7 @@
         <v>1914115</v>
       </c>
       <c r="Y250">
-        <v>1931614</v>
+        <v>1928361</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
@@ -19781,7 +19781,7 @@
         <v>1935908</v>
       </c>
       <c r="Y251">
-        <v>1951730</v>
+        <v>1947991</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
@@ -19858,7 +19858,7 @@
         <v>1854733</v>
       </c>
       <c r="Y252">
-        <v>1938733</v>
+        <v>1922417</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
@@ -19935,7 +19935,7 @@
         <v>1786932</v>
       </c>
       <c r="Y253">
-        <v>1857112</v>
+        <v>1883334</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
@@ -20012,7 +20012,7 @@
         <v>1844617</v>
       </c>
       <c r="Y254">
-        <v>1914606</v>
+        <v>1927400</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
@@ -20089,7 +20089,7 @@
         <v>1868338</v>
       </c>
       <c r="Y255">
-        <v>1950549</v>
+        <v>1971430</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
@@ -20166,7 +20166,7 @@
         <v>1873364</v>
       </c>
       <c r="Y256">
-        <v>1942922</v>
+        <v>1969272</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
@@ -20243,7 +20243,7 @@
         <v>1840448</v>
       </c>
       <c r="Y257">
-        <v>1955715</v>
+        <v>1920888</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
@@ -20320,7 +20320,7 @@
         <v>1812864</v>
       </c>
       <c r="Y258">
-        <v>1917633</v>
+        <v>1898758</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
@@ -20397,7 +20397,7 @@
         <v>1893161</v>
       </c>
       <c r="Y259">
-        <v>1970243</v>
+        <v>1969943</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
@@ -20474,7 +20474,7 @@
         <v>1875796</v>
       </c>
       <c r="Y260">
-        <v>1933661</v>
+        <v>1980651</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
@@ -20551,7 +20551,7 @@
         <v>1728061</v>
       </c>
       <c r="Y261">
-        <v>1794472</v>
+        <v>1801670</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
@@ -20628,7 +20628,7 @@
         <v>1144058</v>
       </c>
       <c r="Y262">
-        <v>1583164</v>
+        <v>1492456</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
@@ -20705,7 +20705,7 @@
         <v>1191039</v>
       </c>
       <c r="Y263">
-        <v>1511002</v>
+        <v>1600291</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
@@ -20782,7 +20782,7 @@
         <v>1167831</v>
       </c>
       <c r="Y264">
-        <v>1600793</v>
+        <v>1554311</v>
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
@@ -20859,7 +20859,7 @@
         <v>1205621</v>
       </c>
       <c r="Y265">
-        <v>1493258</v>
+        <v>1570505</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
@@ -20936,7 +20936,7 @@
         <v>1189402</v>
       </c>
       <c r="Y266">
-        <v>1512055</v>
+        <v>1528589</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.3">
@@ -21013,7 +21013,7 @@
         <v>1147172</v>
       </c>
       <c r="Y267">
-        <v>1454485</v>
+        <v>1482259</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
@@ -21090,7 +21090,7 @@
         <v>1158464</v>
       </c>
       <c r="Y268">
-        <v>1503354</v>
+        <v>1398614</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
@@ -21167,7 +21167,7 @@
         <v>1176595</v>
       </c>
       <c r="Y269">
-        <v>1603130</v>
+        <v>1589278</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
@@ -21244,7 +21244,7 @@
         <v>1124231</v>
       </c>
       <c r="Y270">
-        <v>1500745</v>
+        <v>1430123</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
@@ -21321,7 +21321,7 @@
         <v>1141675</v>
       </c>
       <c r="Y271">
-        <v>1433698</v>
+        <v>1480009</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
@@ -21398,7 +21398,7 @@
         <v>400615</v>
       </c>
       <c r="Y272">
-        <v>424313</v>
+        <v>1005432</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
@@ -21475,7 +21475,7 @@
         <v>288306</v>
       </c>
       <c r="Y273">
-        <v>314533</v>
+        <v>726547</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
@@ -21552,7 +21552,7 @@
         <v>399776</v>
       </c>
       <c r="Y274">
-        <v>417457</v>
+        <v>761919</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.3">
@@ -21629,7 +21629,7 @@
         <v>326829</v>
       </c>
       <c r="Y275">
-        <v>328485</v>
+        <v>833874</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.3">
@@ -21706,7 +21706,7 @@
         <v>410355</v>
       </c>
       <c r="Y276">
-        <v>467122</v>
+        <v>843916</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
@@ -21783,7 +21783,7 @@
         <v>385021</v>
       </c>
       <c r="Y277">
-        <v>402825</v>
+        <v>785286</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
@@ -21860,7 +21860,7 @@
         <v>391435</v>
       </c>
       <c r="Y278">
-        <v>420137</v>
+        <v>837181</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
@@ -21937,7 +21937,7 @@
         <v>343515</v>
       </c>
       <c r="Y279">
-        <v>345197</v>
+        <v>582474</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
@@ -22014,7 +22014,7 @@
         <v>309168</v>
       </c>
       <c r="Y280">
-        <v>321505</v>
+        <v>580265</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
@@ -22091,7 +22091,7 @@
         <v>357158</v>
       </c>
       <c r="Y281">
-        <v>378829</v>
+        <v>792267</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.3">
@@ -22168,7 +22168,7 @@
         <v>1982801</v>
       </c>
       <c r="Y282">
-        <v>2013847</v>
+        <v>2002399</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
@@ -22245,7 +22245,7 @@
         <v>1967033</v>
       </c>
       <c r="Y283">
-        <v>2001229</v>
+        <v>1990360</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
@@ -22322,7 +22322,7 @@
         <v>1863397</v>
       </c>
       <c r="Y284">
-        <v>1897999</v>
+        <v>1885658</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
@@ -22399,7 +22399,7 @@
         <v>1927694</v>
       </c>
       <c r="Y285">
-        <v>1959339</v>
+        <v>1949879</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
@@ -22476,7 +22476,7 @@
         <v>1975298</v>
       </c>
       <c r="Y286">
-        <v>2004526</v>
+        <v>2003100</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
@@ -22553,7 +22553,7 @@
         <v>1916761</v>
       </c>
       <c r="Y287">
-        <v>1954104</v>
+        <v>1941126</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
@@ -22630,7 +22630,7 @@
         <v>2007930</v>
       </c>
       <c r="Y288">
-        <v>2047298</v>
+        <v>2038016</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
@@ -22707,7 +22707,7 @@
         <v>1941224</v>
       </c>
       <c r="Y289">
-        <v>1973567</v>
+        <v>1970068</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
@@ -22784,7 +22784,7 @@
         <v>1977838</v>
       </c>
       <c r="Y290">
-        <v>1998237</v>
+        <v>1998799</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
@@ -22861,7 +22861,7 @@
         <v>1974143</v>
       </c>
       <c r="Y291">
-        <v>2008588</v>
+        <v>2003256</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
@@ -22938,7 +22938,7 @@
         <v>1838167</v>
       </c>
       <c r="Y292">
-        <v>1966536</v>
+        <v>1977453</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
@@ -23015,7 +23015,7 @@
         <v>1866853</v>
       </c>
       <c r="Y293">
-        <v>1983841</v>
+        <v>1984537</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
@@ -23092,7 +23092,7 @@
         <v>1820140</v>
       </c>
       <c r="Y294">
-        <v>1941011</v>
+        <v>1965961</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
@@ -23169,7 +23169,7 @@
         <v>1855614</v>
       </c>
       <c r="Y295">
-        <v>1992255</v>
+        <v>2015808</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.3">
@@ -23246,7 +23246,7 @@
         <v>1759779</v>
       </c>
       <c r="Y296">
-        <v>1914651</v>
+        <v>1897576</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.3">
@@ -23323,7 +23323,7 @@
         <v>1916000</v>
       </c>
       <c r="Y297">
-        <v>2026362</v>
+        <v>2089545</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
@@ -23400,7 +23400,7 @@
         <v>1814356</v>
       </c>
       <c r="Y298">
-        <v>1938640</v>
+        <v>1971316</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
@@ -23477,7 +23477,7 @@
         <v>1803137</v>
       </c>
       <c r="Y299">
-        <v>1956030</v>
+        <v>1904375</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
@@ -23554,7 +23554,7 @@
         <v>1776130</v>
       </c>
       <c r="Y300">
-        <v>1893317</v>
+        <v>1915316</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
@@ -23631,7 +23631,7 @@
         <v>1899857</v>
       </c>
       <c r="Y301">
-        <v>2077337</v>
+        <v>1998199</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
@@ -23708,7 +23708,7 @@
         <v>1206194</v>
       </c>
       <c r="Y302">
-        <v>1631882</v>
+        <v>1666127</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
@@ -23785,7 +23785,7 @@
         <v>1231150</v>
       </c>
       <c r="Y303">
-        <v>1756817</v>
+        <v>1604119</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
@@ -23862,7 +23862,7 @@
         <v>1198820</v>
       </c>
       <c r="Y304">
-        <v>1757577</v>
+        <v>1546560</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
@@ -23939,7 +23939,7 @@
         <v>1116245</v>
       </c>
       <c r="Y305">
-        <v>1605962</v>
+        <v>1560500</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
@@ -24016,7 +24016,7 @@
         <v>1176451</v>
       </c>
       <c r="Y306">
-        <v>1694629</v>
+        <v>1766422</v>
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
@@ -24093,7 +24093,7 @@
         <v>1202255</v>
       </c>
       <c r="Y307">
-        <v>1798557</v>
+        <v>1622565</v>
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
@@ -24170,7 +24170,7 @@
         <v>1222330</v>
       </c>
       <c r="Y308">
-        <v>1833012</v>
+        <v>1520012</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
@@ -24247,7 +24247,7 @@
         <v>1171299</v>
       </c>
       <c r="Y309">
-        <v>1681739</v>
+        <v>1493673</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
@@ -24324,7 +24324,7 @@
         <v>1120453</v>
       </c>
       <c r="Y310">
-        <v>1654132</v>
+        <v>1458687</v>
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
@@ -24401,7 +24401,7 @@
         <v>1186065</v>
       </c>
       <c r="Y311">
-        <v>1597056</v>
+        <v>1594709</v>
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
@@ -24478,7 +24478,7 @@
         <v>374146</v>
       </c>
       <c r="Y312">
-        <v>396246</v>
+        <v>770186</v>
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
@@ -24555,7 +24555,7 @@
         <v>474110</v>
       </c>
       <c r="Y313">
-        <v>546797</v>
+        <v>884504</v>
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
@@ -24632,7 +24632,7 @@
         <v>344813</v>
       </c>
       <c r="Y314">
-        <v>362019</v>
+        <v>999724</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
@@ -24709,7 +24709,7 @@
         <v>328447</v>
       </c>
       <c r="Y315">
-        <v>347954</v>
+        <v>911044</v>
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
@@ -24786,7 +24786,7 @@
         <v>308172</v>
       </c>
       <c r="Y316">
-        <v>315271</v>
+        <v>807855</v>
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
@@ -24863,7 +24863,7 @@
         <v>355824</v>
       </c>
       <c r="Y317">
-        <v>365596</v>
+        <v>657724</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
@@ -24940,7 +24940,7 @@
         <v>382442</v>
       </c>
       <c r="Y318">
-        <v>391887</v>
+        <v>764312</v>
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
@@ -25017,7 +25017,7 @@
         <v>400356</v>
       </c>
       <c r="Y319">
-        <v>428640</v>
+        <v>954883</v>
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
@@ -25094,7 +25094,7 @@
         <v>299633</v>
       </c>
       <c r="Y320">
-        <v>316894</v>
+        <v>579649</v>
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
@@ -25171,7 +25171,7 @@
         <v>431614</v>
       </c>
       <c r="Y321">
-        <v>487009</v>
+        <v>831470</v>
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
         <v>2668349</v>
       </c>
       <c r="Y322">
-        <v>2664078</v>
+        <v>2667002</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
@@ -25325,7 +25325,7 @@
         <v>2875807</v>
       </c>
       <c r="Y323">
-        <v>2871997</v>
+        <v>2874039</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
@@ -25402,7 +25402,7 @@
         <v>2791772</v>
       </c>
       <c r="Y324">
-        <v>2787803</v>
+        <v>2789885</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
@@ -25479,7 +25479,7 @@
         <v>2808780</v>
       </c>
       <c r="Y325">
-        <v>2809368</v>
+        <v>2812719</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
@@ -25556,7 +25556,7 @@
         <v>2838873</v>
       </c>
       <c r="Y326">
-        <v>2834944</v>
+        <v>2836223</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
@@ -25633,7 +25633,7 @@
         <v>2967061</v>
       </c>
       <c r="Y327">
-        <v>2960948</v>
+        <v>2961399</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
@@ -25710,7 +25710,7 @@
         <v>2987674</v>
       </c>
       <c r="Y328">
-        <v>2985323</v>
+        <v>2987770</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
@@ -25787,7 +25787,7 @@
         <v>2906894</v>
       </c>
       <c r="Y329">
-        <v>2904009</v>
+        <v>2905959</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
@@ -25864,7 +25864,7 @@
         <v>2890239</v>
       </c>
       <c r="Y330">
-        <v>2888261</v>
+        <v>2890163</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
@@ -25941,7 +25941,7 @@
         <v>2889884</v>
       </c>
       <c r="Y331">
-        <v>2888640</v>
+        <v>2891931</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
@@ -26018,7 +26018,7 @@
         <v>2770760</v>
       </c>
       <c r="Y332">
-        <v>2752689</v>
+        <v>2764542</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
@@ -26095,7 +26095,7 @@
         <v>2753373</v>
       </c>
       <c r="Y333">
-        <v>2737780</v>
+        <v>2755198</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
@@ -26172,7 +26172,7 @@
         <v>2728594</v>
       </c>
       <c r="Y334">
-        <v>2708757</v>
+        <v>2722859</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
@@ -26249,7 +26249,7 @@
         <v>2519998</v>
       </c>
       <c r="Y335">
-        <v>2507498</v>
+        <v>2524498</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
@@ -26326,7 +26326,7 @@
         <v>2707405</v>
       </c>
       <c r="Y336">
-        <v>2688883</v>
+        <v>2700558</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
@@ -26403,7 +26403,7 @@
         <v>2591398</v>
       </c>
       <c r="Y337">
-        <v>2577001</v>
+        <v>2588733</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
@@ -26480,7 +26480,7 @@
         <v>2565079</v>
       </c>
       <c r="Y338">
-        <v>2545630</v>
+        <v>2556691</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
@@ -26557,7 +26557,7 @@
         <v>2492181</v>
       </c>
       <c r="Y339">
-        <v>2473884</v>
+        <v>2490575</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
@@ -26634,7 +26634,7 @@
         <v>2656826</v>
       </c>
       <c r="Y340">
-        <v>2634500</v>
+        <v>2650782</v>
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
@@ -26711,7 +26711,7 @@
         <v>2647183</v>
       </c>
       <c r="Y341">
-        <v>2641312</v>
+        <v>2659399</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
@@ -26788,7 +26788,7 @@
         <v>1824471</v>
       </c>
       <c r="Y342">
-        <v>1778631</v>
+        <v>1806867</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
@@ -26865,7 +26865,7 @@
         <v>1853471</v>
       </c>
       <c r="Y343">
-        <v>1748725</v>
+        <v>1824322</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
@@ -26942,7 +26942,7 @@
         <v>1820050</v>
       </c>
       <c r="Y344">
-        <v>1812443</v>
+        <v>1956816</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
@@ -27019,7 +27019,7 @@
         <v>1891486</v>
       </c>
       <c r="Y345">
-        <v>1729437</v>
+        <v>1781267</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
@@ -27096,7 +27096,7 @@
         <v>1753032</v>
       </c>
       <c r="Y346">
-        <v>1730681</v>
+        <v>1812848</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
@@ -27173,7 +27173,7 @@
         <v>1692603</v>
       </c>
       <c r="Y347">
-        <v>1619581</v>
+        <v>1711152</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
@@ -27250,7 +27250,7 @@
         <v>1844885</v>
       </c>
       <c r="Y348">
-        <v>1773818</v>
+        <v>1834875</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
@@ -27327,7 +27327,7 @@
         <v>1824329</v>
       </c>
       <c r="Y349">
-        <v>1757417</v>
+        <v>1840003</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
@@ -27404,7 +27404,7 @@
         <v>1889355</v>
       </c>
       <c r="Y350">
-        <v>1849331</v>
+        <v>1948363</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
@@ -27481,7 +27481,7 @@
         <v>1819519</v>
       </c>
       <c r="Y351">
-        <v>1710498</v>
+        <v>1778895</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
@@ -27558,7 +27558,7 @@
         <v>790055</v>
       </c>
       <c r="Y352">
-        <v>614597</v>
+        <v>859134</v>
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
@@ -27635,7 +27635,7 @@
         <v>610502</v>
       </c>
       <c r="Y353">
-        <v>513449</v>
+        <v>776781</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
@@ -27712,7 +27712,7 @@
         <v>818337</v>
       </c>
       <c r="Y354">
-        <v>792148</v>
+        <v>903468</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
@@ -27789,7 +27789,7 @@
         <v>748986</v>
       </c>
       <c r="Y355">
-        <v>516677</v>
+        <v>799463</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
@@ -27866,7 +27866,7 @@
         <v>724973</v>
       </c>
       <c r="Y356">
-        <v>469846</v>
+        <v>676128</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
@@ -27943,7 +27943,7 @@
         <v>603140</v>
       </c>
       <c r="Y357">
-        <v>604612</v>
+        <v>817118</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
@@ -28020,7 +28020,7 @@
         <v>697776</v>
       </c>
       <c r="Y358">
-        <v>685799</v>
+        <v>786371</v>
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.3">
@@ -28097,7 +28097,7 @@
         <v>891424</v>
       </c>
       <c r="Y359">
-        <v>732397</v>
+        <v>793036</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.3">
@@ -28174,7 +28174,7 @@
         <v>839416</v>
       </c>
       <c r="Y360">
-        <v>489931</v>
+        <v>782241</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.3">
@@ -28251,7 +28251,7 @@
         <v>775534</v>
       </c>
       <c r="Y361">
-        <v>541132</v>
+        <v>666826</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.3">
@@ -28328,7 +28328,7 @@
         <v>2884032</v>
       </c>
       <c r="Y362">
-        <v>2895524</v>
+        <v>2894916</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.3">
@@ -28405,7 +28405,7 @@
         <v>2972073</v>
       </c>
       <c r="Y363">
-        <v>2982930</v>
+        <v>2983649</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.3">
@@ -28482,7 +28482,7 @@
         <v>2868283</v>
       </c>
       <c r="Y364">
-        <v>2883168</v>
+        <v>2875857</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.3">
@@ -28559,7 +28559,7 @@
         <v>2925454</v>
       </c>
       <c r="Y365">
-        <v>2938225</v>
+        <v>2936909</v>
       </c>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.3">
@@ -28636,7 +28636,7 @@
         <v>2859833</v>
       </c>
       <c r="Y366">
-        <v>2871791</v>
+        <v>2867251</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.3">
@@ -28713,7 +28713,7 @@
         <v>2940585</v>
       </c>
       <c r="Y367">
-        <v>2950542</v>
+        <v>2948637</v>
       </c>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.3">
@@ -28790,7 +28790,7 @@
         <v>2905788</v>
       </c>
       <c r="Y368">
-        <v>2914411</v>
+        <v>2915819</v>
       </c>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.3">
@@ -28867,7 +28867,7 @@
         <v>2882032</v>
       </c>
       <c r="Y369">
-        <v>2894253</v>
+        <v>2893659</v>
       </c>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.3">
@@ -28944,7 +28944,7 @@
         <v>2913006</v>
       </c>
       <c r="Y370">
-        <v>2923704</v>
+        <v>2920107</v>
       </c>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.3">
@@ -29021,7 +29021,7 @@
         <v>2976458</v>
       </c>
       <c r="Y371">
-        <v>2988020</v>
+        <v>2983587</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.3">
@@ -29098,7 +29098,7 @@
         <v>2794328</v>
       </c>
       <c r="Y372">
-        <v>2829527</v>
+        <v>2851142</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.3">
@@ -29175,7 +29175,7 @@
         <v>2824007</v>
       </c>
       <c r="Y373">
-        <v>2876843</v>
+        <v>2876645</v>
       </c>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.3">
@@ -29252,7 +29252,7 @@
         <v>2747081</v>
       </c>
       <c r="Y374">
-        <v>2786331</v>
+        <v>2801148</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.3">
@@ -29329,7 +29329,7 @@
         <v>2764643</v>
       </c>
       <c r="Y375">
-        <v>2794108</v>
+        <v>2830541</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.3">
@@ -29406,7 +29406,7 @@
         <v>2761113</v>
       </c>
       <c r="Y376">
-        <v>2817108</v>
+        <v>2802184</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.3">
@@ -29483,7 +29483,7 @@
         <v>2678450</v>
       </c>
       <c r="Y377">
-        <v>2722832</v>
+        <v>2743973</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.3">
@@ -29560,7 +29560,7 @@
         <v>2751188</v>
       </c>
       <c r="Y378">
-        <v>2800609</v>
+        <v>2822827</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.3">
@@ -29637,7 +29637,7 @@
         <v>2676662</v>
       </c>
       <c r="Y379">
-        <v>2714619</v>
+        <v>2739906</v>
       </c>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.3">
@@ -29714,7 +29714,7 @@
         <v>2709344</v>
       </c>
       <c r="Y380">
-        <v>2751984</v>
+        <v>2769907</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.3">
@@ -29791,7 +29791,7 @@
         <v>2667545</v>
       </c>
       <c r="Y381">
-        <v>2723053</v>
+        <v>2720454</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.3">
@@ -29868,7 +29868,7 @@
         <v>1792361</v>
       </c>
       <c r="Y382">
-        <v>2067481</v>
+        <v>2105129</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.3">
@@ -29945,7 +29945,7 @@
         <v>1832191</v>
       </c>
       <c r="Y383">
-        <v>1984319</v>
+        <v>2188279</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.3">
@@ -30022,7 +30022,7 @@
         <v>1803150</v>
       </c>
       <c r="Y384">
-        <v>2059239</v>
+        <v>2162736</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.3">
@@ -30099,7 +30099,7 @@
         <v>1755720</v>
       </c>
       <c r="Y385">
-        <v>1945176</v>
+        <v>1971682</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.3">
@@ -30176,7 +30176,7 @@
         <v>1842080</v>
       </c>
       <c r="Y386">
-        <v>2038934</v>
+        <v>2057409</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.3">
@@ -30253,7 +30253,7 @@
         <v>1799955</v>
       </c>
       <c r="Y387">
-        <v>1972287</v>
+        <v>2128725</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.3">
@@ -30330,7 +30330,7 @@
         <v>1825931</v>
       </c>
       <c r="Y388">
-        <v>2042594</v>
+        <v>2084797</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.3">
@@ -30407,7 +30407,7 @@
         <v>1728210</v>
       </c>
       <c r="Y389">
-        <v>1912622</v>
+        <v>1977509</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.3">
@@ -30484,7 +30484,7 @@
         <v>1705146</v>
       </c>
       <c r="Y390">
-        <v>1916722</v>
+        <v>1999908</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.3">
@@ -30561,7 +30561,7 @@
         <v>1721337</v>
       </c>
       <c r="Y391">
-        <v>1920223</v>
+        <v>1991508</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>510428</v>
       </c>
       <c r="Y392">
-        <v>551160</v>
+        <v>871866</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.3">
@@ -30715,7 +30715,7 @@
         <v>469173</v>
       </c>
       <c r="Y393">
-        <v>502240</v>
+        <v>827624</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.3">
@@ -30792,7 +30792,7 @@
         <v>455784</v>
       </c>
       <c r="Y394">
-        <v>459995</v>
+        <v>950053</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.3">
@@ -30869,7 +30869,7 @@
         <v>529862</v>
       </c>
       <c r="Y395">
-        <v>562196</v>
+        <v>944894</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.3">
@@ -30946,7 +30946,7 @@
         <v>522000</v>
       </c>
       <c r="Y396">
-        <v>544337</v>
+        <v>991878</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.3">
@@ -31023,7 +31023,7 @@
         <v>558852</v>
       </c>
       <c r="Y397">
-        <v>582353</v>
+        <v>914504</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.3">
@@ -31100,7 +31100,7 @@
         <v>513312</v>
       </c>
       <c r="Y398">
-        <v>531975</v>
+        <v>1002302</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.3">
@@ -31177,7 +31177,7 @@
         <v>532977</v>
       </c>
       <c r="Y399">
-        <v>550570</v>
+        <v>1105100</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.3">
@@ -31254,7 +31254,7 @@
         <v>517498</v>
       </c>
       <c r="Y400">
-        <v>532558</v>
+        <v>1015888</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.3">
@@ -31331,7 +31331,7 @@
         <v>473732</v>
       </c>
       <c r="Y401">
-        <v>493085</v>
+        <v>1086061</v>
       </c>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.3">
@@ -31408,7 +31408,7 @@
         <v>2931457</v>
       </c>
       <c r="Y402">
-        <v>2961019</v>
+        <v>2951427</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.3">
@@ -31485,7 +31485,7 @@
         <v>2962243</v>
       </c>
       <c r="Y403">
-        <v>2991942</v>
+        <v>2986920</v>
       </c>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.3">
@@ -31562,7 +31562,7 @@
         <v>2897035</v>
       </c>
       <c r="Y404">
-        <v>2919168</v>
+        <v>2920441</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.3">
@@ -31639,7 +31639,7 @@
         <v>2906335</v>
       </c>
       <c r="Y405">
-        <v>2925975</v>
+        <v>2925415</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.3">
@@ -31716,7 +31716,7 @@
         <v>2817125</v>
       </c>
       <c r="Y406">
-        <v>2837239</v>
+        <v>2839623</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.3">
@@ -31793,7 +31793,7 @@
         <v>2928269</v>
       </c>
       <c r="Y407">
-        <v>2964943</v>
+        <v>2955040</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.3">
@@ -31870,7 +31870,7 @@
         <v>2910339</v>
       </c>
       <c r="Y408">
-        <v>2934390</v>
+        <v>2933655</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.3">
@@ -31947,7 +31947,7 @@
         <v>2902026</v>
       </c>
       <c r="Y409">
-        <v>2934723</v>
+        <v>2927572</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.3">
@@ -32024,7 +32024,7 @@
         <v>2922479</v>
       </c>
       <c r="Y410">
-        <v>2957180</v>
+        <v>2945726</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.3">
@@ -32101,7 +32101,7 @@
         <v>3005208</v>
       </c>
       <c r="Y411">
-        <v>3032997</v>
+        <v>3023112</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.3">
@@ -32178,7 +32178,7 @@
         <v>2693140</v>
       </c>
       <c r="Y412">
-        <v>2791523</v>
+        <v>2832418</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.3">
@@ -32255,7 +32255,7 @@
         <v>2734949</v>
       </c>
       <c r="Y413">
-        <v>2907343</v>
+        <v>2865491</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.3">
@@ -32332,7 +32332,7 @@
         <v>2742247</v>
       </c>
       <c r="Y414">
-        <v>2865147</v>
+        <v>2905008</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.3">
@@ -32409,7 +32409,7 @@
         <v>2715984</v>
       </c>
       <c r="Y415">
-        <v>2869799</v>
+        <v>2854791</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.3">
@@ -32486,7 +32486,7 @@
         <v>2645299</v>
       </c>
       <c r="Y416">
-        <v>2778957</v>
+        <v>2774593</v>
       </c>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.3">
@@ -32563,7 +32563,7 @@
         <v>2736880</v>
       </c>
       <c r="Y417">
-        <v>2884683</v>
+        <v>2883413</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.3">
@@ -32640,7 +32640,7 @@
         <v>2713334</v>
       </c>
       <c r="Y418">
-        <v>2849502</v>
+        <v>2865663</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.3">
@@ -32717,7 +32717,7 @@
         <v>2736996</v>
       </c>
       <c r="Y419">
-        <v>2849475</v>
+        <v>2843008</v>
       </c>
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.3">
@@ -32794,7 +32794,7 @@
         <v>2717029</v>
       </c>
       <c r="Y420">
-        <v>2831992</v>
+        <v>2831192</v>
       </c>
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.3">
@@ -32871,7 +32871,7 @@
         <v>2773988</v>
       </c>
       <c r="Y421">
-        <v>2936025</v>
+        <v>2920578</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.3">
@@ -32948,7 +32948,7 @@
         <v>1850835</v>
       </c>
       <c r="Y422">
-        <v>2410809</v>
+        <v>2273342</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.3">
@@ -33025,7 +33025,7 @@
         <v>1786005</v>
       </c>
       <c r="Y423">
-        <v>2359662</v>
+        <v>2329115</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.3">
@@ -33102,7 +33102,7 @@
         <v>1779153</v>
       </c>
       <c r="Y424">
-        <v>2291048</v>
+        <v>2246796</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.3">
@@ -33179,7 +33179,7 @@
         <v>1754168</v>
       </c>
       <c r="Y425">
-        <v>2358977</v>
+        <v>2141689</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.3">
@@ -33256,7 +33256,7 @@
         <v>1697136</v>
       </c>
       <c r="Y426">
-        <v>2180218</v>
+        <v>2195368</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.3">
@@ -33333,7 +33333,7 @@
         <v>1770774</v>
       </c>
       <c r="Y427">
-        <v>2347877</v>
+        <v>2130942</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.3">
@@ -33410,7 +33410,7 @@
         <v>1824446</v>
       </c>
       <c r="Y428">
-        <v>2293518</v>
+        <v>2419718</v>
       </c>
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.3">
@@ -33487,7 +33487,7 @@
         <v>1779139</v>
       </c>
       <c r="Y429">
-        <v>2350300</v>
+        <v>2245500</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.3">
@@ -33564,7 +33564,7 @@
         <v>1722239</v>
       </c>
       <c r="Y430">
-        <v>2320058</v>
+        <v>2153565</v>
       </c>
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.3">
@@ -33641,7 +33641,7 @@
         <v>1756563</v>
       </c>
       <c r="Y431">
-        <v>2202313</v>
+        <v>2225278</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.3">
@@ -33718,7 +33718,7 @@
         <v>526458</v>
       </c>
       <c r="Y432">
-        <v>539057</v>
+        <v>1116337</v>
       </c>
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.3">
@@ -33795,7 +33795,7 @@
         <v>450442</v>
       </c>
       <c r="Y433">
-        <v>463737</v>
+        <v>901654</v>
       </c>
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.3">
@@ -33872,7 +33872,7 @@
         <v>386989</v>
       </c>
       <c r="Y434">
-        <v>389954</v>
+        <v>861862</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.3">
@@ -33949,7 +33949,7 @@
         <v>597510</v>
       </c>
       <c r="Y435">
-        <v>608087</v>
+        <v>1276196</v>
       </c>
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.3">
@@ -34026,7 +34026,7 @@
         <v>549188</v>
       </c>
       <c r="Y436">
-        <v>581842</v>
+        <v>985322</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.3">
@@ -34103,7 +34103,7 @@
         <v>490887</v>
       </c>
       <c r="Y437">
-        <v>518027</v>
+        <v>986286</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.3">
@@ -34180,7 +34180,7 @@
         <v>456340</v>
       </c>
       <c r="Y438">
-        <v>492313</v>
+        <v>846459</v>
       </c>
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.3">
@@ -34257,7 +34257,7 @@
         <v>655027</v>
       </c>
       <c r="Y439">
-        <v>676380</v>
+        <v>1018595</v>
       </c>
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.3">
@@ -34334,7 +34334,7 @@
         <v>510946</v>
       </c>
       <c r="Y440">
-        <v>519935</v>
+        <v>1244681</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.3">
@@ -34411,7 +34411,7 @@
         <v>530774</v>
       </c>
       <c r="Y441">
-        <v>555745</v>
+        <v>930231</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.3">
@@ -34488,7 +34488,7 @@
         <v>2909450</v>
       </c>
       <c r="Y442">
-        <v>2959956</v>
+        <v>2948908</v>
       </c>
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.3">
@@ -34565,7 +34565,7 @@
         <v>2906594</v>
       </c>
       <c r="Y443">
-        <v>2957084</v>
+        <v>2949922</v>
       </c>
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.3">
@@ -34642,7 +34642,7 @@
         <v>2915705</v>
       </c>
       <c r="Y444">
-        <v>2969501</v>
+        <v>2942049</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.3">
@@ -34719,7 +34719,7 @@
         <v>2897947</v>
       </c>
       <c r="Y445">
-        <v>2943634</v>
+        <v>2929051</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.3">
@@ -34796,7 +34796,7 @@
         <v>2996494</v>
       </c>
       <c r="Y446">
-        <v>3052707</v>
+        <v>3029877</v>
       </c>
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.3">
@@ -34873,7 +34873,7 @@
         <v>2950789</v>
       </c>
       <c r="Y447">
-        <v>2998204</v>
+        <v>2995586</v>
       </c>
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.3">
@@ -34950,7 +34950,7 @@
         <v>2980631</v>
       </c>
       <c r="Y448">
-        <v>3030810</v>
+        <v>3026473</v>
       </c>
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.3">
@@ -35027,7 +35027,7 @@
         <v>2927837</v>
       </c>
       <c r="Y449">
-        <v>2970481</v>
+        <v>2966567</v>
       </c>
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.3">
@@ -35104,7 +35104,7 @@
         <v>2934141</v>
       </c>
       <c r="Y450">
-        <v>2973594</v>
+        <v>2975534</v>
       </c>
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.3">
@@ -35181,7 +35181,7 @@
         <v>2911505</v>
       </c>
       <c r="Y451">
-        <v>2957830</v>
+        <v>2951271</v>
       </c>
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.3">
@@ -35258,7 +35258,7 @@
         <v>2832512</v>
       </c>
       <c r="Y452">
-        <v>3043164</v>
+        <v>3036897</v>
       </c>
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.3">
@@ -35335,7 +35335,7 @@
         <v>2705959</v>
       </c>
       <c r="Y453">
-        <v>2948818</v>
+        <v>2913824</v>
       </c>
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.3">
@@ -35412,7 +35412,7 @@
         <v>2707878</v>
       </c>
       <c r="Y454">
-        <v>2965878</v>
+        <v>2870680</v>
       </c>
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.3">
@@ -35489,7 +35489,7 @@
         <v>2818448</v>
       </c>
       <c r="Y455">
-        <v>2986308</v>
+        <v>3010839</v>
       </c>
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.3">
@@ -35566,7 +35566,7 @@
         <v>2704920</v>
       </c>
       <c r="Y456">
-        <v>2923721</v>
+        <v>2888604</v>
       </c>
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.3">
@@ -35720,7 +35720,7 @@
         <v>2767504</v>
       </c>
       <c r="Y458">
-        <v>2923767</v>
+        <v>3028344</v>
       </c>
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.3">
@@ -35797,7 +35797,7 @@
         <v>2697206</v>
       </c>
       <c r="Y459">
-        <v>2878290</v>
+        <v>2901482</v>
       </c>
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.3">
@@ -35874,7 +35874,7 @@
         <v>2801211</v>
       </c>
       <c r="Y460">
-        <v>3061982</v>
+        <v>3005614</v>
       </c>
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.3">
@@ -35951,7 +35951,7 @@
         <v>2769600</v>
       </c>
       <c r="Y461">
-        <v>3014368</v>
+        <v>3008487</v>
       </c>
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.3">
@@ -36028,7 +36028,7 @@
         <v>1757621</v>
       </c>
       <c r="Y462">
-        <v>2595534</v>
+        <v>2266754</v>
       </c>
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.3">
@@ -36105,7 +36105,7 @@
         <v>1693233</v>
       </c>
       <c r="Y463">
-        <v>2267862</v>
+        <v>2070684</v>
       </c>
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.3">
@@ -36182,7 +36182,7 @@
         <v>1769924</v>
       </c>
       <c r="Y464">
-        <v>2700843</v>
+        <v>2252444</v>
       </c>
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.3">
@@ -36259,7 +36259,7 @@
         <v>1739448</v>
       </c>
       <c r="Y465">
-        <v>2707746</v>
+        <v>2231452</v>
       </c>
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.3">
@@ -36336,7 +36336,7 @@
         <v>1768839</v>
       </c>
       <c r="Y466">
-        <v>2734373</v>
+        <v>2103398</v>
       </c>
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.3">
@@ -36413,7 +36413,7 @@
         <v>1751668</v>
       </c>
       <c r="Y467">
-        <v>2553634</v>
+        <v>2262036</v>
       </c>
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.3">
@@ -36490,7 +36490,7 @@
         <v>1893530</v>
       </c>
       <c r="Y468">
-        <v>2694487</v>
+        <v>2373348</v>
       </c>
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.3">
@@ -36567,7 +36567,7 @@
         <v>1733027</v>
       </c>
       <c r="Y469">
-        <v>2589024</v>
+        <v>2122346</v>
       </c>
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.3">
@@ -36644,7 +36644,7 @@
         <v>1792920</v>
       </c>
       <c r="Y470">
-        <v>2565210</v>
+        <v>2251477</v>
       </c>
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.3">
@@ -36721,7 +36721,7 @@
         <v>1708362</v>
       </c>
       <c r="Y471">
-        <v>2552812</v>
+        <v>2329610</v>
       </c>
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.3">
@@ -36798,7 +36798,7 @@
         <v>481806</v>
       </c>
       <c r="Y472">
-        <v>499698</v>
+        <v>903430</v>
       </c>
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.3">
@@ -36875,7 +36875,7 @@
         <v>469882</v>
       </c>
       <c r="Y473">
-        <v>483871</v>
+        <v>838124</v>
       </c>
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.3">
@@ -36952,7 +36952,7 @@
         <v>610931</v>
       </c>
       <c r="Y474">
-        <v>640060</v>
+        <v>997902</v>
       </c>
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.3">
@@ -37029,7 +37029,7 @@
         <v>524405</v>
       </c>
       <c r="Y475">
-        <v>534750</v>
+        <v>962415</v>
       </c>
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.3">
@@ -37106,7 +37106,7 @@
         <v>593080</v>
       </c>
       <c r="Y476">
-        <v>616673</v>
+        <v>1170967</v>
       </c>
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.3">
@@ -37183,7 +37183,7 @@
         <v>585517</v>
       </c>
       <c r="Y477">
-        <v>616281</v>
+        <v>1101611</v>
       </c>
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.3">
@@ -37260,7 +37260,7 @@
         <v>516779</v>
       </c>
       <c r="Y478">
-        <v>534104</v>
+        <v>1151748</v>
       </c>
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.3">
@@ -37337,7 +37337,7 @@
         <v>431656</v>
       </c>
       <c r="Y479">
-        <v>451456</v>
+        <v>1179948</v>
       </c>
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.3">
@@ -37414,7 +37414,7 @@
         <v>648277</v>
       </c>
       <c r="Y480">
-        <v>707030</v>
+        <v>1038641</v>
       </c>
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.3">
@@ -37491,7 +37491,7 @@
         <v>572673</v>
       </c>
       <c r="Y481">
-        <v>596160</v>
+        <v>1213812</v>
       </c>
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.3">
@@ -37568,7 +37568,7 @@
         <v>5028103</v>
       </c>
       <c r="Y482">
-        <v>5027777</v>
+        <v>5027685</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.3">
@@ -37645,7 +37645,7 @@
         <v>4741381</v>
       </c>
       <c r="Y483">
-        <v>4743870</v>
+        <v>4742798</v>
       </c>
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.3">
@@ -37722,7 +37722,7 @@
         <v>4889347</v>
       </c>
       <c r="Y484">
-        <v>4890485</v>
+        <v>4893241</v>
       </c>
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.3">
@@ -37799,7 +37799,7 @@
         <v>4876869</v>
       </c>
       <c r="Y485">
-        <v>4876494</v>
+        <v>4877860</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.3">
@@ -37876,7 +37876,7 @@
         <v>4876622</v>
       </c>
       <c r="Y486">
-        <v>4875113</v>
+        <v>4875677</v>
       </c>
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.3">
@@ -37953,7 +37953,7 @@
         <v>4917501</v>
       </c>
       <c r="Y487">
-        <v>4919415</v>
+        <v>4919614</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.3">
@@ -38030,7 +38030,7 @@
         <v>4868776</v>
       </c>
       <c r="Y488">
-        <v>4866262</v>
+        <v>4867582</v>
       </c>
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.3">
@@ -38107,7 +38107,7 @@
         <v>4719545</v>
       </c>
       <c r="Y489">
-        <v>4715537</v>
+        <v>4719440</v>
       </c>
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.3">
@@ -38184,7 +38184,7 @@
         <v>4930344</v>
       </c>
       <c r="Y490">
-        <v>4930171</v>
+        <v>4932376</v>
       </c>
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.3">
@@ -38261,7 +38261,7 @@
         <v>4913404</v>
       </c>
       <c r="Y491">
-        <v>4912211</v>
+        <v>4916695</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.3">
@@ -38338,7 +38338,7 @@
         <v>4490572</v>
       </c>
       <c r="Y492">
-        <v>4459850</v>
+        <v>4490172</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.3">
@@ -38415,7 +38415,7 @@
         <v>4619016</v>
       </c>
       <c r="Y493">
-        <v>4602447</v>
+        <v>4621969</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.3">
@@ -38492,7 +38492,7 @@
         <v>4615664</v>
       </c>
       <c r="Y494">
-        <v>4598571</v>
+        <v>4616618</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.3">
@@ -38569,7 +38569,7 @@
         <v>4622864</v>
       </c>
       <c r="Y495">
-        <v>4604330</v>
+        <v>4620313</v>
       </c>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.3">
@@ -38646,7 +38646,7 @@
         <v>4532350</v>
       </c>
       <c r="Y496">
-        <v>4503601</v>
+        <v>4524723</v>
       </c>
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.3">
@@ -38723,7 +38723,7 @@
         <v>4229551</v>
       </c>
       <c r="Y497">
-        <v>4201254</v>
+        <v>4217215</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.3">
@@ -38800,7 +38800,7 @@
         <v>4639764</v>
       </c>
       <c r="Y498">
-        <v>4634714</v>
+        <v>4646881</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.3">
@@ -38877,7 +38877,7 @@
         <v>4597387</v>
       </c>
       <c r="Y499">
-        <v>4567052</v>
+        <v>4592589</v>
       </c>
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.3">
@@ -38954,7 +38954,7 @@
         <v>4596760</v>
       </c>
       <c r="Y500">
-        <v>4582538</v>
+        <v>4613965</v>
       </c>
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.3">
@@ -39031,7 +39031,7 @@
         <v>4445322</v>
       </c>
       <c r="Y501">
-        <v>4448562</v>
+        <v>4469463</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.3">
@@ -39108,7 +39108,7 @@
         <v>2926519</v>
       </c>
       <c r="Y502">
-        <v>2954458</v>
+        <v>3025407</v>
       </c>
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.3">
@@ -39185,7 +39185,7 @@
         <v>3081529</v>
       </c>
       <c r="Y503">
-        <v>2934333</v>
+        <v>3046428</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.3">
@@ -39262,7 +39262,7 @@
         <v>2959001</v>
       </c>
       <c r="Y504">
-        <v>2845594</v>
+        <v>2940886</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.3">
@@ -39339,7 +39339,7 @@
         <v>3026994</v>
       </c>
       <c r="Y505">
-        <v>2866895</v>
+        <v>3013635</v>
       </c>
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.3">
@@ -39416,7 +39416,7 @@
         <v>2924355</v>
       </c>
       <c r="Y506">
-        <v>2929399</v>
+        <v>3029960</v>
       </c>
     </row>
     <row r="507" spans="1:25" x14ac:dyDescent="0.3">
@@ -39493,7 +39493,7 @@
         <v>3034541</v>
       </c>
       <c r="Y507">
-        <v>2985317</v>
+        <v>3073129</v>
       </c>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.3">
@@ -39570,7 +39570,7 @@
         <v>3065465</v>
       </c>
       <c r="Y508">
-        <v>2982356</v>
+        <v>3062993</v>
       </c>
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.3">
@@ -39647,7 +39647,7 @@
         <v>2928767</v>
       </c>
       <c r="Y509">
-        <v>2792674</v>
+        <v>2982377</v>
       </c>
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.3">
@@ -39724,7 +39724,7 @@
         <v>2914612</v>
       </c>
       <c r="Y510">
-        <v>2671610</v>
+        <v>2888924</v>
       </c>
     </row>
     <row r="511" spans="1:25" x14ac:dyDescent="0.3">
@@ -39801,7 +39801,7 @@
         <v>3031789</v>
       </c>
       <c r="Y511">
-        <v>2935084</v>
+        <v>3080272</v>
       </c>
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.3">
@@ -39878,7 +39878,7 @@
         <v>1076129</v>
       </c>
       <c r="Y512">
-        <v>820413</v>
+        <v>1087885</v>
       </c>
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.3">
@@ -39955,7 +39955,7 @@
         <v>1172627</v>
       </c>
       <c r="Y513">
-        <v>1005534</v>
+        <v>1391659</v>
       </c>
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.3">
@@ -40032,7 +40032,7 @@
         <v>1239383</v>
       </c>
       <c r="Y514">
-        <v>900036</v>
+        <v>1174377</v>
       </c>
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.3">
@@ -40109,7 +40109,7 @@
         <v>1007251</v>
       </c>
       <c r="Y515">
-        <v>675172</v>
+        <v>1024265</v>
       </c>
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.3">
@@ -40186,7 +40186,7 @@
         <v>1409355</v>
       </c>
       <c r="Y516">
-        <v>1012111</v>
+        <v>1200320</v>
       </c>
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.3">
@@ -40263,7 +40263,7 @@
         <v>1334319</v>
       </c>
       <c r="Y517">
-        <v>1125815</v>
+        <v>1364474</v>
       </c>
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.3">
@@ -40340,7 +40340,7 @@
         <v>1099649</v>
       </c>
       <c r="Y518">
-        <v>850266</v>
+        <v>1211663</v>
       </c>
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.3">
@@ -40417,7 +40417,7 @@
         <v>1175129</v>
       </c>
       <c r="Y519">
-        <v>887751</v>
+        <v>1110847</v>
       </c>
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.3">
@@ -40494,7 +40494,7 @@
         <v>1262499</v>
       </c>
       <c r="Y520">
-        <v>1011783</v>
+        <v>1259712</v>
       </c>
     </row>
     <row r="521" spans="1:25" x14ac:dyDescent="0.3">
@@ -40571,7 +40571,7 @@
         <v>1085410</v>
       </c>
       <c r="Y521">
-        <v>1138007</v>
+        <v>1253768</v>
       </c>
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.3">
@@ -40648,7 +40648,7 @@
         <v>4893207</v>
       </c>
       <c r="Y522">
-        <v>4911566</v>
+        <v>4914253</v>
       </c>
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.3">
@@ -40725,7 +40725,7 @@
         <v>4928340</v>
       </c>
       <c r="Y523">
-        <v>4948068</v>
+        <v>4948316</v>
       </c>
     </row>
     <row r="524" spans="1:25" x14ac:dyDescent="0.3">
@@ -40802,7 +40802,7 @@
         <v>4910874</v>
       </c>
       <c r="Y524">
-        <v>4925005</v>
+        <v>4925728</v>
       </c>
     </row>
     <row r="525" spans="1:25" x14ac:dyDescent="0.3">
@@ -40879,7 +40879,7 @@
         <v>4887690</v>
       </c>
       <c r="Y525">
-        <v>4901130</v>
+        <v>4901795</v>
       </c>
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.3">
@@ -40956,7 +40956,7 @@
         <v>4890419</v>
       </c>
       <c r="Y526">
-        <v>4903339</v>
+        <v>4907825</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.3">
@@ -41033,7 +41033,7 @@
         <v>4843702</v>
       </c>
       <c r="Y527">
-        <v>4854383</v>
+        <v>4859853</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.3">
@@ -41110,7 +41110,7 @@
         <v>4928729</v>
       </c>
       <c r="Y528">
-        <v>4944857</v>
+        <v>4950215</v>
       </c>
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.3">
@@ -41187,7 +41187,7 @@
         <v>4746812</v>
       </c>
       <c r="Y529">
-        <v>4759125</v>
+        <v>4764937</v>
       </c>
     </row>
     <row r="530" spans="1:25" x14ac:dyDescent="0.3">
@@ -41264,7 +41264,7 @@
         <v>4993894</v>
       </c>
       <c r="Y530">
-        <v>5006474</v>
+        <v>5012340</v>
       </c>
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.3">
@@ -41341,7 +41341,7 @@
         <v>4911510</v>
       </c>
       <c r="Y531">
-        <v>4921727</v>
+        <v>4927611</v>
       </c>
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.3">
@@ -41418,7 +41418,7 @@
         <v>4530829</v>
       </c>
       <c r="Y532">
-        <v>4621652</v>
+        <v>4620388</v>
       </c>
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.3">
@@ -41495,7 +41495,7 @@
         <v>4505703</v>
       </c>
       <c r="Y533">
-        <v>4593687</v>
+        <v>4614941</v>
       </c>
     </row>
     <row r="534" spans="1:25" x14ac:dyDescent="0.3">
@@ -41572,7 +41572,7 @@
         <v>4593476</v>
       </c>
       <c r="Y534">
-        <v>4670557</v>
+        <v>4710076</v>
       </c>
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.3">
@@ -41649,7 +41649,7 @@
         <v>4488298</v>
       </c>
       <c r="Y535">
-        <v>4564132</v>
+        <v>4600865</v>
       </c>
     </row>
     <row r="536" spans="1:25" x14ac:dyDescent="0.3">
@@ -41726,7 +41726,7 @@
         <v>4605509</v>
       </c>
       <c r="Y536">
-        <v>4710697</v>
+        <v>4715719</v>
       </c>
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.3">
@@ -41803,7 +41803,7 @@
         <v>4524892</v>
       </c>
       <c r="Y537">
-        <v>4582734</v>
+        <v>4611653</v>
       </c>
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.3">
@@ -41880,7 +41880,7 @@
         <v>4642395</v>
       </c>
       <c r="Y538">
-        <v>4723203</v>
+        <v>4709051</v>
       </c>
     </row>
     <row r="539" spans="1:25" x14ac:dyDescent="0.3">
@@ -41957,7 +41957,7 @@
         <v>4477600</v>
       </c>
       <c r="Y539">
-        <v>4541777</v>
+        <v>4559833</v>
       </c>
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.3">
@@ -42034,7 +42034,7 @@
         <v>4514793</v>
       </c>
       <c r="Y540">
-        <v>4554685</v>
+        <v>4612932</v>
       </c>
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.3">
@@ -42111,7 +42111,7 @@
         <v>4472195</v>
       </c>
       <c r="Y541">
-        <v>4558181</v>
+        <v>4565338</v>
       </c>
     </row>
     <row r="542" spans="1:25" x14ac:dyDescent="0.3">
@@ -42188,7 +42188,7 @@
         <v>2984759</v>
       </c>
       <c r="Y542">
-        <v>3426967</v>
+        <v>3313869</v>
       </c>
     </row>
     <row r="543" spans="1:25" x14ac:dyDescent="0.3">
@@ -42265,7 +42265,7 @@
         <v>2869972</v>
       </c>
       <c r="Y543">
-        <v>3175909</v>
+        <v>3145389</v>
       </c>
     </row>
     <row r="544" spans="1:25" x14ac:dyDescent="0.3">
@@ -42342,7 +42342,7 @@
         <v>2987076</v>
       </c>
       <c r="Y544">
-        <v>3340607</v>
+        <v>3444070</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.3">
@@ -42419,7 +42419,7 @@
         <v>2906295</v>
       </c>
       <c r="Y545">
-        <v>3445502</v>
+        <v>3329389</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.3">
@@ -42496,7 +42496,7 @@
         <v>2828067</v>
       </c>
       <c r="Y546">
-        <v>3242511</v>
+        <v>3283270</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.3">
@@ -42573,7 +42573,7 @@
         <v>2923685</v>
       </c>
       <c r="Y547">
-        <v>3291572</v>
+        <v>3361715</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.3">
@@ -42650,7 +42650,7 @@
         <v>2945828</v>
       </c>
       <c r="Y548">
-        <v>3242157</v>
+        <v>3305429</v>
       </c>
     </row>
     <row r="549" spans="1:25" x14ac:dyDescent="0.3">
@@ -42727,7 +42727,7 @@
         <v>2930737</v>
       </c>
       <c r="Y549">
-        <v>3309965</v>
+        <v>3416392</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.3">
@@ -42804,7 +42804,7 @@
         <v>2858482</v>
       </c>
       <c r="Y550">
-        <v>3210171</v>
+        <v>3245177</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.3">
@@ -42881,7 +42881,7 @@
         <v>2863306</v>
       </c>
       <c r="Y551">
-        <v>3278879</v>
+        <v>3304030</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.3">
@@ -42958,7 +42958,7 @@
         <v>802801</v>
       </c>
       <c r="Y552">
-        <v>827077</v>
+        <v>1331439</v>
       </c>
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.3">
@@ -43035,7 +43035,7 @@
         <v>972733</v>
       </c>
       <c r="Y553">
-        <v>1010308</v>
+        <v>1491115</v>
       </c>
     </row>
     <row r="554" spans="1:25" x14ac:dyDescent="0.3">
@@ -43112,7 +43112,7 @@
         <v>777124</v>
       </c>
       <c r="Y554">
-        <v>790831</v>
+        <v>1448646</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.3">
@@ -43189,7 +43189,7 @@
         <v>953373</v>
       </c>
       <c r="Y555">
-        <v>974510</v>
+        <v>1459406</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.3">
@@ -43266,7 +43266,7 @@
         <v>990550</v>
       </c>
       <c r="Y556">
-        <v>1016635</v>
+        <v>1634781</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.3">
@@ -43343,7 +43343,7 @@
         <v>1008315</v>
       </c>
       <c r="Y557">
-        <v>1019748</v>
+        <v>1633341</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.3">
@@ -43420,7 +43420,7 @@
         <v>931767</v>
       </c>
       <c r="Y558">
-        <v>961864</v>
+        <v>1387646</v>
       </c>
     </row>
     <row r="559" spans="1:25" x14ac:dyDescent="0.3">
@@ -43497,7 +43497,7 @@
         <v>996556</v>
       </c>
       <c r="Y559">
-        <v>1023143</v>
+        <v>1482570</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.3">
@@ -43574,7 +43574,7 @@
         <v>891018</v>
       </c>
       <c r="Y560">
-        <v>903606</v>
+        <v>1357757</v>
       </c>
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.3">
@@ -43651,7 +43651,7 @@
         <v>817577</v>
       </c>
       <c r="Y561">
-        <v>829741</v>
+        <v>1516769</v>
       </c>
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.3">
@@ -43728,7 +43728,7 @@
         <v>4951986</v>
       </c>
       <c r="Y562">
-        <v>5010576</v>
+        <v>4999335</v>
       </c>
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.3">
@@ -43805,7 +43805,7 @@
         <v>4937754</v>
       </c>
       <c r="Y563">
-        <v>4979386</v>
+        <v>4982247</v>
       </c>
     </row>
     <row r="564" spans="1:25" x14ac:dyDescent="0.3">
@@ -43882,7 +43882,7 @@
         <v>4919047</v>
       </c>
       <c r="Y564">
-        <v>4965042</v>
+        <v>4967668</v>
       </c>
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.3">
@@ -43959,7 +43959,7 @@
         <v>4824973</v>
       </c>
       <c r="Y565">
-        <v>4869544</v>
+        <v>4871081</v>
       </c>
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.3">
@@ -44036,7 +44036,7 @@
         <v>4797286</v>
       </c>
       <c r="Y566">
-        <v>4837877</v>
+        <v>4840361</v>
       </c>
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.3">
@@ -44113,7 +44113,7 @@
         <v>4949339</v>
       </c>
       <c r="Y567">
-        <v>4999241</v>
+        <v>4992294</v>
       </c>
     </row>
     <row r="568" spans="1:25" x14ac:dyDescent="0.3">
@@ -44190,7 +44190,7 @@
         <v>4958932</v>
       </c>
       <c r="Y568">
-        <v>5006515</v>
+        <v>4999094</v>
       </c>
     </row>
     <row r="569" spans="1:25" x14ac:dyDescent="0.3">
@@ -44267,7 +44267,7 @@
         <v>4939664</v>
       </c>
       <c r="Y569">
-        <v>4989118</v>
+        <v>4982937</v>
       </c>
     </row>
     <row r="570" spans="1:25" x14ac:dyDescent="0.3">
@@ -44344,7 +44344,7 @@
         <v>4918329</v>
       </c>
       <c r="Y570">
-        <v>4953973</v>
+        <v>4958810</v>
       </c>
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.3">
@@ -44421,7 +44421,7 @@
         <v>4917717</v>
       </c>
       <c r="Y571">
-        <v>4976332</v>
+        <v>4961079</v>
       </c>
     </row>
     <row r="572" spans="1:25" x14ac:dyDescent="0.3">
@@ -44498,7 +44498,7 @@
         <v>4550152</v>
       </c>
       <c r="Y572">
-        <v>4791675</v>
+        <v>4818713</v>
       </c>
     </row>
     <row r="573" spans="1:25" x14ac:dyDescent="0.3">
@@ -44575,7 +44575,7 @@
         <v>4596871</v>
       </c>
       <c r="Y573">
-        <v>4811052</v>
+        <v>4860692</v>
       </c>
     </row>
     <row r="574" spans="1:25" x14ac:dyDescent="0.3">
@@ -44652,7 +44652,7 @@
         <v>4571401</v>
       </c>
       <c r="Y574">
-        <v>4761447</v>
+        <v>4847576</v>
       </c>
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.3">
@@ -44729,7 +44729,7 @@
         <v>4530186</v>
       </c>
       <c r="Y575">
-        <v>4735921</v>
+        <v>4770172</v>
       </c>
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.3">
@@ -44806,7 +44806,7 @@
         <v>4510322</v>
       </c>
       <c r="Y576">
-        <v>4761730</v>
+        <v>4817463</v>
       </c>
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.3">
@@ -44883,7 +44883,7 @@
         <v>4465425</v>
       </c>
       <c r="Y577">
-        <v>4663111</v>
+        <v>4664545</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.3">
@@ -44960,7 +44960,7 @@
         <v>4629616</v>
       </c>
       <c r="Y578">
-        <v>4903294</v>
+        <v>4854531</v>
       </c>
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.3">
@@ -45037,7 +45037,7 @@
         <v>4722333</v>
       </c>
       <c r="Y579">
-        <v>4926415</v>
+        <v>5015230</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.3">
@@ -45114,7 +45114,7 @@
         <v>4681577</v>
       </c>
       <c r="Y580">
-        <v>4870296</v>
+        <v>4854408</v>
       </c>
     </row>
     <row r="581" spans="1:25" x14ac:dyDescent="0.3">
@@ -45191,7 +45191,7 @@
         <v>4579264</v>
       </c>
       <c r="Y581">
-        <v>4752046</v>
+        <v>4831369</v>
       </c>
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.3">
@@ -45268,7 +45268,7 @@
         <v>2878890</v>
       </c>
       <c r="Y582">
-        <v>3758103</v>
+        <v>3570686</v>
       </c>
     </row>
     <row r="583" spans="1:25" x14ac:dyDescent="0.3">
@@ -45345,7 +45345,7 @@
         <v>2912910</v>
       </c>
       <c r="Y583">
-        <v>4086472</v>
+        <v>3447802</v>
       </c>
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.3">
@@ -45422,7 +45422,7 @@
         <v>2880459</v>
       </c>
       <c r="Y584">
-        <v>3947454</v>
+        <v>3559736</v>
       </c>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.3">
@@ -45499,7 +45499,7 @@
         <v>2878172</v>
       </c>
       <c r="Y585">
-        <v>3955216</v>
+        <v>3598483</v>
       </c>
     </row>
     <row r="586" spans="1:25" x14ac:dyDescent="0.3">
@@ -45576,7 +45576,7 @@
         <v>2908003</v>
       </c>
       <c r="Y586">
-        <v>3685258</v>
+        <v>3647583</v>
       </c>
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.3">
@@ -45653,7 +45653,7 @@
         <v>2900966</v>
       </c>
       <c r="Y587">
-        <v>3931010</v>
+        <v>3481724</v>
       </c>
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.3">
@@ -45730,7 +45730,7 @@
         <v>2922572</v>
       </c>
       <c r="Y588">
-        <v>3756325</v>
+        <v>3515679</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.3">
@@ -45807,7 +45807,7 @@
         <v>2988762</v>
       </c>
       <c r="Y589">
-        <v>3824839</v>
+        <v>3624172</v>
       </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.3">
@@ -45884,7 +45884,7 @@
         <v>2938100</v>
       </c>
       <c r="Y590">
-        <v>4039970</v>
+        <v>3518430</v>
       </c>
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.3">
@@ -45961,7 +45961,7 @@
         <v>3026368</v>
       </c>
       <c r="Y591">
-        <v>3966027</v>
+        <v>3711725</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.3">
@@ -46038,7 +46038,7 @@
         <v>1058786</v>
       </c>
       <c r="Y592">
-        <v>1078749</v>
+        <v>1535128</v>
       </c>
     </row>
     <row r="593" spans="1:25" x14ac:dyDescent="0.3">
@@ -46115,7 +46115,7 @@
         <v>775077</v>
       </c>
       <c r="Y593">
-        <v>804573</v>
+        <v>1401525</v>
       </c>
     </row>
     <row r="594" spans="1:25" x14ac:dyDescent="0.3">
@@ -46192,7 +46192,7 @@
         <v>976497</v>
       </c>
       <c r="Y594">
-        <v>1015726</v>
+        <v>1728686</v>
       </c>
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.3">
@@ -46269,7 +46269,7 @@
         <v>931280</v>
       </c>
       <c r="Y595">
-        <v>967609</v>
+        <v>1171758</v>
       </c>
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.3">
@@ -46346,7 +46346,7 @@
         <v>1020937</v>
       </c>
       <c r="Y596">
-        <v>1050432</v>
+        <v>1602748</v>
       </c>
     </row>
     <row r="597" spans="1:25" x14ac:dyDescent="0.3">
@@ -46423,7 +46423,7 @@
         <v>870526</v>
       </c>
       <c r="Y597">
-        <v>888630</v>
+        <v>1763955</v>
       </c>
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.3">
@@ -46500,7 +46500,7 @@
         <v>892155</v>
       </c>
       <c r="Y598">
-        <v>902449</v>
+        <v>1615536</v>
       </c>
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.3">
@@ -46577,7 +46577,7 @@
         <v>903196</v>
       </c>
       <c r="Y599">
-        <v>907654</v>
+        <v>1580863</v>
       </c>
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.3">
@@ -46654,7 +46654,7 @@
         <v>856110</v>
       </c>
       <c r="Y600">
-        <v>884144</v>
+        <v>1439292</v>
       </c>
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.3">
@@ -46731,7 +46731,7 @@
         <v>920583</v>
       </c>
       <c r="Y601">
-        <v>943993</v>
+        <v>1401281</v>
       </c>
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.3">
@@ -46808,7 +46808,7 @@
         <v>4822360</v>
       </c>
       <c r="Y602">
-        <v>4874449</v>
+        <v>4891673</v>
       </c>
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.3">
@@ -46885,7 +46885,7 @@
         <v>4865908</v>
       </c>
       <c r="Y603">
-        <v>4951687</v>
+        <v>4945934</v>
       </c>
     </row>
     <row r="604" spans="1:25" x14ac:dyDescent="0.3">
@@ -47039,7 +47039,7 @@
         <v>4804867</v>
       </c>
       <c r="Y605">
-        <v>4889614</v>
+        <v>4867407</v>
       </c>
     </row>
     <row r="606" spans="1:25" x14ac:dyDescent="0.3">
@@ -47116,7 +47116,7 @@
         <v>5003941</v>
       </c>
       <c r="Y606">
-        <v>5061694</v>
+        <v>5084807</v>
       </c>
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.3">
@@ -47193,7 +47193,7 @@
         <v>4891741</v>
       </c>
       <c r="Y607">
-        <v>4972247</v>
+        <v>4955206</v>
       </c>
     </row>
     <row r="608" spans="1:25" x14ac:dyDescent="0.3">
@@ -47270,7 +47270,7 @@
         <v>4840833</v>
       </c>
       <c r="Y608">
-        <v>4903372</v>
+        <v>4907977</v>
       </c>
     </row>
     <row r="609" spans="1:25" x14ac:dyDescent="0.3">
@@ -47347,7 +47347,7 @@
         <v>4806321</v>
       </c>
       <c r="Y609">
-        <v>4888652</v>
+        <v>4878830</v>
       </c>
     </row>
     <row r="610" spans="1:25" x14ac:dyDescent="0.3">
@@ -47424,7 +47424,7 @@
         <v>4879860</v>
       </c>
       <c r="Y610">
-        <v>4942580</v>
+        <v>4933370</v>
       </c>
     </row>
     <row r="611" spans="1:25" x14ac:dyDescent="0.3">
@@ -47501,7 +47501,7 @@
         <v>5010534</v>
       </c>
       <c r="Y611">
-        <v>5094535</v>
+        <v>5063877</v>
       </c>
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.3">
@@ -47578,7 +47578,7 @@
         <v>4603804</v>
       </c>
       <c r="Y612">
-        <v>4999746</v>
+        <v>4983217</v>
       </c>
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.3">
@@ -47655,7 +47655,7 @@
         <v>4473169</v>
       </c>
       <c r="Y613">
-        <v>4842730</v>
+        <v>4851164</v>
       </c>
     </row>
     <row r="614" spans="1:25" x14ac:dyDescent="0.3">
@@ -47732,7 +47732,7 @@
         <v>4730823</v>
       </c>
       <c r="Y614">
-        <v>5162528</v>
+        <v>5127032</v>
       </c>
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.3">
@@ -47809,7 +47809,7 @@
         <v>4640543</v>
       </c>
       <c r="Y615">
-        <v>4933664</v>
+        <v>4942191</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.3">
@@ -47886,7 +47886,7 @@
         <v>4517089</v>
       </c>
       <c r="Y616">
-        <v>4950252</v>
+        <v>4845966</v>
       </c>
     </row>
     <row r="617" spans="1:25" x14ac:dyDescent="0.3">
@@ -47963,7 +47963,7 @@
         <v>4644830</v>
       </c>
       <c r="Y617">
-        <v>5044541</v>
+        <v>5045377</v>
       </c>
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.3">
@@ -48040,7 +48040,7 @@
         <v>4624775</v>
       </c>
       <c r="Y618">
-        <v>5011909</v>
+        <v>5029441</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.3">
@@ -48117,7 +48117,7 @@
         <v>4580938</v>
       </c>
       <c r="Y619">
-        <v>5016025</v>
+        <v>4949804</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.3">
@@ -48194,7 +48194,7 @@
         <v>4548211</v>
       </c>
       <c r="Y620">
-        <v>4871423</v>
+        <v>4916687</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.3">
@@ -48271,7 +48271,7 @@
         <v>4448647</v>
       </c>
       <c r="Y621">
-        <v>4851390</v>
+        <v>4832509</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.3">
@@ -48348,7 +48348,7 @@
         <v>2944970</v>
       </c>
       <c r="Y622">
-        <v>4425335</v>
+        <v>3550820</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.3">
@@ -48425,7 +48425,7 @@
         <v>2902397</v>
       </c>
       <c r="Y623">
-        <v>4122907</v>
+        <v>3374144</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.3">
@@ -48502,7 +48502,7 @@
         <v>2989655</v>
       </c>
       <c r="Y624">
-        <v>4435521</v>
+        <v>3518097</v>
       </c>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.3">
@@ -48579,7 +48579,7 @@
         <v>2910507</v>
       </c>
       <c r="Y625">
-        <v>4109063</v>
+        <v>3507343</v>
       </c>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.3">
@@ -48656,7 +48656,7 @@
         <v>3023219</v>
       </c>
       <c r="Y626">
-        <v>4541805</v>
+        <v>3471841</v>
       </c>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.3">
@@ -48733,7 +48733,7 @@
         <v>2994260</v>
       </c>
       <c r="Y627">
-        <v>4266019</v>
+        <v>3640925</v>
       </c>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.3">
@@ -48810,7 +48810,7 @@
         <v>2973741</v>
       </c>
       <c r="Y628">
-        <v>4113239</v>
+        <v>3531992</v>
       </c>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.3">
@@ -48887,7 +48887,7 @@
         <v>2831961</v>
       </c>
       <c r="Y629">
-        <v>4277011</v>
+        <v>3310360</v>
       </c>
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.3">
@@ -48964,7 +48964,7 @@
         <v>3099443</v>
       </c>
       <c r="Y630">
-        <v>4363432</v>
+        <v>3844152</v>
       </c>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.3">
@@ -49041,7 +49041,7 @@
         <v>2909749</v>
       </c>
       <c r="Y631">
-        <v>4233651</v>
+        <v>3519641</v>
       </c>
     </row>
     <row r="632" spans="1:25" x14ac:dyDescent="0.3">
@@ -49118,7 +49118,7 @@
         <v>890014</v>
       </c>
       <c r="Y632">
-        <v>912874</v>
+        <v>1703024</v>
       </c>
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.3">
@@ -49195,7 +49195,7 @@
         <v>909241</v>
       </c>
       <c r="Y633">
-        <v>954725</v>
+        <v>1600472</v>
       </c>
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.3">
@@ -49272,7 +49272,7 @@
         <v>907610</v>
       </c>
       <c r="Y634">
-        <v>917301</v>
+        <v>1392745</v>
       </c>
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.3">
@@ -49349,7 +49349,7 @@
         <v>899107</v>
       </c>
       <c r="Y635">
-        <v>917247</v>
+        <v>1531816</v>
       </c>
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.3">
@@ -49426,7 +49426,7 @@
         <v>882061</v>
       </c>
       <c r="Y636">
-        <v>900749</v>
+        <v>1491629</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.3">
@@ -49503,7 +49503,7 @@
         <v>1064967</v>
       </c>
       <c r="Y637">
-        <v>1089536</v>
+        <v>1699411</v>
       </c>
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.3">
@@ -49580,7 +49580,7 @@
         <v>872060</v>
       </c>
       <c r="Y638">
-        <v>897884</v>
+        <v>1978755</v>
       </c>
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.3">
@@ -49657,7 +49657,7 @@
         <v>973649</v>
       </c>
       <c r="Y639">
-        <v>987688</v>
+        <v>1725779</v>
       </c>
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.3">
@@ -49734,7 +49734,7 @@
         <v>904942</v>
       </c>
       <c r="Y640">
-        <v>945438</v>
+        <v>1576011</v>
       </c>
     </row>
     <row r="641" spans="1:25" x14ac:dyDescent="0.3">
@@ -49811,7 +49811,7 @@
         <v>918883</v>
       </c>
       <c r="Y641">
-        <v>939261</v>
+        <v>1423808</v>
       </c>
     </row>
     <row r="642" spans="1:25" x14ac:dyDescent="0.3">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="Y642">
         <f>AVERAGE(Y2:Y641)</f>
-        <v>1949485.2109375</v>
+        <v>2021395.296875</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.3">

--- a/Comparsion of costs.xlsx
+++ b/Comparsion of costs.xlsx
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E614" workbookViewId="0">
+      <selection activeCell="Y642" sqref="Y642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>923317</v>
       </c>
       <c r="Y2">
-        <v>922548</v>
+        <v>922702</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>947267</v>
       </c>
       <c r="Y3">
-        <v>947044</v>
+        <v>947516</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>965292</v>
       </c>
       <c r="Y4">
-        <v>965358</v>
+        <v>965564</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>936761</v>
       </c>
       <c r="Y5">
-        <v>937697</v>
+        <v>936151</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>964013</v>
       </c>
       <c r="Y6">
-        <v>964599</v>
+        <v>966117</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>965635</v>
       </c>
       <c r="Y7">
-        <v>965652</v>
+        <v>965665</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>1003001</v>
       </c>
       <c r="Y8">
-        <v>1001692</v>
+        <v>1002502</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>983684</v>
       </c>
       <c r="Y9">
-        <v>982132</v>
+        <v>984715</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>992449</v>
       </c>
       <c r="Y10">
-        <v>990909</v>
+        <v>991729</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>950928</v>
       </c>
       <c r="Y11">
-        <v>950753</v>
+        <v>951006</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>922211</v>
       </c>
       <c r="Y12">
-        <v>926480</v>
+        <v>924108</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>883007</v>
       </c>
       <c r="Y13">
-        <v>897647</v>
+        <v>887040</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>890120</v>
       </c>
       <c r="Y14">
-        <v>891010</v>
+        <v>892552</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>880617</v>
       </c>
       <c r="Y15">
-        <v>875861</v>
+        <v>877317</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>910590</v>
       </c>
       <c r="Y16">
-        <v>911508</v>
+        <v>910074</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>893242</v>
       </c>
       <c r="Y17">
-        <v>888715</v>
+        <v>890766</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>867799</v>
       </c>
       <c r="Y18">
-        <v>873252</v>
+        <v>868447</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>962921</v>
       </c>
       <c r="Y19">
-        <v>964252</v>
+        <v>964509</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -1994,7 +1994,7 @@
         <v>892727</v>
       </c>
       <c r="Y20">
-        <v>888941</v>
+        <v>886797</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>876698</v>
       </c>
       <c r="Y21">
-        <v>876506</v>
+        <v>879567</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>638848</v>
       </c>
       <c r="Y22">
-        <v>626667</v>
+        <v>656757</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>632697</v>
       </c>
       <c r="Y23">
-        <v>674194</v>
+        <v>659670</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>694359</v>
       </c>
       <c r="Y24">
-        <v>642330</v>
+        <v>599821</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
         <v>615549</v>
       </c>
       <c r="Y25">
-        <v>633772</v>
+        <v>623711</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>695665</v>
       </c>
       <c r="Y26">
-        <v>691827</v>
+        <v>663746</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>621357</v>
       </c>
       <c r="Y27">
-        <v>666411</v>
+        <v>707976</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>662766</v>
       </c>
       <c r="Y28">
-        <v>673412</v>
+        <v>633514</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>693621</v>
       </c>
       <c r="Y29">
-        <v>679556</v>
+        <v>678029</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>612757</v>
       </c>
       <c r="Y30">
-        <v>625325</v>
+        <v>611598</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>708285</v>
       </c>
       <c r="Y31">
-        <v>705998</v>
+        <v>704493</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
         <v>220211</v>
       </c>
       <c r="Y32">
-        <v>257749</v>
+        <v>326007</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>254025</v>
       </c>
       <c r="Y33">
-        <v>345169</v>
+        <v>382154</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
         <v>427336</v>
       </c>
       <c r="Y34">
-        <v>370436</v>
+        <v>323345</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>319296</v>
       </c>
       <c r="Y35">
-        <v>298480</v>
+        <v>263148</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>371943</v>
       </c>
       <c r="Y36">
-        <v>341020</v>
+        <v>270465</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
         <v>379540</v>
       </c>
       <c r="Y37">
-        <v>332465</v>
+        <v>295356</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>355684</v>
       </c>
       <c r="Y38">
-        <v>407360</v>
+        <v>375909</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>244023</v>
       </c>
       <c r="Y39">
-        <v>242778</v>
+        <v>371325</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>287267</v>
       </c>
       <c r="Y40">
-        <v>407664</v>
+        <v>338607</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>253838</v>
       </c>
       <c r="Y41">
-        <v>340460</v>
+        <v>278171</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>1050800</v>
       </c>
       <c r="Y42">
-        <v>1054897</v>
+        <v>1050800</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
         <v>993586</v>
       </c>
       <c r="Y43">
-        <v>995851</v>
+        <v>993662</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>969681</v>
       </c>
       <c r="Y44">
-        <v>974381</v>
+        <v>969681</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>989131</v>
       </c>
       <c r="Y45">
-        <v>991743</v>
+        <v>989131</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
@@ -3996,7 +3996,7 @@
         <v>954079</v>
       </c>
       <c r="Y46">
-        <v>959883</v>
+        <v>954079</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>985090</v>
       </c>
       <c r="Y47">
-        <v>988614</v>
+        <v>985090</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>993522</v>
       </c>
       <c r="Y48">
-        <v>997903</v>
+        <v>993522</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>915314</v>
       </c>
       <c r="Y49">
-        <v>918084</v>
+        <v>915314</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>1022109</v>
       </c>
       <c r="Y50">
-        <v>1024579</v>
+        <v>1022040</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
@@ -4381,7 +4381,7 @@
         <v>1010050</v>
       </c>
       <c r="Y51">
-        <v>1013457</v>
+        <v>1010015</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
         <v>924525</v>
       </c>
       <c r="Y52">
-        <v>939333</v>
+        <v>924317</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>914981</v>
       </c>
       <c r="Y53">
-        <v>938623</v>
+        <v>916410</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
         <v>879151</v>
       </c>
       <c r="Y54">
-        <v>893169</v>
+        <v>878629</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
@@ -4689,7 +4689,7 @@
         <v>954994</v>
       </c>
       <c r="Y55">
-        <v>974597</v>
+        <v>954994</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>921593</v>
       </c>
       <c r="Y56">
-        <v>945080</v>
+        <v>921593</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>954755</v>
       </c>
       <c r="Y57">
-        <v>978090</v>
+        <v>952880</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>948110</v>
       </c>
       <c r="Y58">
-        <v>970745</v>
+        <v>948110</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>890122</v>
       </c>
       <c r="Y59">
-        <v>906118</v>
+        <v>890122</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
@@ -5074,7 +5074,7 @@
         <v>892234</v>
       </c>
       <c r="Y60">
-        <v>912275</v>
+        <v>892260</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
         <v>900131</v>
       </c>
       <c r="Y61">
-        <v>912731</v>
+        <v>900131</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>635251</v>
       </c>
       <c r="Y62">
-        <v>749099</v>
+        <v>634852</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
         <v>572025</v>
       </c>
       <c r="Y63">
-        <v>699482</v>
+        <v>574403</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>520017</v>
       </c>
       <c r="Y64">
-        <v>643505</v>
+        <v>520017</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>593628</v>
       </c>
       <c r="Y65">
-        <v>717748</v>
+        <v>591644</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>580726</v>
       </c>
       <c r="Y66">
-        <v>773909</v>
+        <v>580726</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>576025</v>
       </c>
       <c r="Y67">
-        <v>704902</v>
+        <v>575551</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>639445</v>
       </c>
       <c r="Y68">
-        <v>758375</v>
+        <v>639445</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>615059</v>
       </c>
       <c r="Y69">
-        <v>718514</v>
+        <v>617724</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>574136</v>
       </c>
       <c r="Y70">
-        <v>734001</v>
+        <v>576333</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>592999</v>
       </c>
       <c r="Y71">
-        <v>744619</v>
+        <v>592999</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>152553</v>
       </c>
       <c r="Y72">
-        <v>425151</v>
+        <v>152553</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>172175</v>
       </c>
       <c r="Y73">
-        <v>385858</v>
+        <v>172383</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>218283</v>
       </c>
       <c r="Y74">
-        <v>460695</v>
+        <v>227976</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>162448</v>
       </c>
       <c r="Y75">
-        <v>374523</v>
+        <v>162292</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>187018</v>
       </c>
       <c r="Y76">
-        <v>435516</v>
+        <v>187688</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>228758</v>
       </c>
       <c r="Y77">
-        <v>551137</v>
+        <v>228758</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>273889</v>
       </c>
       <c r="Y78">
-        <v>578039</v>
+        <v>264352</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>198649</v>
       </c>
       <c r="Y79">
-        <v>375423</v>
+        <v>198649</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>189773</v>
       </c>
       <c r="Y80">
-        <v>363172</v>
+        <v>189773</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>217293</v>
       </c>
       <c r="Y81">
-        <v>362094</v>
+        <v>228339</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>940654</v>
       </c>
       <c r="Y82">
-        <v>947385</v>
+        <v>940654</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>966831</v>
       </c>
       <c r="Y83">
-        <v>971352</v>
+        <v>966831</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>987029</v>
       </c>
       <c r="Y84">
-        <v>995818</v>
+        <v>987029</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
@@ -6999,7 +6999,7 @@
         <v>971977</v>
       </c>
       <c r="Y85">
-        <v>978063</v>
+        <v>971977</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>954826</v>
       </c>
       <c r="Y86">
-        <v>963456</v>
+        <v>954826</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>936643</v>
       </c>
       <c r="Y87">
-        <v>944000</v>
+        <v>936643</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>960382</v>
       </c>
       <c r="Y88">
-        <v>969779</v>
+        <v>960382</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
@@ -7307,7 +7307,7 @@
         <v>971007</v>
       </c>
       <c r="Y89">
-        <v>976968</v>
+        <v>971007</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>978480</v>
       </c>
       <c r="Y90">
-        <v>983870</v>
+        <v>978480</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>912716</v>
       </c>
       <c r="Y91">
-        <v>918392</v>
+        <v>912716</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>899185</v>
       </c>
       <c r="Y92">
-        <v>926265</v>
+        <v>899185</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
         <v>895237</v>
       </c>
       <c r="Y93">
-        <v>932512</v>
+        <v>895237</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>956913</v>
       </c>
       <c r="Y94">
-        <v>980465</v>
+        <v>956913</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
@@ -7769,7 +7769,7 @@
         <v>875591</v>
       </c>
       <c r="Y95">
-        <v>915805</v>
+        <v>875591</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>929734</v>
       </c>
       <c r="Y96">
-        <v>964385</v>
+        <v>929734</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>897340</v>
       </c>
       <c r="Y97">
-        <v>932863</v>
+        <v>897340</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>931759</v>
       </c>
       <c r="Y98">
-        <v>969085</v>
+        <v>931759</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>904567</v>
       </c>
       <c r="Y99">
-        <v>941025</v>
+        <v>904567</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>873267</v>
       </c>
       <c r="Y100">
-        <v>895690</v>
+        <v>873267</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>934489</v>
       </c>
       <c r="Y101">
-        <v>962888</v>
+        <v>934489</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>566430</v>
       </c>
       <c r="Y102">
-        <v>749383</v>
+        <v>566430</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>564582</v>
       </c>
       <c r="Y103">
-        <v>800833</v>
+        <v>564582</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>576152</v>
       </c>
       <c r="Y104">
-        <v>781421</v>
+        <v>576152</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
@@ -8539,7 +8539,7 @@
         <v>606985</v>
       </c>
       <c r="Y105">
-        <v>807606</v>
+        <v>606985</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>552379</v>
       </c>
       <c r="Y106">
-        <v>740140</v>
+        <v>552379</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>575778</v>
       </c>
       <c r="Y107">
-        <v>864718</v>
+        <v>575778</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>602035</v>
       </c>
       <c r="Y108">
-        <v>759600</v>
+        <v>602035</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
@@ -8847,7 +8847,7 @@
         <v>581628</v>
       </c>
       <c r="Y109">
-        <v>813117</v>
+        <v>581628</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>600337</v>
       </c>
       <c r="Y110">
-        <v>791955</v>
+        <v>600337</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
@@ -9001,7 +9001,7 @@
         <v>576734</v>
       </c>
       <c r="Y111">
-        <v>770977</v>
+        <v>576734</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
@@ -9078,7 +9078,7 @@
         <v>162991</v>
       </c>
       <c r="Y112">
-        <v>513217</v>
+        <v>162991</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
@@ -9155,7 +9155,7 @@
         <v>171803</v>
       </c>
       <c r="Y113">
-        <v>449473</v>
+        <v>171803</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
         <v>186607</v>
       </c>
       <c r="Y114">
-        <v>412818</v>
+        <v>186607</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>224188</v>
       </c>
       <c r="Y115">
-        <v>565394</v>
+        <v>224188</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>222662</v>
       </c>
       <c r="Y116">
-        <v>549608</v>
+        <v>222662</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
@@ -9463,7 +9463,7 @@
         <v>324648</v>
       </c>
       <c r="Y117">
-        <v>634691</v>
+        <v>324648</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>202601</v>
       </c>
       <c r="Y118">
-        <v>390277</v>
+        <v>202601</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
@@ -9617,7 +9617,7 @@
         <v>144439</v>
       </c>
       <c r="Y119">
-        <v>443736</v>
+        <v>144439</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>176792</v>
       </c>
       <c r="Y120">
-        <v>380214</v>
+        <v>176792</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
         <v>135677</v>
       </c>
       <c r="Y121">
-        <v>324914</v>
+        <v>135677</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>893220</v>
       </c>
       <c r="Y122">
-        <v>900741</v>
+        <v>893220</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
@@ -9925,7 +9925,7 @@
         <v>1044394</v>
       </c>
       <c r="Y123">
-        <v>1053044</v>
+        <v>1044394</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
@@ -10002,7 +10002,7 @@
         <v>987692</v>
       </c>
       <c r="Y124">
-        <v>997350</v>
+        <v>987692</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
         <v>967151</v>
       </c>
       <c r="Y125">
-        <v>976141</v>
+        <v>967151</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
@@ -10156,7 +10156,7 @@
         <v>939306</v>
       </c>
       <c r="Y126">
-        <v>946533</v>
+        <v>939306</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
@@ -10233,7 +10233,7 @@
         <v>994845</v>
       </c>
       <c r="Y127">
-        <v>1005664</v>
+        <v>994845</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>990506</v>
       </c>
       <c r="Y128">
-        <v>999606</v>
+        <v>990506</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>985957</v>
       </c>
       <c r="Y129">
-        <v>997413</v>
+        <v>985957</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
         <v>1022204</v>
       </c>
       <c r="Y130">
-        <v>1034925</v>
+        <v>1022204</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>971435</v>
       </c>
       <c r="Y131">
-        <v>985419</v>
+        <v>971435</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>932672</v>
       </c>
       <c r="Y132">
-        <v>975116</v>
+        <v>932672</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>928864</v>
       </c>
       <c r="Y133">
-        <v>993120</v>
+        <v>928864</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>931740</v>
       </c>
       <c r="Y134">
-        <v>1001705</v>
+        <v>931740</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
@@ -10849,7 +10849,7 @@
         <v>958154</v>
       </c>
       <c r="Y135">
-        <v>1022855</v>
+        <v>958154</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
         <v>948292</v>
       </c>
       <c r="Y136">
-        <v>1006398</v>
+        <v>948292</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
@@ -11003,7 +11003,7 @@
         <v>943018</v>
       </c>
       <c r="Y137">
-        <v>1011786</v>
+        <v>943018</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>894115</v>
       </c>
       <c r="Y138">
-        <v>943321</v>
+        <v>894115</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
@@ -11157,7 +11157,7 @@
         <v>936642</v>
       </c>
       <c r="Y139">
-        <v>997708</v>
+        <v>936642</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>871702</v>
       </c>
       <c r="Y140">
-        <v>920720</v>
+        <v>871702</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
         <v>958936</v>
       </c>
       <c r="Y141">
-        <v>1019720</v>
+        <v>958936</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>607952</v>
       </c>
       <c r="Y142">
-        <v>754374</v>
+        <v>607952</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
@@ -11465,7 +11465,7 @@
         <v>594216</v>
       </c>
       <c r="Y143">
-        <v>854911</v>
+        <v>594216</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>599063</v>
       </c>
       <c r="Y144">
-        <v>843184</v>
+        <v>599063</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
@@ -11619,7 +11619,7 @@
         <v>618479</v>
       </c>
       <c r="Y145">
-        <v>896803</v>
+        <v>618479</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
@@ -11696,7 +11696,7 @@
         <v>590188</v>
       </c>
       <c r="Y146">
-        <v>926945</v>
+        <v>590188</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.3">
@@ -11773,7 +11773,7 @@
         <v>597801</v>
       </c>
       <c r="Y147">
-        <v>747536</v>
+        <v>597801</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>556943</v>
       </c>
       <c r="Y148">
-        <v>788733</v>
+        <v>556943</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.3">
@@ -11927,7 +11927,7 @@
         <v>581956</v>
       </c>
       <c r="Y149">
-        <v>824819</v>
+        <v>581956</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
         <v>596590</v>
       </c>
       <c r="Y150">
-        <v>878312</v>
+        <v>596590</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
@@ -12081,7 +12081,7 @@
         <v>595701</v>
       </c>
       <c r="Y151">
-        <v>870643</v>
+        <v>595701</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>159263</v>
       </c>
       <c r="Y152">
-        <v>659135</v>
+        <v>159263</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
@@ -12235,7 +12235,7 @@
         <v>159350</v>
       </c>
       <c r="Y153">
-        <v>432886</v>
+        <v>159350</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
@@ -12312,7 +12312,7 @@
         <v>240090</v>
       </c>
       <c r="Y154">
-        <v>458150</v>
+        <v>240090</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
@@ -12389,7 +12389,7 @@
         <v>200922</v>
       </c>
       <c r="Y155">
-        <v>500054</v>
+        <v>200922</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
@@ -12466,7 +12466,7 @@
         <v>187148</v>
       </c>
       <c r="Y156">
-        <v>647098</v>
+        <v>187148</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
@@ -12543,7 +12543,7 @@
         <v>154655</v>
       </c>
       <c r="Y157">
-        <v>445374</v>
+        <v>154655</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
@@ -12620,7 +12620,7 @@
         <v>139825</v>
       </c>
       <c r="Y158">
-        <v>435147</v>
+        <v>139825</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>238479</v>
       </c>
       <c r="Y159">
-        <v>534463</v>
+        <v>238479</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>178726</v>
       </c>
       <c r="Y160">
-        <v>341936</v>
+        <v>178726</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
@@ -12851,7 +12851,7 @@
         <v>194382</v>
       </c>
       <c r="Y161">
-        <v>416782</v>
+        <v>194382</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
@@ -12928,7 +12928,7 @@
         <v>1827688</v>
       </c>
       <c r="Y162">
-        <v>1826424</v>
+        <v>1826730</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>1911125</v>
       </c>
       <c r="Y163">
-        <v>1909833</v>
+        <v>1911074</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>1841898</v>
       </c>
       <c r="Y164">
-        <v>1841511</v>
+        <v>1845053</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
@@ -13159,7 +13159,7 @@
         <v>1898005</v>
       </c>
       <c r="Y165">
-        <v>1897848</v>
+        <v>1894281</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
         <v>1892955</v>
       </c>
       <c r="Y166">
-        <v>1894245</v>
+        <v>1892289</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>2050632</v>
       </c>
       <c r="Y167">
-        <v>2048704</v>
+        <v>2049754</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>1961463</v>
       </c>
       <c r="Y168">
-        <v>1960563</v>
+        <v>1959668</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>1848243</v>
       </c>
       <c r="Y169">
-        <v>1847237</v>
+        <v>1848291</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>1891146</v>
       </c>
       <c r="Y170">
-        <v>1889689</v>
+        <v>1891583</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
@@ -13621,7 +13621,7 @@
         <v>1943851</v>
       </c>
       <c r="Y171">
-        <v>1947406</v>
+        <v>1944790</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>1845063</v>
       </c>
       <c r="Y172">
-        <v>1852760</v>
+        <v>1857235</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
@@ -13775,7 +13775,7 @@
         <v>1815450</v>
       </c>
       <c r="Y173">
-        <v>1821642</v>
+        <v>1814813</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>1797005</v>
       </c>
       <c r="Y174">
-        <v>1804165</v>
+        <v>1798340</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
@@ -13929,7 +13929,7 @@
         <v>1817747</v>
       </c>
       <c r="Y175">
-        <v>1821148</v>
+        <v>1818129</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>1754331</v>
       </c>
       <c r="Y176">
-        <v>1750434</v>
+        <v>1753592</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
@@ -14083,7 +14083,7 @@
         <v>1848951</v>
       </c>
       <c r="Y177">
-        <v>1853709</v>
+        <v>1841103</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
@@ -14160,7 +14160,7 @@
         <v>1825397</v>
       </c>
       <c r="Y178">
-        <v>1834554</v>
+        <v>1819475</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
@@ -14237,7 +14237,7 @@
         <v>1719223</v>
       </c>
       <c r="Y179">
-        <v>1716796</v>
+        <v>1715925</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
         <v>1803168</v>
       </c>
       <c r="Y180">
-        <v>1816050</v>
+        <v>1811709</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
@@ -14391,7 +14391,7 @@
         <v>1761875</v>
       </c>
       <c r="Y181">
-        <v>1767178</v>
+        <v>1757738</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>1260116</v>
       </c>
       <c r="Y182">
-        <v>1265724</v>
+        <v>1334254</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>1268495</v>
       </c>
       <c r="Y183">
-        <v>1231892</v>
+        <v>1258268</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1277383</v>
       </c>
       <c r="Y184">
-        <v>1270242</v>
+        <v>1248256</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
@@ -14699,7 +14699,7 @@
         <v>1303716</v>
       </c>
       <c r="Y185">
-        <v>1283240</v>
+        <v>1263282</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>1215336</v>
       </c>
       <c r="Y186">
-        <v>1205669</v>
+        <v>1159001</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
         <v>1192093</v>
       </c>
       <c r="Y187">
-        <v>1181549</v>
+        <v>1156115</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>1168681</v>
       </c>
       <c r="Y188">
-        <v>1195155</v>
+        <v>1160359</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
@@ -15007,7 +15007,7 @@
         <v>1207033</v>
       </c>
       <c r="Y189">
-        <v>1210788</v>
+        <v>1212445</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>1258774</v>
       </c>
       <c r="Y190">
-        <v>1268213</v>
+        <v>1248779</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
@@ -15161,7 +15161,7 @@
         <v>1274664</v>
       </c>
       <c r="Y191">
-        <v>1276196</v>
+        <v>1274152</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>535314</v>
       </c>
       <c r="Y192">
-        <v>604732</v>
+        <v>585106</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
@@ -15315,7 +15315,7 @@
         <v>435542</v>
       </c>
       <c r="Y193">
-        <v>490613</v>
+        <v>496878</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>488468</v>
       </c>
       <c r="Y194">
-        <v>509987</v>
+        <v>593064</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>470235</v>
       </c>
       <c r="Y195">
-        <v>486035</v>
+        <v>458636</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>672435</v>
       </c>
       <c r="Y196">
-        <v>726850</v>
+        <v>639549</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>533315</v>
       </c>
       <c r="Y197">
-        <v>539179</v>
+        <v>578603</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>583034</v>
       </c>
       <c r="Y198">
-        <v>627511</v>
+        <v>579772</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>727343</v>
       </c>
       <c r="Y199">
-        <v>513935</v>
+        <v>402261</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>711796</v>
       </c>
       <c r="Y200">
-        <v>582473</v>
+        <v>585214</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
@@ -15931,7 +15931,7 @@
         <v>405142</v>
       </c>
       <c r="Y201">
-        <v>513783</v>
+        <v>432619</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
@@ -16008,7 +16008,7 @@
         <v>1885135</v>
       </c>
       <c r="Y202">
-        <v>1888913</v>
+        <v>1885135</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
@@ -16085,7 +16085,7 @@
         <v>1936064</v>
       </c>
       <c r="Y203">
-        <v>1941212</v>
+        <v>1936064</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
@@ -16162,7 +16162,7 @@
         <v>1951012</v>
       </c>
       <c r="Y204">
-        <v>1956756</v>
+        <v>1951012</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>2012036</v>
       </c>
       <c r="Y205">
-        <v>2019828</v>
+        <v>2011888</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
@@ -16316,7 +16316,7 @@
         <v>1990262</v>
       </c>
       <c r="Y206">
-        <v>1995496</v>
+        <v>1990262</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
@@ -16393,7 +16393,7 @@
         <v>1977425</v>
       </c>
       <c r="Y207">
-        <v>1983708</v>
+        <v>1977393</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>1970652</v>
       </c>
       <c r="Y208">
-        <v>1978538</v>
+        <v>1970594</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
@@ -16547,7 +16547,7 @@
         <v>1944048</v>
       </c>
       <c r="Y209">
-        <v>1951114</v>
+        <v>1944048</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>1882214</v>
       </c>
       <c r="Y210">
-        <v>1889787</v>
+        <v>1882214</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
@@ -16701,7 +16701,7 @@
         <v>1948884</v>
       </c>
       <c r="Y211">
-        <v>1957162</v>
+        <v>1948822</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>1844619</v>
       </c>
       <c r="Y212">
-        <v>1872807</v>
+        <v>1844619</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
@@ -16855,7 +16855,7 @@
         <v>1844175</v>
       </c>
       <c r="Y213">
-        <v>1884257</v>
+        <v>1844175</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>1766103</v>
       </c>
       <c r="Y214">
-        <v>1799489</v>
+        <v>1766103</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
@@ -17009,7 +17009,7 @@
         <v>1873395</v>
       </c>
       <c r="Y215">
-        <v>1912204</v>
+        <v>1873395</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1861888</v>
       </c>
       <c r="Y216">
-        <v>1908595</v>
+        <v>1863248</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
@@ -17163,7 +17163,7 @@
         <v>1862202</v>
       </c>
       <c r="Y217">
-        <v>1896145</v>
+        <v>1861326</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
@@ -17240,7 +17240,7 @@
         <v>1834610</v>
       </c>
       <c r="Y218">
-        <v>1875970</v>
+        <v>1834610</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
@@ -17317,7 +17317,7 @@
         <v>1887939</v>
       </c>
       <c r="Y219">
-        <v>1921855</v>
+        <v>1888195</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>1775863</v>
       </c>
       <c r="Y220">
-        <v>1816592</v>
+        <v>1775863</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
@@ -17471,7 +17471,7 @@
         <v>1813951</v>
       </c>
       <c r="Y221">
-        <v>1864667</v>
+        <v>1813951</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>1160777</v>
       </c>
       <c r="Y222">
-        <v>1404274</v>
+        <v>1160777</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
@@ -17625,7 +17625,7 @@
         <v>1255477</v>
       </c>
       <c r="Y223">
-        <v>1531365</v>
+        <v>1243781</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1247575</v>
       </c>
       <c r="Y224">
-        <v>1502306</v>
+        <v>1254833</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
@@ -17779,7 +17779,7 @@
         <v>1133099</v>
       </c>
       <c r="Y225">
-        <v>1385104</v>
+        <v>1133099</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
@@ -17856,7 +17856,7 @@
         <v>1188235</v>
       </c>
       <c r="Y226">
-        <v>1365517</v>
+        <v>1188235</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
@@ -17933,7 +17933,7 @@
         <v>1290535</v>
       </c>
       <c r="Y227">
-        <v>1534496</v>
+        <v>1290535</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>1149448</v>
       </c>
       <c r="Y228">
-        <v>1359886</v>
+        <v>1150636</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
@@ -18087,7 +18087,7 @@
         <v>1132174</v>
       </c>
       <c r="Y229">
-        <v>1273814</v>
+        <v>1131970</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
@@ -18164,7 +18164,7 @@
         <v>1152412</v>
       </c>
       <c r="Y230">
-        <v>1396949</v>
+        <v>1152412</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
@@ -18241,7 +18241,7 @@
         <v>1160349</v>
       </c>
       <c r="Y231">
-        <v>1321666</v>
+        <v>1160349</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>408746</v>
       </c>
       <c r="Y232">
-        <v>669731</v>
+        <v>389187</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
@@ -18395,7 +18395,7 @@
         <v>393013</v>
       </c>
       <c r="Y233">
-        <v>641713</v>
+        <v>393013</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
@@ -18472,7 +18472,7 @@
         <v>339669</v>
       </c>
       <c r="Y234">
-        <v>659047</v>
+        <v>339669</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
@@ -18549,7 +18549,7 @@
         <v>255359</v>
       </c>
       <c r="Y235">
-        <v>553009</v>
+        <v>255359</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
@@ -18626,7 +18626,7 @@
         <v>355360</v>
       </c>
       <c r="Y236">
-        <v>615217</v>
+        <v>355360</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
@@ -18703,7 +18703,7 @@
         <v>431700</v>
       </c>
       <c r="Y237">
-        <v>645841</v>
+        <v>406632</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
@@ -18780,7 +18780,7 @@
         <v>405665</v>
       </c>
       <c r="Y238">
-        <v>765681</v>
+        <v>405665</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
@@ -18857,7 +18857,7 @@
         <v>349533</v>
       </c>
       <c r="Y239">
-        <v>745632</v>
+        <v>349533</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>417583</v>
       </c>
       <c r="Y240">
-        <v>749028</v>
+        <v>407723</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
@@ -19011,7 +19011,7 @@
         <v>358615</v>
       </c>
       <c r="Y241">
-        <v>636189</v>
+        <v>358615</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
@@ -19088,7 +19088,7 @@
         <v>1946415</v>
       </c>
       <c r="Y242">
-        <v>1961362</v>
+        <v>1946415</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
@@ -19165,7 +19165,7 @@
         <v>1930213</v>
       </c>
       <c r="Y243">
-        <v>1945883</v>
+        <v>1930213</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>1888967</v>
       </c>
       <c r="Y244">
-        <v>1904267</v>
+        <v>1888967</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
@@ -19319,7 +19319,7 @@
         <v>1931495</v>
       </c>
       <c r="Y245">
-        <v>1940779</v>
+        <v>1931495</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
@@ -19396,7 +19396,7 @@
         <v>1889237</v>
       </c>
       <c r="Y246">
-        <v>1904442</v>
+        <v>1889237</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
@@ -19473,7 +19473,7 @@
         <v>1948266</v>
       </c>
       <c r="Y247">
-        <v>1960697</v>
+        <v>1948266</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
@@ -19550,7 +19550,7 @@
         <v>1914919</v>
       </c>
       <c r="Y248">
-        <v>1928827</v>
+        <v>1914919</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
@@ -19627,7 +19627,7 @@
         <v>1987379</v>
       </c>
       <c r="Y249">
-        <v>2003384</v>
+        <v>1987379</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
@@ -19704,7 +19704,7 @@
         <v>1914115</v>
       </c>
       <c r="Y250">
-        <v>1928361</v>
+        <v>1914115</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
@@ -19781,7 +19781,7 @@
         <v>1935908</v>
       </c>
       <c r="Y251">
-        <v>1947991</v>
+        <v>1935908</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
@@ -19858,7 +19858,7 @@
         <v>1854733</v>
       </c>
       <c r="Y252">
-        <v>1922417</v>
+        <v>1854733</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
@@ -19935,7 +19935,7 @@
         <v>1786932</v>
       </c>
       <c r="Y253">
-        <v>1883334</v>
+        <v>1786932</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
@@ -20012,7 +20012,7 @@
         <v>1844617</v>
       </c>
       <c r="Y254">
-        <v>1927400</v>
+        <v>1844617</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
@@ -20089,7 +20089,7 @@
         <v>1868338</v>
       </c>
       <c r="Y255">
-        <v>1971430</v>
+        <v>1868338</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
@@ -20166,7 +20166,7 @@
         <v>1873364</v>
       </c>
       <c r="Y256">
-        <v>1969272</v>
+        <v>1873364</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
@@ -20243,7 +20243,7 @@
         <v>1840448</v>
       </c>
       <c r="Y257">
-        <v>1920888</v>
+        <v>1840448</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
@@ -20320,7 +20320,7 @@
         <v>1812864</v>
       </c>
       <c r="Y258">
-        <v>1898758</v>
+        <v>1812864</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
@@ -20397,7 +20397,7 @@
         <v>1893161</v>
       </c>
       <c r="Y259">
-        <v>1969943</v>
+        <v>1893161</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
@@ -20474,7 +20474,7 @@
         <v>1875796</v>
       </c>
       <c r="Y260">
-        <v>1980651</v>
+        <v>1875796</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
@@ -20551,7 +20551,7 @@
         <v>1728061</v>
       </c>
       <c r="Y261">
-        <v>1801670</v>
+        <v>1728061</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
@@ -20628,7 +20628,7 @@
         <v>1144058</v>
       </c>
       <c r="Y262">
-        <v>1492456</v>
+        <v>1144058</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
@@ -20705,7 +20705,7 @@
         <v>1191039</v>
       </c>
       <c r="Y263">
-        <v>1600291</v>
+        <v>1191039</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
@@ -20782,7 +20782,7 @@
         <v>1167831</v>
       </c>
       <c r="Y264">
-        <v>1554311</v>
+        <v>1167831</v>
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
@@ -20859,7 +20859,7 @@
         <v>1205621</v>
       </c>
       <c r="Y265">
-        <v>1570505</v>
+        <v>1205621</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
@@ -20936,7 +20936,7 @@
         <v>1189402</v>
       </c>
       <c r="Y266">
-        <v>1528589</v>
+        <v>1189402</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.3">
@@ -21013,7 +21013,7 @@
         <v>1147172</v>
       </c>
       <c r="Y267">
-        <v>1482259</v>
+        <v>1147172</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
@@ -21090,7 +21090,7 @@
         <v>1158464</v>
       </c>
       <c r="Y268">
-        <v>1398614</v>
+        <v>1158464</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
@@ -21167,7 +21167,7 @@
         <v>1176595</v>
       </c>
       <c r="Y269">
-        <v>1589278</v>
+        <v>1176595</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
@@ -21244,7 +21244,7 @@
         <v>1124231</v>
       </c>
       <c r="Y270">
-        <v>1430123</v>
+        <v>1124231</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
@@ -21321,7 +21321,7 @@
         <v>1141675</v>
       </c>
       <c r="Y271">
-        <v>1480009</v>
+        <v>1141675</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
@@ -21398,7 +21398,7 @@
         <v>400615</v>
       </c>
       <c r="Y272">
-        <v>1005432</v>
+        <v>400615</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
@@ -21475,7 +21475,7 @@
         <v>288306</v>
       </c>
       <c r="Y273">
-        <v>726547</v>
+        <v>288306</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
@@ -21552,7 +21552,7 @@
         <v>399776</v>
       </c>
       <c r="Y274">
-        <v>761919</v>
+        <v>399776</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.3">
@@ -21629,7 +21629,7 @@
         <v>326829</v>
       </c>
       <c r="Y275">
-        <v>833874</v>
+        <v>326829</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.3">
@@ -21706,7 +21706,7 @@
         <v>410355</v>
       </c>
       <c r="Y276">
-        <v>843916</v>
+        <v>410355</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
@@ -21783,7 +21783,7 @@
         <v>385021</v>
       </c>
       <c r="Y277">
-        <v>785286</v>
+        <v>385021</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
@@ -21860,7 +21860,7 @@
         <v>391435</v>
       </c>
       <c r="Y278">
-        <v>837181</v>
+        <v>391435</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
@@ -21937,7 +21937,7 @@
         <v>343515</v>
       </c>
       <c r="Y279">
-        <v>582474</v>
+        <v>343515</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
@@ -22014,7 +22014,7 @@
         <v>309168</v>
       </c>
       <c r="Y280">
-        <v>580265</v>
+        <v>309168</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
@@ -22091,7 +22091,7 @@
         <v>357158</v>
       </c>
       <c r="Y281">
-        <v>792267</v>
+        <v>357158</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.3">
@@ -22168,7 +22168,7 @@
         <v>1982801</v>
       </c>
       <c r="Y282">
-        <v>2002399</v>
+        <v>1982801</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
@@ -22245,7 +22245,7 @@
         <v>1967033</v>
       </c>
       <c r="Y283">
-        <v>1990360</v>
+        <v>1967033</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
@@ -22322,7 +22322,7 @@
         <v>1863397</v>
       </c>
       <c r="Y284">
-        <v>1885658</v>
+        <v>1863397</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
@@ -22399,7 +22399,7 @@
         <v>1927694</v>
       </c>
       <c r="Y285">
-        <v>1949879</v>
+        <v>1927694</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
@@ -22476,7 +22476,7 @@
         <v>1975298</v>
       </c>
       <c r="Y286">
-        <v>2003100</v>
+        <v>1975298</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
@@ -22553,7 +22553,7 @@
         <v>1916761</v>
       </c>
       <c r="Y287">
-        <v>1941126</v>
+        <v>1916761</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
@@ -22630,7 +22630,7 @@
         <v>2007930</v>
       </c>
       <c r="Y288">
-        <v>2038016</v>
+        <v>2007930</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
@@ -22707,7 +22707,7 @@
         <v>1941224</v>
       </c>
       <c r="Y289">
-        <v>1970068</v>
+        <v>1941224</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
@@ -22784,7 +22784,7 @@
         <v>1977838</v>
       </c>
       <c r="Y290">
-        <v>1998799</v>
+        <v>1977838</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
@@ -22861,7 +22861,7 @@
         <v>1974143</v>
       </c>
       <c r="Y291">
-        <v>2003256</v>
+        <v>1974143</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
@@ -22938,7 +22938,7 @@
         <v>1838167</v>
       </c>
       <c r="Y292">
-        <v>1977453</v>
+        <v>1838167</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
@@ -23015,7 +23015,7 @@
         <v>1866853</v>
       </c>
       <c r="Y293">
-        <v>1984537</v>
+        <v>1866853</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
@@ -23092,7 +23092,7 @@
         <v>1820140</v>
       </c>
       <c r="Y294">
-        <v>1965961</v>
+        <v>1820140</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
@@ -23169,7 +23169,7 @@
         <v>1855614</v>
       </c>
       <c r="Y295">
-        <v>2015808</v>
+        <v>1855614</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.3">
@@ -23246,7 +23246,7 @@
         <v>1759779</v>
       </c>
       <c r="Y296">
-        <v>1897576</v>
+        <v>1759779</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.3">
@@ -23323,7 +23323,7 @@
         <v>1916000</v>
       </c>
       <c r="Y297">
-        <v>2089545</v>
+        <v>1916000</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
@@ -23400,7 +23400,7 @@
         <v>1814356</v>
       </c>
       <c r="Y298">
-        <v>1971316</v>
+        <v>1814356</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
@@ -23477,7 +23477,7 @@
         <v>1803137</v>
       </c>
       <c r="Y299">
-        <v>1904375</v>
+        <v>1803137</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
@@ -23554,7 +23554,7 @@
         <v>1776130</v>
       </c>
       <c r="Y300">
-        <v>1915316</v>
+        <v>1776130</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
@@ -23631,7 +23631,7 @@
         <v>1899857</v>
       </c>
       <c r="Y301">
-        <v>1998199</v>
+        <v>1899857</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
@@ -23708,7 +23708,7 @@
         <v>1206194</v>
       </c>
       <c r="Y302">
-        <v>1666127</v>
+        <v>1206194</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
@@ -23785,7 +23785,7 @@
         <v>1231150</v>
       </c>
       <c r="Y303">
-        <v>1604119</v>
+        <v>1231150</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
@@ -23862,7 +23862,7 @@
         <v>1198820</v>
       </c>
       <c r="Y304">
-        <v>1546560</v>
+        <v>1198820</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
@@ -23939,7 +23939,7 @@
         <v>1116245</v>
       </c>
       <c r="Y305">
-        <v>1560500</v>
+        <v>1116245</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
@@ -24016,7 +24016,7 @@
         <v>1176451</v>
       </c>
       <c r="Y306">
-        <v>1766422</v>
+        <v>1176451</v>
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
@@ -24093,7 +24093,7 @@
         <v>1202255</v>
       </c>
       <c r="Y307">
-        <v>1622565</v>
+        <v>1202255</v>
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
@@ -24170,7 +24170,7 @@
         <v>1222330</v>
       </c>
       <c r="Y308">
-        <v>1520012</v>
+        <v>1222330</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
@@ -24247,7 +24247,7 @@
         <v>1171299</v>
       </c>
       <c r="Y309">
-        <v>1493673</v>
+        <v>1171299</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
@@ -24324,7 +24324,7 @@
         <v>1120453</v>
       </c>
       <c r="Y310">
-        <v>1458687</v>
+        <v>1120453</v>
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
@@ -24401,7 +24401,7 @@
         <v>1186065</v>
       </c>
       <c r="Y311">
-        <v>1594709</v>
+        <v>1186065</v>
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
@@ -24478,7 +24478,7 @@
         <v>374146</v>
       </c>
       <c r="Y312">
-        <v>770186</v>
+        <v>374146</v>
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
@@ -24555,7 +24555,7 @@
         <v>474110</v>
       </c>
       <c r="Y313">
-        <v>884504</v>
+        <v>474110</v>
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
@@ -24632,7 +24632,7 @@
         <v>344813</v>
       </c>
       <c r="Y314">
-        <v>999724</v>
+        <v>344813</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
@@ -24709,7 +24709,7 @@
         <v>328447</v>
       </c>
       <c r="Y315">
-        <v>911044</v>
+        <v>328447</v>
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
@@ -24786,7 +24786,7 @@
         <v>308172</v>
       </c>
       <c r="Y316">
-        <v>807855</v>
+        <v>308172</v>
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
@@ -24863,7 +24863,7 @@
         <v>355824</v>
       </c>
       <c r="Y317">
-        <v>657724</v>
+        <v>355824</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
@@ -24940,7 +24940,7 @@
         <v>382442</v>
       </c>
       <c r="Y318">
-        <v>764312</v>
+        <v>382442</v>
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
@@ -25017,7 +25017,7 @@
         <v>400356</v>
       </c>
       <c r="Y319">
-        <v>954883</v>
+        <v>400356</v>
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
@@ -25094,7 +25094,7 @@
         <v>299633</v>
       </c>
       <c r="Y320">
-        <v>579649</v>
+        <v>299633</v>
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
@@ -25171,7 +25171,7 @@
         <v>431614</v>
       </c>
       <c r="Y321">
-        <v>831470</v>
+        <v>431614</v>
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
         <v>2668349</v>
       </c>
       <c r="Y322">
-        <v>2667002</v>
+        <v>2665072</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
@@ -25325,7 +25325,7 @@
         <v>2875807</v>
       </c>
       <c r="Y323">
-        <v>2874039</v>
+        <v>2873664</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
@@ -25402,7 +25402,7 @@
         <v>2791772</v>
       </c>
       <c r="Y324">
-        <v>2789885</v>
+        <v>2788508</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
@@ -25479,7 +25479,7 @@
         <v>2808780</v>
       </c>
       <c r="Y325">
-        <v>2812719</v>
+        <v>2809521</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
@@ -25556,7 +25556,7 @@
         <v>2838873</v>
       </c>
       <c r="Y326">
-        <v>2836223</v>
+        <v>2838169</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
@@ -25633,7 +25633,7 @@
         <v>2967061</v>
       </c>
       <c r="Y327">
-        <v>2961399</v>
+        <v>2966306</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
@@ -25710,7 +25710,7 @@
         <v>2987674</v>
       </c>
       <c r="Y328">
-        <v>2987770</v>
+        <v>2990527</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
@@ -25787,7 +25787,7 @@
         <v>2906894</v>
       </c>
       <c r="Y329">
-        <v>2905959</v>
+        <v>2905793</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
@@ -25864,7 +25864,7 @@
         <v>2890239</v>
       </c>
       <c r="Y330">
-        <v>2890163</v>
+        <v>2892047</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
@@ -25941,7 +25941,7 @@
         <v>2889884</v>
       </c>
       <c r="Y331">
-        <v>2891931</v>
+        <v>2890010</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
@@ -26018,7 +26018,7 @@
         <v>2770760</v>
       </c>
       <c r="Y332">
-        <v>2764542</v>
+        <v>2777487</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
@@ -26095,7 +26095,7 @@
         <v>2753373</v>
       </c>
       <c r="Y333">
-        <v>2755198</v>
+        <v>2750815</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
@@ -26172,7 +26172,7 @@
         <v>2728594</v>
       </c>
       <c r="Y334">
-        <v>2722859</v>
+        <v>2722585</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
@@ -26249,7 +26249,7 @@
         <v>2519998</v>
       </c>
       <c r="Y335">
-        <v>2524498</v>
+        <v>2514323</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
@@ -26326,7 +26326,7 @@
         <v>2707405</v>
       </c>
       <c r="Y336">
-        <v>2700558</v>
+        <v>2709335</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
@@ -26403,7 +26403,7 @@
         <v>2591398</v>
       </c>
       <c r="Y337">
-        <v>2588733</v>
+        <v>2599340</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
@@ -26480,7 +26480,7 @@
         <v>2565079</v>
       </c>
       <c r="Y338">
-        <v>2556691</v>
+        <v>2565206</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
@@ -26557,7 +26557,7 @@
         <v>2492181</v>
       </c>
       <c r="Y339">
-        <v>2490575</v>
+        <v>2488668</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
@@ -26634,7 +26634,7 @@
         <v>2656826</v>
       </c>
       <c r="Y340">
-        <v>2650782</v>
+        <v>2662913</v>
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
@@ -26711,7 +26711,7 @@
         <v>2647183</v>
       </c>
       <c r="Y341">
-        <v>2659399</v>
+        <v>2645335</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
@@ -26788,7 +26788,7 @@
         <v>1824471</v>
       </c>
       <c r="Y342">
-        <v>1806867</v>
+        <v>1832215</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
@@ -26865,7 +26865,7 @@
         <v>1853471</v>
       </c>
       <c r="Y343">
-        <v>1824322</v>
+        <v>1889510</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
@@ -26942,7 +26942,7 @@
         <v>1820050</v>
       </c>
       <c r="Y344">
-        <v>1956816</v>
+        <v>1846833</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
@@ -27019,7 +27019,7 @@
         <v>1891486</v>
       </c>
       <c r="Y345">
-        <v>1781267</v>
+        <v>1885491</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
@@ -27096,7 +27096,7 @@
         <v>1753032</v>
       </c>
       <c r="Y346">
-        <v>1812848</v>
+        <v>1739345</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
@@ -27173,7 +27173,7 @@
         <v>1692603</v>
       </c>
       <c r="Y347">
-        <v>1711152</v>
+        <v>1621437</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
@@ -27250,7 +27250,7 @@
         <v>1844885</v>
       </c>
       <c r="Y348">
-        <v>1834875</v>
+        <v>1910694</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
@@ -27327,7 +27327,7 @@
         <v>1824329</v>
       </c>
       <c r="Y349">
-        <v>1840003</v>
+        <v>1798924</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
@@ -27404,7 +27404,7 @@
         <v>1889355</v>
       </c>
       <c r="Y350">
-        <v>1948363</v>
+        <v>1871661</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
@@ -27481,7 +27481,7 @@
         <v>1819519</v>
       </c>
       <c r="Y351">
-        <v>1778895</v>
+        <v>1817024</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
@@ -27558,7 +27558,7 @@
         <v>790055</v>
       </c>
       <c r="Y352">
-        <v>859134</v>
+        <v>843272</v>
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
@@ -27635,7 +27635,7 @@
         <v>610502</v>
       </c>
       <c r="Y353">
-        <v>776781</v>
+        <v>682569</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
@@ -27712,7 +27712,7 @@
         <v>818337</v>
       </c>
       <c r="Y354">
-        <v>903468</v>
+        <v>888398</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
@@ -27789,7 +27789,7 @@
         <v>748986</v>
       </c>
       <c r="Y355">
-        <v>799463</v>
+        <v>814114</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
@@ -27866,7 +27866,7 @@
         <v>724973</v>
       </c>
       <c r="Y356">
-        <v>676128</v>
+        <v>630336</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
@@ -27943,7 +27943,7 @@
         <v>603140</v>
       </c>
       <c r="Y357">
-        <v>817118</v>
+        <v>644128</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
@@ -28020,7 +28020,7 @@
         <v>697776</v>
       </c>
       <c r="Y358">
-        <v>786371</v>
+        <v>826037</v>
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.3">
@@ -28097,7 +28097,7 @@
         <v>891424</v>
       </c>
       <c r="Y359">
-        <v>793036</v>
+        <v>673332</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.3">
@@ -28174,7 +28174,7 @@
         <v>839416</v>
       </c>
       <c r="Y360">
-        <v>782241</v>
+        <v>610115</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.3">
@@ -28251,7 +28251,7 @@
         <v>775534</v>
       </c>
       <c r="Y361">
-        <v>666826</v>
+        <v>764480</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.3">
@@ -28328,7 +28328,7 @@
         <v>2884032</v>
       </c>
       <c r="Y362">
-        <v>2894916</v>
+        <v>2884032</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.3">
@@ -28405,7 +28405,7 @@
         <v>2972073</v>
       </c>
       <c r="Y363">
-        <v>2983649</v>
+        <v>2972073</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.3">
@@ -28482,7 +28482,7 @@
         <v>2868283</v>
       </c>
       <c r="Y364">
-        <v>2875857</v>
+        <v>2868283</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.3">
@@ -28559,7 +28559,7 @@
         <v>2925454</v>
       </c>
       <c r="Y365">
-        <v>2936909</v>
+        <v>2925454</v>
       </c>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.3">
@@ -28636,7 +28636,7 @@
         <v>2859833</v>
       </c>
       <c r="Y366">
-        <v>2867251</v>
+        <v>2859781</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.3">
@@ -28713,7 +28713,7 @@
         <v>2940585</v>
       </c>
       <c r="Y367">
-        <v>2948637</v>
+        <v>2940585</v>
       </c>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.3">
@@ -28790,7 +28790,7 @@
         <v>2905788</v>
       </c>
       <c r="Y368">
-        <v>2915819</v>
+        <v>2905788</v>
       </c>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.3">
@@ -28867,7 +28867,7 @@
         <v>2882032</v>
       </c>
       <c r="Y369">
-        <v>2893659</v>
+        <v>2882032</v>
       </c>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.3">
@@ -28944,7 +28944,7 @@
         <v>2913006</v>
       </c>
       <c r="Y370">
-        <v>2920107</v>
+        <v>2913006</v>
       </c>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.3">
@@ -29021,7 +29021,7 @@
         <v>2976458</v>
       </c>
       <c r="Y371">
-        <v>2983587</v>
+        <v>2976458</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.3">
@@ -29098,7 +29098,7 @@
         <v>2794328</v>
       </c>
       <c r="Y372">
-        <v>2851142</v>
+        <v>2794328</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.3">
@@ -29175,7 +29175,7 @@
         <v>2824007</v>
       </c>
       <c r="Y373">
-        <v>2876645</v>
+        <v>2824007</v>
       </c>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.3">
@@ -29252,7 +29252,7 @@
         <v>2747081</v>
       </c>
       <c r="Y374">
-        <v>2801148</v>
+        <v>2747081</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.3">
@@ -29329,7 +29329,7 @@
         <v>2764643</v>
       </c>
       <c r="Y375">
-        <v>2830541</v>
+        <v>2763631</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.3">
@@ -29406,7 +29406,7 @@
         <v>2761113</v>
       </c>
       <c r="Y376">
-        <v>2802184</v>
+        <v>2761113</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.3">
@@ -29483,7 +29483,7 @@
         <v>2678450</v>
       </c>
       <c r="Y377">
-        <v>2743973</v>
+        <v>2678099</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.3">
@@ -29560,7 +29560,7 @@
         <v>2751188</v>
       </c>
       <c r="Y378">
-        <v>2822827</v>
+        <v>2751188</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.3">
@@ -29637,7 +29637,7 @@
         <v>2676662</v>
       </c>
       <c r="Y379">
-        <v>2739906</v>
+        <v>2676662</v>
       </c>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.3">
@@ -29714,7 +29714,7 @@
         <v>2709344</v>
       </c>
       <c r="Y380">
-        <v>2769907</v>
+        <v>2709344</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.3">
@@ -29791,7 +29791,7 @@
         <v>2667545</v>
       </c>
       <c r="Y381">
-        <v>2720454</v>
+        <v>2667545</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.3">
@@ -29868,7 +29868,7 @@
         <v>1792361</v>
       </c>
       <c r="Y382">
-        <v>2105129</v>
+        <v>1792361</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.3">
@@ -29945,7 +29945,7 @@
         <v>1832191</v>
       </c>
       <c r="Y383">
-        <v>2188279</v>
+        <v>1822352</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.3">
@@ -30022,7 +30022,7 @@
         <v>1803150</v>
       </c>
       <c r="Y384">
-        <v>2162736</v>
+        <v>1803070</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.3">
@@ -30099,7 +30099,7 @@
         <v>1755720</v>
       </c>
       <c r="Y385">
-        <v>1971682</v>
+        <v>1755720</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.3">
@@ -30176,7 +30176,7 @@
         <v>1842080</v>
       </c>
       <c r="Y386">
-        <v>2057409</v>
+        <v>1842080</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.3">
@@ -30253,7 +30253,7 @@
         <v>1799955</v>
       </c>
       <c r="Y387">
-        <v>2128725</v>
+        <v>1799955</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.3">
@@ -30330,7 +30330,7 @@
         <v>1825931</v>
       </c>
       <c r="Y388">
-        <v>2084797</v>
+        <v>1825931</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.3">
@@ -30407,7 +30407,7 @@
         <v>1728210</v>
       </c>
       <c r="Y389">
-        <v>1977509</v>
+        <v>1728210</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.3">
@@ -30484,7 +30484,7 @@
         <v>1705146</v>
       </c>
       <c r="Y390">
-        <v>1999908</v>
+        <v>1705146</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.3">
@@ -30561,7 +30561,7 @@
         <v>1721337</v>
       </c>
       <c r="Y391">
-        <v>1991508</v>
+        <v>1721337</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>510428</v>
       </c>
       <c r="Y392">
-        <v>871866</v>
+        <v>510428</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.3">
@@ -30715,7 +30715,7 @@
         <v>469173</v>
       </c>
       <c r="Y393">
-        <v>827624</v>
+        <v>469173</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.3">
@@ -30792,7 +30792,7 @@
         <v>455784</v>
       </c>
       <c r="Y394">
-        <v>950053</v>
+        <v>455784</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.3">
@@ -30869,7 +30869,7 @@
         <v>529862</v>
       </c>
       <c r="Y395">
-        <v>944894</v>
+        <v>529862</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.3">
@@ -30946,7 +30946,7 @@
         <v>522000</v>
       </c>
       <c r="Y396">
-        <v>991878</v>
+        <v>522000</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.3">
@@ -31023,7 +31023,7 @@
         <v>558852</v>
       </c>
       <c r="Y397">
-        <v>914504</v>
+        <v>558852</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.3">
@@ -31100,7 +31100,7 @@
         <v>513312</v>
       </c>
       <c r="Y398">
-        <v>1002302</v>
+        <v>513312</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.3">
@@ -31177,7 +31177,7 @@
         <v>532977</v>
       </c>
       <c r="Y399">
-        <v>1105100</v>
+        <v>532977</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.3">
@@ -31254,7 +31254,7 @@
         <v>517498</v>
       </c>
       <c r="Y400">
-        <v>1015888</v>
+        <v>517498</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.3">
@@ -31331,7 +31331,7 @@
         <v>473732</v>
       </c>
       <c r="Y401">
-        <v>1086061</v>
+        <v>473732</v>
       </c>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.3">
@@ -31408,7 +31408,7 @@
         <v>2931457</v>
       </c>
       <c r="Y402">
-        <v>2951427</v>
+        <v>2931457</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.3">
@@ -31485,7 +31485,7 @@
         <v>2962243</v>
       </c>
       <c r="Y403">
-        <v>2986920</v>
+        <v>2962243</v>
       </c>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.3">
@@ -31562,7 +31562,7 @@
         <v>2897035</v>
       </c>
       <c r="Y404">
-        <v>2920441</v>
+        <v>2897035</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.3">
@@ -31639,7 +31639,7 @@
         <v>2906335</v>
       </c>
       <c r="Y405">
-        <v>2925415</v>
+        <v>2906335</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.3">
@@ -31716,7 +31716,7 @@
         <v>2817125</v>
       </c>
       <c r="Y406">
-        <v>2839623</v>
+        <v>2817125</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.3">
@@ -31793,7 +31793,7 @@
         <v>2928269</v>
       </c>
       <c r="Y407">
-        <v>2955040</v>
+        <v>2928269</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.3">
@@ -31870,7 +31870,7 @@
         <v>2910339</v>
       </c>
       <c r="Y408">
-        <v>2933655</v>
+        <v>2910339</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.3">
@@ -31947,7 +31947,7 @@
         <v>2902026</v>
       </c>
       <c r="Y409">
-        <v>2927572</v>
+        <v>2902026</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.3">
@@ -32024,7 +32024,7 @@
         <v>2922479</v>
       </c>
       <c r="Y410">
-        <v>2945726</v>
+        <v>2922479</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.3">
@@ -32101,7 +32101,7 @@
         <v>3005208</v>
       </c>
       <c r="Y411">
-        <v>3023112</v>
+        <v>3005208</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.3">
@@ -32178,7 +32178,7 @@
         <v>2693140</v>
       </c>
       <c r="Y412">
-        <v>2832418</v>
+        <v>2693140</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.3">
@@ -32255,7 +32255,7 @@
         <v>2734949</v>
       </c>
       <c r="Y413">
-        <v>2865491</v>
+        <v>2734949</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.3">
@@ -32332,7 +32332,7 @@
         <v>2742247</v>
       </c>
       <c r="Y414">
-        <v>2905008</v>
+        <v>2742247</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.3">
@@ -32409,7 +32409,7 @@
         <v>2715984</v>
       </c>
       <c r="Y415">
-        <v>2854791</v>
+        <v>2715984</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.3">
@@ -32486,7 +32486,7 @@
         <v>2645299</v>
       </c>
       <c r="Y416">
-        <v>2774593</v>
+        <v>2645299</v>
       </c>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.3">
@@ -32563,7 +32563,7 @@
         <v>2736880</v>
       </c>
       <c r="Y417">
-        <v>2883413</v>
+        <v>2736880</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.3">
@@ -32640,7 +32640,7 @@
         <v>2713334</v>
       </c>
       <c r="Y418">
-        <v>2865663</v>
+        <v>2713334</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.3">
@@ -32717,7 +32717,7 @@
         <v>2736996</v>
       </c>
       <c r="Y419">
-        <v>2843008</v>
+        <v>2736996</v>
       </c>
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.3">
@@ -32794,7 +32794,7 @@
         <v>2717029</v>
       </c>
       <c r="Y420">
-        <v>2831192</v>
+        <v>2717029</v>
       </c>
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.3">
@@ -32871,7 +32871,7 @@
         <v>2773988</v>
       </c>
       <c r="Y421">
-        <v>2920578</v>
+        <v>2773988</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.3">
@@ -32948,7 +32948,7 @@
         <v>1850835</v>
       </c>
       <c r="Y422">
-        <v>2273342</v>
+        <v>1850835</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.3">
@@ -33025,7 +33025,7 @@
         <v>1786005</v>
       </c>
       <c r="Y423">
-        <v>2329115</v>
+        <v>1786005</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.3">
@@ -33102,7 +33102,7 @@
         <v>1779153</v>
       </c>
       <c r="Y424">
-        <v>2246796</v>
+        <v>1779153</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.3">
@@ -33179,7 +33179,7 @@
         <v>1754168</v>
       </c>
       <c r="Y425">
-        <v>2141689</v>
+        <v>1754168</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.3">
@@ -33256,7 +33256,7 @@
         <v>1697136</v>
       </c>
       <c r="Y426">
-        <v>2195368</v>
+        <v>1697136</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.3">
@@ -33333,7 +33333,7 @@
         <v>1770774</v>
       </c>
       <c r="Y427">
-        <v>2130942</v>
+        <v>1770774</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.3">
@@ -33410,7 +33410,7 @@
         <v>1824446</v>
       </c>
       <c r="Y428">
-        <v>2419718</v>
+        <v>1824446</v>
       </c>
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.3">
@@ -33487,7 +33487,7 @@
         <v>1779139</v>
       </c>
       <c r="Y429">
-        <v>2245500</v>
+        <v>1779139</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.3">
@@ -33564,7 +33564,7 @@
         <v>1722239</v>
       </c>
       <c r="Y430">
-        <v>2153565</v>
+        <v>1722239</v>
       </c>
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.3">
@@ -33641,7 +33641,7 @@
         <v>1756563</v>
       </c>
       <c r="Y431">
-        <v>2225278</v>
+        <v>1756563</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.3">
@@ -33718,7 +33718,7 @@
         <v>526458</v>
       </c>
       <c r="Y432">
-        <v>1116337</v>
+        <v>526458</v>
       </c>
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.3">
@@ -33795,7 +33795,7 @@
         <v>450442</v>
       </c>
       <c r="Y433">
-        <v>901654</v>
+        <v>450442</v>
       </c>
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.3">
@@ -33872,7 +33872,7 @@
         <v>386989</v>
       </c>
       <c r="Y434">
-        <v>861862</v>
+        <v>386989</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.3">
@@ -33949,7 +33949,7 @@
         <v>597510</v>
       </c>
       <c r="Y435">
-        <v>1276196</v>
+        <v>597510</v>
       </c>
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.3">
@@ -34026,7 +34026,7 @@
         <v>549188</v>
       </c>
       <c r="Y436">
-        <v>985322</v>
+        <v>549188</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.3">
@@ -34103,7 +34103,7 @@
         <v>490887</v>
       </c>
       <c r="Y437">
-        <v>986286</v>
+        <v>490887</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.3">
@@ -34180,7 +34180,7 @@
         <v>456340</v>
       </c>
       <c r="Y438">
-        <v>846459</v>
+        <v>456340</v>
       </c>
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.3">
@@ -34257,7 +34257,7 @@
         <v>655027</v>
       </c>
       <c r="Y439">
-        <v>1018595</v>
+        <v>655027</v>
       </c>
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.3">
@@ -34334,7 +34334,7 @@
         <v>510946</v>
       </c>
       <c r="Y440">
-        <v>1244681</v>
+        <v>510946</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.3">
@@ -34411,7 +34411,7 @@
         <v>530774</v>
       </c>
       <c r="Y441">
-        <v>930231</v>
+        <v>530774</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.3">
@@ -34488,7 +34488,7 @@
         <v>2909450</v>
       </c>
       <c r="Y442">
-        <v>2948908</v>
+        <v>2909450</v>
       </c>
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.3">
@@ -34565,7 +34565,7 @@
         <v>2906594</v>
       </c>
       <c r="Y443">
-        <v>2949922</v>
+        <v>2906594</v>
       </c>
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.3">
@@ -34642,7 +34642,7 @@
         <v>2915705</v>
       </c>
       <c r="Y444">
-        <v>2942049</v>
+        <v>2915705</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.3">
@@ -34719,7 +34719,7 @@
         <v>2897947</v>
       </c>
       <c r="Y445">
-        <v>2929051</v>
+        <v>2897947</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.3">
@@ -34796,7 +34796,7 @@
         <v>2996494</v>
       </c>
       <c r="Y446">
-        <v>3029877</v>
+        <v>2996494</v>
       </c>
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.3">
@@ -34873,7 +34873,7 @@
         <v>2950789</v>
       </c>
       <c r="Y447">
-        <v>2995586</v>
+        <v>2950789</v>
       </c>
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.3">
@@ -34950,7 +34950,7 @@
         <v>2980631</v>
       </c>
       <c r="Y448">
-        <v>3026473</v>
+        <v>2980631</v>
       </c>
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.3">
@@ -35027,7 +35027,7 @@
         <v>2927837</v>
       </c>
       <c r="Y449">
-        <v>2966567</v>
+        <v>2927837</v>
       </c>
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.3">
@@ -35104,7 +35104,7 @@
         <v>2934141</v>
       </c>
       <c r="Y450">
-        <v>2975534</v>
+        <v>2934141</v>
       </c>
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.3">
@@ -35181,7 +35181,7 @@
         <v>2911505</v>
       </c>
       <c r="Y451">
-        <v>2951271</v>
+        <v>2911505</v>
       </c>
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.3">
@@ -35258,7 +35258,7 @@
         <v>2832512</v>
       </c>
       <c r="Y452">
-        <v>3036897</v>
+        <v>2832512</v>
       </c>
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.3">
@@ -35335,7 +35335,7 @@
         <v>2705959</v>
       </c>
       <c r="Y453">
-        <v>2913824</v>
+        <v>2705959</v>
       </c>
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.3">
@@ -35412,7 +35412,7 @@
         <v>2707878</v>
       </c>
       <c r="Y454">
-        <v>2870680</v>
+        <v>2707878</v>
       </c>
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.3">
@@ -35489,7 +35489,7 @@
         <v>2818448</v>
       </c>
       <c r="Y455">
-        <v>3010839</v>
+        <v>2818448</v>
       </c>
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.3">
@@ -35566,7 +35566,7 @@
         <v>2704920</v>
       </c>
       <c r="Y456">
-        <v>2888604</v>
+        <v>2704920</v>
       </c>
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.3">
@@ -35643,7 +35643,7 @@
         <v>2760240</v>
       </c>
       <c r="Y457">
-        <v>2967909</v>
+        <v>2760240</v>
       </c>
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.3">
@@ -35720,7 +35720,7 @@
         <v>2767504</v>
       </c>
       <c r="Y458">
-        <v>3028344</v>
+        <v>2767504</v>
       </c>
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.3">
@@ -35797,7 +35797,7 @@
         <v>2697206</v>
       </c>
       <c r="Y459">
-        <v>2901482</v>
+        <v>2697206</v>
       </c>
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.3">
@@ -35874,7 +35874,7 @@
         <v>2801211</v>
       </c>
       <c r="Y460">
-        <v>3005614</v>
+        <v>2801211</v>
       </c>
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.3">
@@ -35951,7 +35951,7 @@
         <v>2769600</v>
       </c>
       <c r="Y461">
-        <v>3008487</v>
+        <v>2769600</v>
       </c>
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.3">
@@ -36028,7 +36028,7 @@
         <v>1757621</v>
       </c>
       <c r="Y462">
-        <v>2266754</v>
+        <v>1757621</v>
       </c>
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.3">
@@ -36105,7 +36105,7 @@
         <v>1693233</v>
       </c>
       <c r="Y463">
-        <v>2070684</v>
+        <v>1693233</v>
       </c>
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.3">
@@ -36182,7 +36182,7 @@
         <v>1769924</v>
       </c>
       <c r="Y464">
-        <v>2252444</v>
+        <v>1769924</v>
       </c>
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.3">
@@ -36259,7 +36259,7 @@
         <v>1739448</v>
       </c>
       <c r="Y465">
-        <v>2231452</v>
+        <v>1739448</v>
       </c>
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.3">
@@ -36336,7 +36336,7 @@
         <v>1768839</v>
       </c>
       <c r="Y466">
-        <v>2103398</v>
+        <v>1768839</v>
       </c>
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.3">
@@ -36413,7 +36413,7 @@
         <v>1751668</v>
       </c>
       <c r="Y467">
-        <v>2262036</v>
+        <v>1751668</v>
       </c>
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.3">
@@ -36490,7 +36490,7 @@
         <v>1893530</v>
       </c>
       <c r="Y468">
-        <v>2373348</v>
+        <v>1893530</v>
       </c>
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.3">
@@ -36567,7 +36567,7 @@
         <v>1733027</v>
       </c>
       <c r="Y469">
-        <v>2122346</v>
+        <v>1733027</v>
       </c>
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.3">
@@ -36644,7 +36644,7 @@
         <v>1792920</v>
       </c>
       <c r="Y470">
-        <v>2251477</v>
+        <v>1792920</v>
       </c>
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.3">
@@ -36721,7 +36721,7 @@
         <v>1708362</v>
       </c>
       <c r="Y471">
-        <v>2329610</v>
+        <v>1708362</v>
       </c>
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.3">
@@ -36798,7 +36798,7 @@
         <v>481806</v>
       </c>
       <c r="Y472">
-        <v>903430</v>
+        <v>481806</v>
       </c>
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.3">
@@ -36875,7 +36875,7 @@
         <v>469882</v>
       </c>
       <c r="Y473">
-        <v>838124</v>
+        <v>469882</v>
       </c>
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.3">
@@ -36952,7 +36952,7 @@
         <v>610931</v>
       </c>
       <c r="Y474">
-        <v>997902</v>
+        <v>610931</v>
       </c>
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.3">
@@ -37029,7 +37029,7 @@
         <v>524405</v>
       </c>
       <c r="Y475">
-        <v>962415</v>
+        <v>524405</v>
       </c>
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.3">
@@ -37106,7 +37106,7 @@
         <v>593080</v>
       </c>
       <c r="Y476">
-        <v>1170967</v>
+        <v>593080</v>
       </c>
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.3">
@@ -37183,7 +37183,7 @@
         <v>585517</v>
       </c>
       <c r="Y477">
-        <v>1101611</v>
+        <v>585517</v>
       </c>
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.3">
@@ -37260,7 +37260,7 @@
         <v>516779</v>
       </c>
       <c r="Y478">
-        <v>1151748</v>
+        <v>516779</v>
       </c>
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.3">
@@ -37337,7 +37337,7 @@
         <v>431656</v>
       </c>
       <c r="Y479">
-        <v>1179948</v>
+        <v>431656</v>
       </c>
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.3">
@@ -37414,7 +37414,7 @@
         <v>648277</v>
       </c>
       <c r="Y480">
-        <v>1038641</v>
+        <v>648277</v>
       </c>
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.3">
@@ -37491,7 +37491,7 @@
         <v>572673</v>
       </c>
       <c r="Y481">
-        <v>1213812</v>
+        <v>572673</v>
       </c>
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.3">
@@ -37568,7 +37568,7 @@
         <v>5028103</v>
       </c>
       <c r="Y482">
-        <v>5027685</v>
+        <v>5025973</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.3">
@@ -37645,7 +37645,7 @@
         <v>4741381</v>
       </c>
       <c r="Y483">
-        <v>4742798</v>
+        <v>4740635</v>
       </c>
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.3">
@@ -37722,7 +37722,7 @@
         <v>4889347</v>
       </c>
       <c r="Y484">
-        <v>4893241</v>
+        <v>4890171</v>
       </c>
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.3">
@@ -37799,7 +37799,7 @@
         <v>4876869</v>
       </c>
       <c r="Y485">
-        <v>4877860</v>
+        <v>4874129</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.3">
@@ -37876,7 +37876,7 @@
         <v>4876622</v>
       </c>
       <c r="Y486">
-        <v>4875677</v>
+        <v>4875642</v>
       </c>
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.3">
@@ -37953,7 +37953,7 @@
         <v>4917501</v>
       </c>
       <c r="Y487">
-        <v>4919614</v>
+        <v>4917199</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.3">
@@ -38030,7 +38030,7 @@
         <v>4868776</v>
       </c>
       <c r="Y488">
-        <v>4867582</v>
+        <v>4866373</v>
       </c>
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.3">
@@ -38107,7 +38107,7 @@
         <v>4719545</v>
       </c>
       <c r="Y489">
-        <v>4719440</v>
+        <v>4725511</v>
       </c>
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.3">
@@ -38184,7 +38184,7 @@
         <v>4930344</v>
       </c>
       <c r="Y490">
-        <v>4932376</v>
+        <v>4930740</v>
       </c>
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.3">
@@ -38261,7 +38261,7 @@
         <v>4913404</v>
       </c>
       <c r="Y491">
-        <v>4916695</v>
+        <v>4914472</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.3">
@@ -38338,7 +38338,7 @@
         <v>4490572</v>
       </c>
       <c r="Y492">
-        <v>4490172</v>
+        <v>4505781</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.3">
@@ -38415,7 +38415,7 @@
         <v>4619016</v>
       </c>
       <c r="Y493">
-        <v>4621969</v>
+        <v>4642261</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.3">
@@ -38492,7 +38492,7 @@
         <v>4615664</v>
       </c>
       <c r="Y494">
-        <v>4616618</v>
+        <v>4608748</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.3">
@@ -38569,7 +38569,7 @@
         <v>4622864</v>
       </c>
       <c r="Y495">
-        <v>4620313</v>
+        <v>4617605</v>
       </c>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.3">
@@ -38646,7 +38646,7 @@
         <v>4532350</v>
       </c>
       <c r="Y496">
-        <v>4524723</v>
+        <v>4536496</v>
       </c>
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.3">
@@ -38723,7 +38723,7 @@
         <v>4229551</v>
       </c>
       <c r="Y497">
-        <v>4217215</v>
+        <v>4224264</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.3">
@@ -38800,7 +38800,7 @@
         <v>4639764</v>
       </c>
       <c r="Y498">
-        <v>4646881</v>
+        <v>4636071</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.3">
@@ -38877,7 +38877,7 @@
         <v>4597387</v>
       </c>
       <c r="Y499">
-        <v>4592589</v>
+        <v>4601937</v>
       </c>
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.3">
@@ -38954,7 +38954,7 @@
         <v>4596760</v>
       </c>
       <c r="Y500">
-        <v>4613965</v>
+        <v>4590180</v>
       </c>
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.3">
@@ -39031,7 +39031,7 @@
         <v>4445322</v>
       </c>
       <c r="Y501">
-        <v>4469463</v>
+        <v>4452096</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.3">
@@ -39108,7 +39108,7 @@
         <v>2926519</v>
       </c>
       <c r="Y502">
-        <v>3025407</v>
+        <v>2962692</v>
       </c>
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.3">
@@ -39185,7 +39185,7 @@
         <v>3081529</v>
       </c>
       <c r="Y503">
-        <v>3046428</v>
+        <v>3175150</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.3">
@@ -39262,7 +39262,7 @@
         <v>2959001</v>
       </c>
       <c r="Y504">
-        <v>2940886</v>
+        <v>2993494</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.3">
@@ -39339,7 +39339,7 @@
         <v>3026994</v>
       </c>
       <c r="Y505">
-        <v>3013635</v>
+        <v>3033470</v>
       </c>
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.3">
@@ -39416,7 +39416,7 @@
         <v>2924355</v>
       </c>
       <c r="Y506">
-        <v>3029960</v>
+        <v>2959050</v>
       </c>
     </row>
     <row r="507" spans="1:25" x14ac:dyDescent="0.3">
@@ -39493,7 +39493,7 @@
         <v>3034541</v>
       </c>
       <c r="Y507">
-        <v>3073129</v>
+        <v>3048901</v>
       </c>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.3">
@@ -39570,7 +39570,7 @@
         <v>3065465</v>
       </c>
       <c r="Y508">
-        <v>3062993</v>
+        <v>2984508</v>
       </c>
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.3">
@@ -39647,7 +39647,7 @@
         <v>2928767</v>
       </c>
       <c r="Y509">
-        <v>2982377</v>
+        <v>3084773</v>
       </c>
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.3">
@@ -39724,7 +39724,7 @@
         <v>2914612</v>
       </c>
       <c r="Y510">
-        <v>2888924</v>
+        <v>2802887</v>
       </c>
     </row>
     <row r="511" spans="1:25" x14ac:dyDescent="0.3">
@@ -39801,7 +39801,7 @@
         <v>3031789</v>
       </c>
       <c r="Y511">
-        <v>3080272</v>
+        <v>3204953</v>
       </c>
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.3">
@@ -39878,7 +39878,7 @@
         <v>1076129</v>
       </c>
       <c r="Y512">
-        <v>1087885</v>
+        <v>1192623</v>
       </c>
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.3">
@@ -39955,7 +39955,7 @@
         <v>1172627</v>
       </c>
       <c r="Y513">
-        <v>1391659</v>
+        <v>1647784</v>
       </c>
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.3">
@@ -40032,7 +40032,7 @@
         <v>1239383</v>
       </c>
       <c r="Y514">
-        <v>1174377</v>
+        <v>1087246</v>
       </c>
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.3">
@@ -40109,7 +40109,7 @@
         <v>1007251</v>
       </c>
       <c r="Y515">
-        <v>1024265</v>
+        <v>759306</v>
       </c>
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.3">
@@ -40186,7 +40186,7 @@
         <v>1409355</v>
       </c>
       <c r="Y516">
-        <v>1200320</v>
+        <v>1395467</v>
       </c>
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.3">
@@ -40263,7 +40263,7 @@
         <v>1334319</v>
       </c>
       <c r="Y517">
-        <v>1364474</v>
+        <v>1275864</v>
       </c>
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.3">
@@ -40340,7 +40340,7 @@
         <v>1099649</v>
       </c>
       <c r="Y518">
-        <v>1211663</v>
+        <v>1579053</v>
       </c>
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.3">
@@ -40417,7 +40417,7 @@
         <v>1175129</v>
       </c>
       <c r="Y519">
-        <v>1110847</v>
+        <v>1311403</v>
       </c>
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.3">
@@ -40494,7 +40494,7 @@
         <v>1262499</v>
       </c>
       <c r="Y520">
-        <v>1259712</v>
+        <v>1007652</v>
       </c>
     </row>
     <row r="521" spans="1:25" x14ac:dyDescent="0.3">
@@ -40571,7 +40571,7 @@
         <v>1085410</v>
       </c>
       <c r="Y521">
-        <v>1253768</v>
+        <v>1230157</v>
       </c>
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.3">
@@ -40648,7 +40648,7 @@
         <v>4893207</v>
       </c>
       <c r="Y522">
-        <v>4914253</v>
+        <v>4893207</v>
       </c>
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.3">
@@ -40725,7 +40725,7 @@
         <v>4928340</v>
       </c>
       <c r="Y523">
-        <v>4948316</v>
+        <v>4928340</v>
       </c>
     </row>
     <row r="524" spans="1:25" x14ac:dyDescent="0.3">
@@ -40802,7 +40802,7 @@
         <v>4910874</v>
       </c>
       <c r="Y524">
-        <v>4925728</v>
+        <v>4910874</v>
       </c>
     </row>
     <row r="525" spans="1:25" x14ac:dyDescent="0.3">
@@ -40879,7 +40879,7 @@
         <v>4887690</v>
       </c>
       <c r="Y525">
-        <v>4901795</v>
+        <v>4887690</v>
       </c>
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.3">
@@ -40956,7 +40956,7 @@
         <v>4890419</v>
       </c>
       <c r="Y526">
-        <v>4907825</v>
+        <v>4890419</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.3">
@@ -41033,7 +41033,7 @@
         <v>4843702</v>
       </c>
       <c r="Y527">
-        <v>4859853</v>
+        <v>4843702</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.3">
@@ -41110,7 +41110,7 @@
         <v>4928729</v>
       </c>
       <c r="Y528">
-        <v>4950215</v>
+        <v>4928729</v>
       </c>
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.3">
@@ -41187,7 +41187,7 @@
         <v>4746812</v>
       </c>
       <c r="Y529">
-        <v>4764937</v>
+        <v>4746812</v>
       </c>
     </row>
     <row r="530" spans="1:25" x14ac:dyDescent="0.3">
@@ -41264,7 +41264,7 @@
         <v>4993894</v>
       </c>
       <c r="Y530">
-        <v>5012340</v>
+        <v>4993894</v>
       </c>
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.3">
@@ -41341,7 +41341,7 @@
         <v>4911510</v>
       </c>
       <c r="Y531">
-        <v>4927611</v>
+        <v>4911510</v>
       </c>
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.3">
@@ -41418,7 +41418,7 @@
         <v>4530829</v>
       </c>
       <c r="Y532">
-        <v>4620388</v>
+        <v>4530829</v>
       </c>
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.3">
@@ -41495,7 +41495,7 @@
         <v>4505703</v>
       </c>
       <c r="Y533">
-        <v>4614941</v>
+        <v>4505703</v>
       </c>
     </row>
     <row r="534" spans="1:25" x14ac:dyDescent="0.3">
@@ -41572,7 +41572,7 @@
         <v>4593476</v>
       </c>
       <c r="Y534">
-        <v>4710076</v>
+        <v>4593476</v>
       </c>
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.3">
@@ -41649,7 +41649,7 @@
         <v>4488298</v>
       </c>
       <c r="Y535">
-        <v>4600865</v>
+        <v>4488298</v>
       </c>
     </row>
     <row r="536" spans="1:25" x14ac:dyDescent="0.3">
@@ -41726,7 +41726,7 @@
         <v>4605509</v>
       </c>
       <c r="Y536">
-        <v>4715719</v>
+        <v>4605509</v>
       </c>
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.3">
@@ -41803,7 +41803,7 @@
         <v>4524892</v>
       </c>
       <c r="Y537">
-        <v>4611653</v>
+        <v>4524892</v>
       </c>
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.3">
@@ -41880,7 +41880,7 @@
         <v>4642395</v>
       </c>
       <c r="Y538">
-        <v>4709051</v>
+        <v>4642395</v>
       </c>
     </row>
     <row r="539" spans="1:25" x14ac:dyDescent="0.3">
@@ -41957,7 +41957,7 @@
         <v>4477600</v>
       </c>
       <c r="Y539">
-        <v>4559833</v>
+        <v>4477600</v>
       </c>
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.3">
@@ -42034,7 +42034,7 @@
         <v>4514793</v>
       </c>
       <c r="Y540">
-        <v>4612932</v>
+        <v>4514793</v>
       </c>
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.3">
@@ -42111,7 +42111,7 @@
         <v>4472195</v>
       </c>
       <c r="Y541">
-        <v>4565338</v>
+        <v>4472195</v>
       </c>
     </row>
     <row r="542" spans="1:25" x14ac:dyDescent="0.3">
@@ -42188,7 +42188,7 @@
         <v>2984759</v>
       </c>
       <c r="Y542">
-        <v>3313869</v>
+        <v>2984759</v>
       </c>
     </row>
     <row r="543" spans="1:25" x14ac:dyDescent="0.3">
@@ -42265,7 +42265,7 @@
         <v>2869972</v>
       </c>
       <c r="Y543">
-        <v>3145389</v>
+        <v>2869972</v>
       </c>
     </row>
     <row r="544" spans="1:25" x14ac:dyDescent="0.3">
@@ -42342,7 +42342,7 @@
         <v>2987076</v>
       </c>
       <c r="Y544">
-        <v>3444070</v>
+        <v>2987076</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.3">
@@ -42419,7 +42419,7 @@
         <v>2906295</v>
       </c>
       <c r="Y545">
-        <v>3329389</v>
+        <v>2906295</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.3">
@@ -42496,7 +42496,7 @@
         <v>2828067</v>
       </c>
       <c r="Y546">
-        <v>3283270</v>
+        <v>2828067</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.3">
@@ -42573,7 +42573,7 @@
         <v>2923685</v>
       </c>
       <c r="Y547">
-        <v>3361715</v>
+        <v>2923685</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.3">
@@ -42650,7 +42650,7 @@
         <v>2945828</v>
       </c>
       <c r="Y548">
-        <v>3305429</v>
+        <v>2945828</v>
       </c>
     </row>
     <row r="549" spans="1:25" x14ac:dyDescent="0.3">
@@ -42727,7 +42727,7 @@
         <v>2930737</v>
       </c>
       <c r="Y549">
-        <v>3416392</v>
+        <v>2930737</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.3">
@@ -42804,7 +42804,7 @@
         <v>2858482</v>
       </c>
       <c r="Y550">
-        <v>3245177</v>
+        <v>2858482</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.3">
@@ -42881,7 +42881,7 @@
         <v>2863306</v>
       </c>
       <c r="Y551">
-        <v>3304030</v>
+        <v>2863306</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.3">
@@ -42958,7 +42958,7 @@
         <v>802801</v>
       </c>
       <c r="Y552">
-        <v>1331439</v>
+        <v>802801</v>
       </c>
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.3">
@@ -43035,7 +43035,7 @@
         <v>972733</v>
       </c>
       <c r="Y553">
-        <v>1491115</v>
+        <v>972733</v>
       </c>
     </row>
     <row r="554" spans="1:25" x14ac:dyDescent="0.3">
@@ -43112,7 +43112,7 @@
         <v>777124</v>
       </c>
       <c r="Y554">
-        <v>1448646</v>
+        <v>777124</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.3">
@@ -43189,7 +43189,7 @@
         <v>953373</v>
       </c>
       <c r="Y555">
-        <v>1459406</v>
+        <v>953373</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.3">
@@ -43266,7 +43266,7 @@
         <v>990550</v>
       </c>
       <c r="Y556">
-        <v>1634781</v>
+        <v>990550</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.3">
@@ -43343,7 +43343,7 @@
         <v>1008315</v>
       </c>
       <c r="Y557">
-        <v>1633341</v>
+        <v>1008315</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.3">
@@ -43420,7 +43420,7 @@
         <v>931767</v>
       </c>
       <c r="Y558">
-        <v>1387646</v>
+        <v>931767</v>
       </c>
     </row>
     <row r="559" spans="1:25" x14ac:dyDescent="0.3">
@@ -43497,7 +43497,7 @@
         <v>996556</v>
       </c>
       <c r="Y559">
-        <v>1482570</v>
+        <v>996556</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.3">
@@ -43574,7 +43574,7 @@
         <v>891018</v>
       </c>
       <c r="Y560">
-        <v>1357757</v>
+        <v>891018</v>
       </c>
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.3">
@@ -43651,7 +43651,7 @@
         <v>817577</v>
       </c>
       <c r="Y561">
-        <v>1516769</v>
+        <v>817577</v>
       </c>
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.3">
@@ -43728,7 +43728,7 @@
         <v>4951986</v>
       </c>
       <c r="Y562">
-        <v>4999335</v>
+        <v>4951986</v>
       </c>
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.3">
@@ -43805,7 +43805,7 @@
         <v>4937754</v>
       </c>
       <c r="Y563">
-        <v>4982247</v>
+        <v>4937754</v>
       </c>
     </row>
     <row r="564" spans="1:25" x14ac:dyDescent="0.3">
@@ -43882,7 +43882,7 @@
         <v>4919047</v>
       </c>
       <c r="Y564">
-        <v>4967668</v>
+        <v>4919047</v>
       </c>
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.3">
@@ -43959,7 +43959,7 @@
         <v>4824973</v>
       </c>
       <c r="Y565">
-        <v>4871081</v>
+        <v>4824973</v>
       </c>
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.3">
@@ -44036,7 +44036,7 @@
         <v>4797286</v>
       </c>
       <c r="Y566">
-        <v>4840361</v>
+        <v>4797286</v>
       </c>
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.3">
@@ -44113,7 +44113,7 @@
         <v>4949339</v>
       </c>
       <c r="Y567">
-        <v>4992294</v>
+        <v>4949339</v>
       </c>
     </row>
     <row r="568" spans="1:25" x14ac:dyDescent="0.3">
@@ -44190,7 +44190,7 @@
         <v>4958932</v>
       </c>
       <c r="Y568">
-        <v>4999094</v>
+        <v>4958932</v>
       </c>
     </row>
     <row r="569" spans="1:25" x14ac:dyDescent="0.3">
@@ -44267,7 +44267,7 @@
         <v>4939664</v>
       </c>
       <c r="Y569">
-        <v>4982937</v>
+        <v>4939664</v>
       </c>
     </row>
     <row r="570" spans="1:25" x14ac:dyDescent="0.3">
@@ -44344,7 +44344,7 @@
         <v>4918329</v>
       </c>
       <c r="Y570">
-        <v>4958810</v>
+        <v>4918329</v>
       </c>
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.3">
@@ -44421,7 +44421,7 @@
         <v>4917717</v>
       </c>
       <c r="Y571">
-        <v>4961079</v>
+        <v>4917717</v>
       </c>
     </row>
     <row r="572" spans="1:25" x14ac:dyDescent="0.3">
@@ -44498,7 +44498,7 @@
         <v>4550152</v>
       </c>
       <c r="Y572">
-        <v>4818713</v>
+        <v>4550152</v>
       </c>
     </row>
     <row r="573" spans="1:25" x14ac:dyDescent="0.3">
@@ -44575,7 +44575,7 @@
         <v>4596871</v>
       </c>
       <c r="Y573">
-        <v>4860692</v>
+        <v>4596871</v>
       </c>
     </row>
     <row r="574" spans="1:25" x14ac:dyDescent="0.3">
@@ -44652,7 +44652,7 @@
         <v>4571401</v>
       </c>
       <c r="Y574">
-        <v>4847576</v>
+        <v>4571401</v>
       </c>
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.3">
@@ -44729,7 +44729,7 @@
         <v>4530186</v>
       </c>
       <c r="Y575">
-        <v>4770172</v>
+        <v>4530186</v>
       </c>
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.3">
@@ -44806,7 +44806,7 @@
         <v>4510322</v>
       </c>
       <c r="Y576">
-        <v>4817463</v>
+        <v>4510322</v>
       </c>
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.3">
@@ -44883,7 +44883,7 @@
         <v>4465425</v>
       </c>
       <c r="Y577">
-        <v>4664545</v>
+        <v>4465425</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.3">
@@ -44960,7 +44960,7 @@
         <v>4629616</v>
       </c>
       <c r="Y578">
-        <v>4854531</v>
+        <v>4629616</v>
       </c>
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.3">
@@ -45037,7 +45037,7 @@
         <v>4722333</v>
       </c>
       <c r="Y579">
-        <v>5015230</v>
+        <v>4722333</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.3">
@@ -45114,7 +45114,7 @@
         <v>4681577</v>
       </c>
       <c r="Y580">
-        <v>4854408</v>
+        <v>4681577</v>
       </c>
     </row>
     <row r="581" spans="1:25" x14ac:dyDescent="0.3">
@@ -45191,7 +45191,7 @@
         <v>4579264</v>
       </c>
       <c r="Y581">
-        <v>4831369</v>
+        <v>4579264</v>
       </c>
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.3">
@@ -45268,7 +45268,7 @@
         <v>2878890</v>
       </c>
       <c r="Y582">
-        <v>3570686</v>
+        <v>2878890</v>
       </c>
     </row>
     <row r="583" spans="1:25" x14ac:dyDescent="0.3">
@@ -45345,7 +45345,7 @@
         <v>2912910</v>
       </c>
       <c r="Y583">
-        <v>3447802</v>
+        <v>2912910</v>
       </c>
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.3">
@@ -45422,7 +45422,7 @@
         <v>2880459</v>
       </c>
       <c r="Y584">
-        <v>3559736</v>
+        <v>2880459</v>
       </c>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.3">
@@ -45499,7 +45499,7 @@
         <v>2878172</v>
       </c>
       <c r="Y585">
-        <v>3598483</v>
+        <v>2878172</v>
       </c>
     </row>
     <row r="586" spans="1:25" x14ac:dyDescent="0.3">
@@ -45576,7 +45576,7 @@
         <v>2908003</v>
       </c>
       <c r="Y586">
-        <v>3647583</v>
+        <v>2908003</v>
       </c>
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.3">
@@ -45653,7 +45653,7 @@
         <v>2900966</v>
       </c>
       <c r="Y587">
-        <v>3481724</v>
+        <v>2900966</v>
       </c>
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.3">
@@ -45730,7 +45730,7 @@
         <v>2922572</v>
       </c>
       <c r="Y588">
-        <v>3515679</v>
+        <v>2922572</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.3">
@@ -45807,7 +45807,7 @@
         <v>2988762</v>
       </c>
       <c r="Y589">
-        <v>3624172</v>
+        <v>2988762</v>
       </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.3">
@@ -45884,7 +45884,7 @@
         <v>2938100</v>
       </c>
       <c r="Y590">
-        <v>3518430</v>
+        <v>2938100</v>
       </c>
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.3">
@@ -45961,7 +45961,7 @@
         <v>3026368</v>
       </c>
       <c r="Y591">
-        <v>3711725</v>
+        <v>3026368</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.3">
@@ -46038,7 +46038,7 @@
         <v>1058786</v>
       </c>
       <c r="Y592">
-        <v>1535128</v>
+        <v>1058786</v>
       </c>
     </row>
     <row r="593" spans="1:25" x14ac:dyDescent="0.3">
@@ -46115,7 +46115,7 @@
         <v>775077</v>
       </c>
       <c r="Y593">
-        <v>1401525</v>
+        <v>775077</v>
       </c>
     </row>
     <row r="594" spans="1:25" x14ac:dyDescent="0.3">
@@ -46192,7 +46192,7 @@
         <v>976497</v>
       </c>
       <c r="Y594">
-        <v>1728686</v>
+        <v>976497</v>
       </c>
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.3">
@@ -46269,7 +46269,7 @@
         <v>931280</v>
       </c>
       <c r="Y595">
-        <v>1171758</v>
+        <v>931280</v>
       </c>
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.3">
@@ -46346,7 +46346,7 @@
         <v>1020937</v>
       </c>
       <c r="Y596">
-        <v>1602748</v>
+        <v>1020937</v>
       </c>
     </row>
     <row r="597" spans="1:25" x14ac:dyDescent="0.3">
@@ -46423,7 +46423,7 @@
         <v>870526</v>
       </c>
       <c r="Y597">
-        <v>1763955</v>
+        <v>870526</v>
       </c>
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.3">
@@ -46500,7 +46500,7 @@
         <v>892155</v>
       </c>
       <c r="Y598">
-        <v>1615536</v>
+        <v>892155</v>
       </c>
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.3">
@@ -46577,7 +46577,7 @@
         <v>903196</v>
       </c>
       <c r="Y599">
-        <v>1580863</v>
+        <v>903196</v>
       </c>
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.3">
@@ -46654,7 +46654,7 @@
         <v>856110</v>
       </c>
       <c r="Y600">
-        <v>1439292</v>
+        <v>856110</v>
       </c>
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.3">
@@ -46731,7 +46731,7 @@
         <v>920583</v>
       </c>
       <c r="Y601">
-        <v>1401281</v>
+        <v>920583</v>
       </c>
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.3">
@@ -46808,7 +46808,7 @@
         <v>4822360</v>
       </c>
       <c r="Y602">
-        <v>4891673</v>
+        <v>4822360</v>
       </c>
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.3">
@@ -46885,7 +46885,7 @@
         <v>4865908</v>
       </c>
       <c r="Y603">
-        <v>4945934</v>
+        <v>4865908</v>
       </c>
     </row>
     <row r="604" spans="1:25" x14ac:dyDescent="0.3">
@@ -46962,7 +46962,7 @@
         <v>4907576</v>
       </c>
       <c r="Y604">
-        <v>4983359</v>
+        <v>4907576</v>
       </c>
     </row>
     <row r="605" spans="1:25" x14ac:dyDescent="0.3">
@@ -47039,7 +47039,7 @@
         <v>4804867</v>
       </c>
       <c r="Y605">
-        <v>4867407</v>
+        <v>4804867</v>
       </c>
     </row>
     <row r="606" spans="1:25" x14ac:dyDescent="0.3">
@@ -47116,7 +47116,7 @@
         <v>5003941</v>
       </c>
       <c r="Y606">
-        <v>5084807</v>
+        <v>5003941</v>
       </c>
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.3">
@@ -47193,7 +47193,7 @@
         <v>4891741</v>
       </c>
       <c r="Y607">
-        <v>4955206</v>
+        <v>4891741</v>
       </c>
     </row>
     <row r="608" spans="1:25" x14ac:dyDescent="0.3">
@@ -47270,7 +47270,7 @@
         <v>4840833</v>
       </c>
       <c r="Y608">
-        <v>4907977</v>
+        <v>4840833</v>
       </c>
     </row>
     <row r="609" spans="1:25" x14ac:dyDescent="0.3">
@@ -47347,7 +47347,7 @@
         <v>4806321</v>
       </c>
       <c r="Y609">
-        <v>4878830</v>
+        <v>4806321</v>
       </c>
     </row>
     <row r="610" spans="1:25" x14ac:dyDescent="0.3">
@@ -47424,7 +47424,7 @@
         <v>4879860</v>
       </c>
       <c r="Y610">
-        <v>4933370</v>
+        <v>4879860</v>
       </c>
     </row>
     <row r="611" spans="1:25" x14ac:dyDescent="0.3">
@@ -47501,7 +47501,7 @@
         <v>5010534</v>
       </c>
       <c r="Y611">
-        <v>5063877</v>
+        <v>5010534</v>
       </c>
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.3">
@@ -47578,7 +47578,7 @@
         <v>4603804</v>
       </c>
       <c r="Y612">
-        <v>4983217</v>
+        <v>4603804</v>
       </c>
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.3">
@@ -47655,7 +47655,7 @@
         <v>4473169</v>
       </c>
       <c r="Y613">
-        <v>4851164</v>
+        <v>4473169</v>
       </c>
     </row>
     <row r="614" spans="1:25" x14ac:dyDescent="0.3">
@@ -47732,7 +47732,7 @@
         <v>4730823</v>
       </c>
       <c r="Y614">
-        <v>5127032</v>
+        <v>4730823</v>
       </c>
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.3">
@@ -47809,7 +47809,7 @@
         <v>4640543</v>
       </c>
       <c r="Y615">
-        <v>4942191</v>
+        <v>4640543</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.3">
@@ -47886,7 +47886,7 @@
         <v>4517089</v>
       </c>
       <c r="Y616">
-        <v>4845966</v>
+        <v>4517089</v>
       </c>
     </row>
     <row r="617" spans="1:25" x14ac:dyDescent="0.3">
@@ -47963,7 +47963,7 @@
         <v>4644830</v>
       </c>
       <c r="Y617">
-        <v>5045377</v>
+        <v>4644830</v>
       </c>
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.3">
@@ -48040,7 +48040,7 @@
         <v>4624775</v>
       </c>
       <c r="Y618">
-        <v>5029441</v>
+        <v>4624775</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.3">
@@ -48117,7 +48117,7 @@
         <v>4580938</v>
       </c>
       <c r="Y619">
-        <v>4949804</v>
+        <v>4580938</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.3">
@@ -48194,7 +48194,7 @@
         <v>4548211</v>
       </c>
       <c r="Y620">
-        <v>4916687</v>
+        <v>4548211</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.3">
@@ -48271,7 +48271,7 @@
         <v>4448647</v>
       </c>
       <c r="Y621">
-        <v>4832509</v>
+        <v>4448647</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.3">
@@ -48348,7 +48348,7 @@
         <v>2944970</v>
       </c>
       <c r="Y622">
-        <v>3550820</v>
+        <v>2944970</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.3">
@@ -48425,7 +48425,7 @@
         <v>2902397</v>
       </c>
       <c r="Y623">
-        <v>3374144</v>
+        <v>2902397</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.3">
@@ -48502,7 +48502,7 @@
         <v>2989655</v>
       </c>
       <c r="Y624">
-        <v>3518097</v>
+        <v>2989655</v>
       </c>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.3">
@@ -48579,7 +48579,7 @@
         <v>2910507</v>
       </c>
       <c r="Y625">
-        <v>3507343</v>
+        <v>2910507</v>
       </c>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.3">
@@ -48656,7 +48656,7 @@
         <v>3023219</v>
       </c>
       <c r="Y626">
-        <v>3471841</v>
+        <v>3023219</v>
       </c>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.3">
@@ -48733,7 +48733,7 @@
         <v>2994260</v>
       </c>
       <c r="Y627">
-        <v>3640925</v>
+        <v>2994260</v>
       </c>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.3">
@@ -48810,7 +48810,7 @@
         <v>2973741</v>
       </c>
       <c r="Y628">
-        <v>3531992</v>
+        <v>2973741</v>
       </c>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.3">
@@ -48887,7 +48887,7 @@
         <v>2831961</v>
       </c>
       <c r="Y629">
-        <v>3310360</v>
+        <v>2831961</v>
       </c>
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.3">
@@ -48964,7 +48964,7 @@
         <v>3099443</v>
       </c>
       <c r="Y630">
-        <v>3844152</v>
+        <v>3099443</v>
       </c>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.3">
@@ -49041,7 +49041,7 @@
         <v>2909749</v>
       </c>
       <c r="Y631">
-        <v>3519641</v>
+        <v>2909749</v>
       </c>
     </row>
     <row r="632" spans="1:25" x14ac:dyDescent="0.3">
@@ -49118,7 +49118,7 @@
         <v>890014</v>
       </c>
       <c r="Y632">
-        <v>1703024</v>
+        <v>890014</v>
       </c>
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.3">
@@ -49195,7 +49195,7 @@
         <v>909241</v>
       </c>
       <c r="Y633">
-        <v>1600472</v>
+        <v>909241</v>
       </c>
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.3">
@@ -49272,7 +49272,7 @@
         <v>907610</v>
       </c>
       <c r="Y634">
-        <v>1392745</v>
+        <v>907610</v>
       </c>
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.3">
@@ -49349,7 +49349,7 @@
         <v>899107</v>
       </c>
       <c r="Y635">
-        <v>1531816</v>
+        <v>899107</v>
       </c>
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.3">
@@ -49426,7 +49426,7 @@
         <v>882061</v>
       </c>
       <c r="Y636">
-        <v>1491629</v>
+        <v>882061</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.3">
@@ -49503,7 +49503,7 @@
         <v>1064967</v>
       </c>
       <c r="Y637">
-        <v>1699411</v>
+        <v>1064967</v>
       </c>
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.3">
@@ -49580,7 +49580,7 @@
         <v>872060</v>
       </c>
       <c r="Y638">
-        <v>1978755</v>
+        <v>872060</v>
       </c>
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.3">
@@ -49657,7 +49657,7 @@
         <v>973649</v>
       </c>
       <c r="Y639">
-        <v>1725779</v>
+        <v>973649</v>
       </c>
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.3">
@@ -49734,7 +49734,7 @@
         <v>904942</v>
       </c>
       <c r="Y640">
-        <v>1576011</v>
+        <v>904942</v>
       </c>
     </row>
     <row r="641" spans="1:25" x14ac:dyDescent="0.3">
@@ -49811,7 +49811,7 @@
         <v>918883</v>
       </c>
       <c r="Y641">
-        <v>1423808</v>
+        <v>918883</v>
       </c>
     </row>
     <row r="642" spans="1:25" x14ac:dyDescent="0.3">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="Y642">
         <f>AVERAGE(Y2:Y641)</f>
-        <v>2021395.296875</v>
+        <v>1841640.8671875</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.3">
